--- a/results/gene_essentiality/ensemble_essentialiity/all_medias_orthology_matches.xlsx
+++ b/results/gene_essentiality/ensemble_essentialiity/all_medias_orthology_matches.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/phil/projects/psy_recon/results/gene_essentiality/ensemble_essentialiity/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65EF736D-7B6A-074E-96F7-962F0AA89B9C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24C21D68-45DD-1D43-B718-4D5AE13613D4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="640" yWindow="1080" windowWidth="26840" windowHeight="15940" activeTab="1" xr2:uid="{440AD1EA-ACD4-6942-B63E-E3687A2E06F2}"/>
+    <workbookView minimized="1" xWindow="-34180" yWindow="2160" windowWidth="26840" windowHeight="15940" activeTab="2" xr2:uid="{440AD1EA-ACD4-6942-B63E-E3687A2E06F2}"/>
   </bookViews>
   <sheets>
     <sheet name="old" sheetId="1" r:id="rId1"/>
     <sheet name="updated 02-06-2020" sheetId="2" r:id="rId2"/>
+    <sheet name="only differences" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1556" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1587" uniqueCount="104">
   <si>
     <t>supergroup</t>
   </si>
@@ -301,43 +302,7 @@
     <t>Aspartate</t>
   </si>
   <si>
-    <t>Geraniol degradation - Pseudomonas syringae pv. tomato DC3000</t>
-  </si>
-  <si>
-    <t>Lysine degradation - Pseudomonas syringae pv. tomato DC3000</t>
-  </si>
-  <si>
     <t>Metabolic pathways - Pseudomonas syringae pv. tomato DC3000</t>
-  </si>
-  <si>
-    <t>Methane metabolism - Pseudomonas syringae pv. tomato DC3000</t>
-  </si>
-  <si>
-    <t>Novobiocin biosynthesis - Pseudomonas syringae pv. tomato DC3000</t>
-  </si>
-  <si>
-    <t>Phenylalanine metabolism - Pseudomonas syringae pv. tomato DC3000</t>
-  </si>
-  <si>
-    <t>Pyruvate metabolism - Pseudomonas syringae pv. tomato DC3000</t>
-  </si>
-  <si>
-    <t>Core Metabolism</t>
-  </si>
-  <si>
-    <t>RNA degradation - Pseudomonas syringae pv. tomato DC3000</t>
-  </si>
-  <si>
-    <t>Nucleic Acid Maintenance</t>
-  </si>
-  <si>
-    <t>Selenocompound metabolism - Pseudomonas syringae pv. tomato DC3000</t>
-  </si>
-  <si>
-    <t>Synthesis and degradation of ketone bodies - Pseudomonas syringae pv. tomato DC3000</t>
-  </si>
-  <si>
-    <t>Tyrosine metabolism - Pseudomonas syringae pv. tomato DC3000</t>
   </si>
   <si>
     <t>Valine, leucine and isoleucine degradation - Pseudomonas syringae pv. tomato DC3000</t>
@@ -374,6 +339,12 @@
   </si>
   <si>
     <t>Leu</t>
+  </si>
+  <si>
+    <t>370 NM</t>
+  </si>
+  <si>
+    <t>410 NM</t>
   </si>
 </sst>
 </file>
@@ -440,9 +411,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -3356,26 +3327,26 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{898C11B4-0599-E449-A698-E4C1ACE77072}">
-  <dimension ref="A1:AS63"/>
+  <dimension ref="A1:BF63"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AR21" sqref="AR21"/>
+    <sheetView topLeftCell="AN1" workbookViewId="0">
+      <selection activeCell="AV24" sqref="AV24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" width="10.83203125" style="4"/>
-    <col min="6" max="6" width="10.83203125" style="5"/>
-    <col min="9" max="9" width="10.83203125" style="5"/>
-    <col min="12" max="12" width="10.83203125" style="5"/>
-    <col min="15" max="15" width="10.83203125" style="5"/>
-    <col min="18" max="18" width="10.83203125" style="5"/>
-    <col min="21" max="21" width="10.83203125" style="5"/>
-    <col min="24" max="24" width="10.83203125" style="5"/>
-    <col min="27" max="27" width="10.83203125" style="5"/>
+    <col min="3" max="3" width="10.83203125" style="5"/>
+    <col min="6" max="6" width="10.83203125" style="6"/>
+    <col min="9" max="9" width="10.83203125" style="6"/>
+    <col min="12" max="12" width="10.83203125" style="6"/>
+    <col min="15" max="15" width="10.83203125" style="6"/>
+    <col min="18" max="18" width="10.83203125" style="6"/>
+    <col min="21" max="21" width="10.83203125" style="6"/>
+    <col min="24" max="24" width="10.83203125" style="6"/>
+    <col min="27" max="27" width="10.83203125" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>28</v>
       </c>
@@ -3387,42 +3358,42 @@
       <c r="E1" s="3"/>
       <c r="F1" s="3"/>
       <c r="G1" s="3" t="s">
-        <v>103</v>
+        <v>91</v>
       </c>
       <c r="H1" s="3"/>
       <c r="I1" s="3"/>
       <c r="J1" s="3" t="s">
-        <v>104</v>
+        <v>92</v>
       </c>
       <c r="K1" s="3"/>
       <c r="L1" s="3"/>
       <c r="M1" s="3" t="s">
-        <v>105</v>
+        <v>93</v>
       </c>
       <c r="N1" s="3"/>
       <c r="O1" s="3"/>
       <c r="P1" s="3" t="s">
-        <v>106</v>
+        <v>94</v>
       </c>
       <c r="Q1" s="3"/>
       <c r="R1" s="3"/>
       <c r="S1" s="3" t="s">
-        <v>107</v>
+        <v>95</v>
       </c>
       <c r="T1" s="3"/>
       <c r="U1" s="3"/>
       <c r="V1" s="3" t="s">
-        <v>108</v>
+        <v>96</v>
       </c>
       <c r="W1" s="3"/>
       <c r="X1" s="3"/>
       <c r="Y1" s="3" t="s">
-        <v>109</v>
+        <v>97</v>
       </c>
       <c r="Z1" s="3"/>
       <c r="AA1" s="3"/>
       <c r="AB1" s="3" t="s">
-        <v>110</v>
+        <v>98</v>
       </c>
       <c r="AC1" s="3"/>
       <c r="AD1" s="3"/>
@@ -3430,41 +3401,71 @@
         <v>28</v>
       </c>
       <c r="AK1" t="s">
-        <v>111</v>
+        <v>99</v>
       </c>
       <c r="AL1" t="s">
-        <v>103</v>
+        <v>91</v>
       </c>
       <c r="AM1" t="s">
-        <v>104</v>
+        <v>92</v>
       </c>
       <c r="AN1" t="s">
-        <v>105</v>
+        <v>93</v>
       </c>
       <c r="AO1" t="s">
-        <v>106</v>
+        <v>94</v>
       </c>
       <c r="AP1" t="s">
-        <v>112</v>
+        <v>100</v>
       </c>
       <c r="AQ1" t="s">
-        <v>108</v>
+        <v>96</v>
       </c>
       <c r="AR1" t="s">
-        <v>113</v>
+        <v>101</v>
       </c>
       <c r="AS1" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="2" spans="1:45" x14ac:dyDescent="0.2">
+        <v>98</v>
+      </c>
+      <c r="AW1" t="s">
+        <v>93</v>
+      </c>
+      <c r="AX1" t="s">
+        <v>99</v>
+      </c>
+      <c r="AY1" t="s">
+        <v>94</v>
+      </c>
+      <c r="AZ1" t="s">
+        <v>91</v>
+      </c>
+      <c r="BA1" t="s">
+        <v>98</v>
+      </c>
+      <c r="BB1" t="s">
+        <v>96</v>
+      </c>
+      <c r="BC1" t="s">
+        <v>100</v>
+      </c>
+      <c r="BD1" t="s">
+        <v>101</v>
+      </c>
+      <c r="BE1" t="s">
+        <v>28</v>
+      </c>
+      <c r="BF1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="2" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>29</v>
       </c>
       <c r="B2" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="5" t="s">
         <v>0</v>
       </c>
       <c r="D2" t="s">
@@ -3473,7 +3474,7 @@
       <c r="E2" t="s">
         <v>16</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="F2" t="s">
         <v>0</v>
       </c>
       <c r="G2" t="s">
@@ -3482,7 +3483,7 @@
       <c r="H2" t="s">
         <v>16</v>
       </c>
-      <c r="I2" s="5" t="s">
+      <c r="I2" t="s">
         <v>0</v>
       </c>
       <c r="J2" t="s">
@@ -3491,7 +3492,7 @@
       <c r="K2" t="s">
         <v>16</v>
       </c>
-      <c r="L2" s="5" t="s">
+      <c r="L2" s="6" t="s">
         <v>0</v>
       </c>
       <c r="M2" t="s">
@@ -3500,7 +3501,7 @@
       <c r="N2" t="s">
         <v>16</v>
       </c>
-      <c r="O2" s="5" t="s">
+      <c r="O2" t="s">
         <v>0</v>
       </c>
       <c r="P2" t="s">
@@ -3509,16 +3510,16 @@
       <c r="Q2" t="s">
         <v>16</v>
       </c>
-      <c r="R2" s="5" t="s">
+      <c r="R2" t="s">
         <v>0</v>
       </c>
-      <c r="S2" s="2" t="s">
+      <c r="S2" t="s">
         <v>29</v>
       </c>
-      <c r="T2" s="2" t="s">
+      <c r="T2" t="s">
         <v>16</v>
       </c>
-      <c r="U2" s="6" t="s">
+      <c r="U2" t="s">
         <v>0</v>
       </c>
       <c r="V2" t="s">
@@ -3527,7 +3528,7 @@
       <c r="W2" t="s">
         <v>16</v>
       </c>
-      <c r="X2" s="5" t="s">
+      <c r="X2" s="6" t="s">
         <v>0</v>
       </c>
       <c r="Y2" t="s">
@@ -3536,7 +3537,7 @@
       <c r="Z2" t="s">
         <v>16</v>
       </c>
-      <c r="AA2" s="5" t="s">
+      <c r="AA2" s="6" t="s">
         <v>0</v>
       </c>
       <c r="AB2" t="s">
@@ -3549,75 +3550,108 @@
         <v>0</v>
       </c>
       <c r="AI2" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="AJ2">
         <f>SUMIF(C$3:C$60,AI2,B$3:B$60)</f>
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="AK2">
         <f>SUMIF(F$3:F$63,$AI2,E$3:E$63)</f>
-        <v>216</v>
+        <v>90</v>
       </c>
       <c r="AL2">
         <f>SUMIF(I$3:I$63,$AI2,H$3:H$63)</f>
-        <v>181</v>
+        <v>90</v>
       </c>
       <c r="AM2">
         <f>SUMIF(L$3:L$54,$AI2,K$3:K$54)</f>
-        <v>41</v>
-      </c>
-      <c r="AN2" s="7">
+        <v>68</v>
+      </c>
+      <c r="AN2" s="4">
         <f>SUMIF(O$3:O$63,$AI2,N$3:N$63)</f>
-        <v>387</v>
-      </c>
-      <c r="AO2">
+        <v>90</v>
+      </c>
+      <c r="AO2" s="7">
         <f>SUMIF(R$3:R$63,$AI2,Q$3:Q$63)</f>
-        <v>223</v>
-      </c>
-      <c r="AP2">
+        <v>90</v>
+      </c>
+      <c r="AP2" s="7">
         <f>SUMIF(U$3:U$60,$AI2,T$3:T$60)</f>
-        <v>194</v>
-      </c>
-      <c r="AQ2" s="7">
+        <v>90</v>
+      </c>
+      <c r="AQ2" s="4">
         <f>SUMIF(X$3:X$60,$AI2,W$3:W$60)</f>
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="AR2">
-        <f>SUMIF(AA$3:AA$60,$AI2,Z$3:Z$60)</f>
-        <v>77</v>
+        <f>SUMIF(AA$3:AA$61,$AI2,Z$3:Z$61)</f>
+        <v>83</v>
       </c>
       <c r="AS2">
-        <f>SUMIF(AD$3:AD$60,$AI2,AC$3:AC$60)</f>
-        <v>164</v>
-      </c>
-    </row>
-    <row r="3" spans="1:45" x14ac:dyDescent="0.2">
+        <f>SUMIF(AD$3:AD$63,$AI2,AC$3:AC$63)</f>
+        <v>90</v>
+      </c>
+      <c r="AV2" t="s">
+        <v>7</v>
+      </c>
+      <c r="AW2">
+        <v>90</v>
+      </c>
+      <c r="AX2">
+        <v>90</v>
+      </c>
+      <c r="AY2">
+        <v>90</v>
+      </c>
+      <c r="AZ2">
+        <v>90</v>
+      </c>
+      <c r="BA2">
+        <v>90</v>
+      </c>
+      <c r="BB2">
+        <v>84</v>
+      </c>
+      <c r="BC2">
+        <v>90</v>
+      </c>
+      <c r="BD2">
+        <v>83</v>
+      </c>
+      <c r="BE2">
+        <v>83</v>
+      </c>
+      <c r="BF2">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="3" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>30</v>
       </c>
       <c r="B3">
         <v>5</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="5" t="s">
         <v>1</v>
       </c>
       <c r="D3" t="s">
         <v>30</v>
       </c>
       <c r="E3">
-        <v>15</v>
-      </c>
-      <c r="F3" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F3" t="s">
         <v>1</v>
       </c>
       <c r="G3" t="s">
         <v>30</v>
       </c>
       <c r="H3">
-        <v>12</v>
-      </c>
-      <c r="I3" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="I3" t="s">
         <v>1</v>
       </c>
       <c r="J3" t="s">
@@ -3626,34 +3660,34 @@
       <c r="K3">
         <v>4</v>
       </c>
-      <c r="L3" s="5" t="s">
+      <c r="L3" s="6" t="s">
         <v>1</v>
       </c>
       <c r="M3" t="s">
         <v>30</v>
       </c>
       <c r="N3">
-        <v>27</v>
-      </c>
-      <c r="O3" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="O3" t="s">
         <v>1</v>
       </c>
       <c r="P3" t="s">
         <v>30</v>
       </c>
       <c r="Q3">
-        <v>15</v>
-      </c>
-      <c r="R3" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="S3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="R3" t="s">
+        <v>1</v>
+      </c>
+      <c r="S3" t="s">
         <v>30</v>
       </c>
-      <c r="T3" s="2">
-        <v>15</v>
-      </c>
-      <c r="U3" s="6" t="s">
+      <c r="T3">
+        <v>5</v>
+      </c>
+      <c r="U3" t="s">
         <v>1</v>
       </c>
       <c r="V3" t="s">
@@ -3662,7 +3696,7 @@
       <c r="W3">
         <v>9</v>
       </c>
-      <c r="X3" s="5" t="s">
+      <c r="X3" s="6" t="s">
         <v>4</v>
       </c>
       <c r="Y3" t="s">
@@ -3671,88 +3705,121 @@
       <c r="Z3">
         <v>4</v>
       </c>
-      <c r="AA3" s="5" t="s">
+      <c r="AA3" s="6" t="s">
         <v>1</v>
       </c>
       <c r="AB3" t="s">
         <v>30</v>
       </c>
       <c r="AC3">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="AD3" t="s">
         <v>1</v>
       </c>
       <c r="AI3" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="AJ3">
-        <f t="shared" ref="AJ3:AJ18" si="0">SUMIF(C$3:C$60,AI3,B$3:B$60)</f>
-        <v>83</v>
+        <f>SUMIF(C$3:C$60,AI3,B$3:B$60)</f>
+        <v>55</v>
       </c>
       <c r="AK3">
-        <f t="shared" ref="AK3:AK18" si="1">SUMIF(F$3:F$63,$AI3,E$3:E$63)</f>
-        <v>180</v>
+        <f>SUMIF(F$3:F$63,$AI3,E$3:E$63)</f>
+        <v>56</v>
       </c>
       <c r="AL3">
-        <f t="shared" ref="AL3:AL18" si="2">SUMIF(I$3:I$63,$AI3,H$3:H$63)</f>
-        <v>171</v>
+        <f>SUMIF(I$3:I$63,$AI3,H$3:H$63)</f>
+        <v>56</v>
       </c>
       <c r="AM3">
-        <f t="shared" ref="AM3:AM18" si="3">SUMIF(L$3:L$54,$AI3,K$3:K$54)</f>
-        <v>68</v>
-      </c>
-      <c r="AN3" s="7">
-        <f t="shared" ref="AN3:AN18" si="4">SUMIF(O$3:O$63,$AI3,N$3:N$63)</f>
-        <v>354</v>
-      </c>
-      <c r="AO3">
-        <f t="shared" ref="AO3:AO18" si="5">SUMIF(R$3:R$63,$AI3,Q$3:Q$63)</f>
-        <v>193</v>
-      </c>
-      <c r="AP3">
-        <f t="shared" ref="AP3:AP18" si="6">SUMIF(U$3:U$60,$AI3,T$3:T$60)</f>
-        <v>193</v>
-      </c>
-      <c r="AQ3" s="7">
-        <f t="shared" ref="AQ3:AQ17" si="7">SUMIF(X$3:X$60,$AI3,W$3:W$60)</f>
-        <v>84</v>
+        <f>SUMIF(L$3:L$54,$AI3,K$3:K$54)</f>
+        <v>47</v>
+      </c>
+      <c r="AN3" s="4">
+        <f>SUMIF(O$3:O$63,$AI3,N$3:N$63)</f>
+        <v>56</v>
+      </c>
+      <c r="AO3" s="7">
+        <f>SUMIF(R$3:R$63,$AI3,Q$3:Q$63)</f>
+        <v>56</v>
+      </c>
+      <c r="AP3" s="7">
+        <f>SUMIF(U$3:U$60,$AI3,T$3:T$60)</f>
+        <v>56</v>
+      </c>
+      <c r="AQ3" s="4">
+        <f>SUMIF(X$3:X$60,$AI3,W$3:W$60)</f>
+        <v>56</v>
       </c>
       <c r="AR3">
-        <f t="shared" ref="AR3:AR18" si="8">SUMIF(AA$3:AA$60,$AI3,Z$3:Z$60)</f>
-        <v>83</v>
+        <f>SUMIF(AA$3:AA$61,$AI3,Z$3:Z$61)</f>
+        <v>56</v>
       </c>
       <c r="AS3">
-        <f t="shared" ref="AS3:AS18" si="9">SUMIF(AD$3:AD$60,$AI3,AC$3:AC$60)</f>
-        <v>170</v>
-      </c>
-    </row>
-    <row r="4" spans="1:45" x14ac:dyDescent="0.2">
+        <f>SUMIF(AD$3:AD$63,$AI3,AC$3:AC$63)</f>
+        <v>56</v>
+      </c>
+      <c r="AV3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AW3">
+        <v>81</v>
+      </c>
+      <c r="AX3">
+        <v>79</v>
+      </c>
+      <c r="AY3">
+        <v>79</v>
+      </c>
+      <c r="AZ3">
+        <v>79</v>
+      </c>
+      <c r="BA3">
+        <v>79</v>
+      </c>
+      <c r="BB3">
+        <v>77</v>
+      </c>
+      <c r="BC3">
+        <v>74</v>
+      </c>
+      <c r="BD3">
+        <v>78</v>
+      </c>
+      <c r="BE3">
+        <v>75</v>
+      </c>
+      <c r="BF3">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="4" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>31</v>
       </c>
       <c r="B4">
         <v>1</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="5" t="s">
         <v>2</v>
       </c>
       <c r="D4" t="s">
         <v>31</v>
       </c>
       <c r="E4">
-        <v>9</v>
-      </c>
-      <c r="F4" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="F4" t="s">
         <v>2</v>
       </c>
       <c r="G4" t="s">
         <v>31</v>
       </c>
       <c r="H4">
-        <v>10</v>
-      </c>
-      <c r="I4" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="I4" t="s">
         <v>2</v>
       </c>
       <c r="J4" t="s">
@@ -3761,34 +3828,34 @@
       <c r="K4">
         <v>1</v>
       </c>
-      <c r="L4" s="5" t="s">
+      <c r="L4" s="6" t="s">
         <v>2</v>
       </c>
       <c r="M4" t="s">
         <v>31</v>
       </c>
       <c r="N4">
-        <v>20</v>
-      </c>
-      <c r="O4" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="O4" t="s">
         <v>2</v>
       </c>
       <c r="P4" t="s">
         <v>31</v>
       </c>
       <c r="Q4">
-        <v>12</v>
-      </c>
-      <c r="R4" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="S4" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="R4" t="s">
+        <v>2</v>
+      </c>
+      <c r="S4" t="s">
         <v>31</v>
       </c>
-      <c r="T4" s="2">
-        <v>12</v>
-      </c>
-      <c r="U4" s="6" t="s">
+      <c r="T4">
+        <v>1</v>
+      </c>
+      <c r="U4" t="s">
         <v>2</v>
       </c>
       <c r="V4" t="s">
@@ -3797,7 +3864,7 @@
       <c r="W4">
         <v>5</v>
       </c>
-      <c r="X4" s="5" t="s">
+      <c r="X4" s="6" t="s">
         <v>4</v>
       </c>
       <c r="Y4" t="s">
@@ -3806,88 +3873,121 @@
       <c r="Z4">
         <v>1</v>
       </c>
-      <c r="AA4" s="5" t="s">
+      <c r="AA4" s="6" t="s">
         <v>2</v>
       </c>
       <c r="AB4" t="s">
         <v>31</v>
       </c>
       <c r="AC4">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="AD4" t="s">
         <v>2</v>
       </c>
       <c r="AI4" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AJ4">
-        <f t="shared" si="0"/>
+        <f>SUMIF(C$3:C$60,AI4,B$3:B$60)</f>
+        <v>75</v>
+      </c>
+      <c r="AK4">
+        <f>SUMIF(F$3:F$63,$AI4,E$3:E$63)</f>
+        <v>79</v>
+      </c>
+      <c r="AL4">
+        <f>SUMIF(I$3:I$63,$AI4,H$3:H$63)</f>
+        <v>79</v>
+      </c>
+      <c r="AM4">
+        <f>SUMIF(L$3:L$54,$AI4,K$3:K$54)</f>
+        <v>41</v>
+      </c>
+      <c r="AN4" s="4">
+        <f>SUMIF(O$3:O$63,$AI4,N$3:N$63)</f>
+        <v>81</v>
+      </c>
+      <c r="AO4" s="7">
+        <f>SUMIF(R$3:R$63,$AI4,Q$3:Q$63)</f>
+        <v>79</v>
+      </c>
+      <c r="AP4" s="7">
+        <f>SUMIF(U$3:U$60,$AI4,T$3:T$60)</f>
+        <v>74</v>
+      </c>
+      <c r="AQ4" s="4">
+        <f>SUMIF(X$3:X$60,$AI4,W$3:W$60)</f>
+        <v>77</v>
+      </c>
+      <c r="AR4">
+        <f>SUMIF(AA$3:AA$61,$AI4,Z$3:Z$61)</f>
+        <v>78</v>
+      </c>
+      <c r="AS4">
+        <f>SUMIF(AD$3:AD$63,$AI4,AC$3:AC$63)</f>
+        <v>79</v>
+      </c>
+      <c r="AV4" t="s">
+        <v>3</v>
+      </c>
+      <c r="AW4">
+        <v>56</v>
+      </c>
+      <c r="AX4">
+        <v>56</v>
+      </c>
+      <c r="AY4">
+        <v>56</v>
+      </c>
+      <c r="AZ4">
+        <v>56</v>
+      </c>
+      <c r="BA4">
+        <v>56</v>
+      </c>
+      <c r="BB4">
+        <v>56</v>
+      </c>
+      <c r="BC4">
+        <v>56</v>
+      </c>
+      <c r="BD4">
+        <v>56</v>
+      </c>
+      <c r="BE4">
         <v>55</v>
       </c>
-      <c r="AK4">
-        <f t="shared" si="1"/>
-        <v>130</v>
-      </c>
-      <c r="AL4">
-        <f t="shared" si="2"/>
-        <v>123</v>
-      </c>
-      <c r="AM4">
-        <f t="shared" si="3"/>
+      <c r="BF4">
         <v>47</v>
       </c>
-      <c r="AN4" s="7">
-        <f t="shared" si="4"/>
-        <v>254</v>
-      </c>
-      <c r="AO4">
-        <f t="shared" si="5"/>
-        <v>139</v>
-      </c>
-      <c r="AP4">
-        <f t="shared" si="6"/>
-        <v>139</v>
-      </c>
-      <c r="AQ4" s="7">
-        <f t="shared" si="7"/>
-        <v>56</v>
-      </c>
-      <c r="AR4">
-        <f t="shared" si="8"/>
-        <v>56</v>
-      </c>
-      <c r="AS4">
-        <f t="shared" si="9"/>
-        <v>122</v>
-      </c>
-    </row>
-    <row r="5" spans="1:45" x14ac:dyDescent="0.2">
+    </row>
+    <row r="5" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>32</v>
       </c>
       <c r="B5">
         <v>2</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="5" t="s">
         <v>3</v>
       </c>
       <c r="D5" t="s">
         <v>32</v>
       </c>
       <c r="E5">
-        <v>4</v>
-      </c>
-      <c r="F5" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="F5" t="s">
         <v>3</v>
       </c>
       <c r="G5" t="s">
         <v>32</v>
       </c>
       <c r="H5">
-        <v>4</v>
-      </c>
-      <c r="I5" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="I5" t="s">
         <v>3</v>
       </c>
       <c r="J5" t="s">
@@ -3896,34 +3996,34 @@
       <c r="K5">
         <v>2</v>
       </c>
-      <c r="L5" s="5" t="s">
+      <c r="L5" s="6" t="s">
         <v>3</v>
       </c>
       <c r="M5" t="s">
         <v>32</v>
       </c>
       <c r="N5">
-        <v>8</v>
-      </c>
-      <c r="O5" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="O5" t="s">
         <v>3</v>
       </c>
       <c r="P5" t="s">
         <v>32</v>
       </c>
       <c r="Q5">
-        <v>4</v>
-      </c>
-      <c r="R5" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="S5" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="R5" t="s">
+        <v>3</v>
+      </c>
+      <c r="S5" t="s">
         <v>32</v>
       </c>
-      <c r="T5" s="2">
-        <v>4</v>
-      </c>
-      <c r="U5" s="6" t="s">
+      <c r="T5">
+        <v>2</v>
+      </c>
+      <c r="U5" t="s">
         <v>3</v>
       </c>
       <c r="V5" t="s">
@@ -3932,7 +4032,7 @@
       <c r="W5">
         <v>4</v>
       </c>
-      <c r="X5" s="5" t="s">
+      <c r="X5" s="6" t="s">
         <v>4</v>
       </c>
       <c r="Y5" t="s">
@@ -3941,88 +4041,121 @@
       <c r="Z5">
         <v>2</v>
       </c>
-      <c r="AA5" s="5" t="s">
+      <c r="AA5" s="6" t="s">
         <v>3</v>
       </c>
       <c r="AB5" t="s">
         <v>32</v>
       </c>
       <c r="AC5">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AD5" t="s">
         <v>3</v>
       </c>
       <c r="AI5" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="AJ5">
-        <f t="shared" si="0"/>
-        <v>29</v>
+        <f>SUMIF(C$3:C$60,AI5,B$3:B$60)</f>
+        <v>31</v>
       </c>
       <c r="AK5">
-        <f t="shared" si="1"/>
-        <v>60</v>
+        <f>SUMIF(F$3:F$63,$AI5,E$3:E$63)</f>
+        <v>43</v>
       </c>
       <c r="AL5">
-        <f t="shared" si="2"/>
-        <v>58</v>
+        <f>SUMIF(I$3:I$63,$AI5,H$3:H$63)</f>
+        <v>40</v>
       </c>
       <c r="AM5">
-        <f t="shared" si="3"/>
-        <v>22</v>
-      </c>
-      <c r="AN5" s="7">
-        <f t="shared" si="4"/>
-        <v>120</v>
-      </c>
-      <c r="AO5">
-        <f t="shared" si="5"/>
-        <v>68</v>
-      </c>
-      <c r="AP5">
-        <f t="shared" si="6"/>
-        <v>68</v>
-      </c>
-      <c r="AQ5" s="7">
-        <f t="shared" si="7"/>
+        <f>SUMIF(L$3:L$54,$AI5,K$3:K$54)</f>
         <v>30</v>
       </c>
+      <c r="AN5" s="4">
+        <f>SUMIF(O$3:O$63,$AI5,N$3:N$63)</f>
+        <v>50</v>
+      </c>
+      <c r="AO5" s="7">
+        <f>SUMIF(R$3:R$63,$AI5,Q$3:Q$63)</f>
+        <v>43</v>
+      </c>
+      <c r="AP5" s="7">
+        <f>SUMIF(U$3:U$60,$AI5,T$3:T$60)</f>
+        <v>31</v>
+      </c>
+      <c r="AQ5" s="4">
+        <f>SUMIF(X$3:X$60,$AI5,W$3:W$60)</f>
+        <v>31</v>
+      </c>
       <c r="AR5">
-        <f t="shared" si="8"/>
+        <f>SUMIF(AA$3:AA$61,$AI5,Z$3:Z$61)</f>
+        <v>31</v>
+      </c>
+      <c r="AS5">
+        <f>SUMIF(AD$3:AD$63,$AI5,AC$3:AC$63)</f>
+        <v>40</v>
+      </c>
+      <c r="AV5" t="s">
+        <v>8</v>
+      </c>
+      <c r="AW5">
+        <v>50</v>
+      </c>
+      <c r="AX5">
+        <v>43</v>
+      </c>
+      <c r="AY5">
+        <v>43</v>
+      </c>
+      <c r="AZ5">
+        <v>40</v>
+      </c>
+      <c r="BA5">
+        <v>40</v>
+      </c>
+      <c r="BB5">
+        <v>31</v>
+      </c>
+      <c r="BC5">
+        <v>31</v>
+      </c>
+      <c r="BD5">
+        <v>31</v>
+      </c>
+      <c r="BE5">
+        <v>31</v>
+      </c>
+      <c r="BF5">
         <v>30</v>
       </c>
-      <c r="AS5">
-        <f t="shared" si="9"/>
-        <v>58</v>
-      </c>
-    </row>
-    <row r="6" spans="1:45" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>33</v>
       </c>
       <c r="B6">
         <v>9</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="5" t="s">
         <v>4</v>
       </c>
       <c r="D6" t="s">
         <v>33</v>
       </c>
       <c r="E6">
-        <v>16</v>
-      </c>
-      <c r="F6" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F6" t="s">
         <v>4</v>
       </c>
       <c r="G6" t="s">
         <v>33</v>
       </c>
       <c r="H6">
-        <v>14</v>
-      </c>
-      <c r="I6" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="I6" t="s">
         <v>4</v>
       </c>
       <c r="J6" t="s">
@@ -4031,34 +4164,34 @@
       <c r="K6">
         <v>2</v>
       </c>
-      <c r="L6" s="5" t="s">
+      <c r="L6" s="6" t="s">
         <v>4</v>
       </c>
       <c r="M6" t="s">
         <v>33</v>
       </c>
       <c r="N6">
-        <v>31</v>
-      </c>
-      <c r="O6" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="O6" t="s">
         <v>4</v>
       </c>
       <c r="P6" t="s">
         <v>33</v>
       </c>
       <c r="Q6">
-        <v>18</v>
-      </c>
-      <c r="R6" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="S6" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="R6" t="s">
+        <v>4</v>
+      </c>
+      <c r="S6" t="s">
         <v>33</v>
       </c>
-      <c r="T6" s="2">
-        <v>18</v>
-      </c>
-      <c r="U6" s="6" t="s">
+      <c r="T6">
+        <v>8</v>
+      </c>
+      <c r="U6" t="s">
         <v>4</v>
       </c>
       <c r="V6" t="s">
@@ -4067,7 +4200,7 @@
       <c r="W6">
         <v>31</v>
       </c>
-      <c r="X6" s="5" t="s">
+      <c r="X6" s="6" t="s">
         <v>4</v>
       </c>
       <c r="Y6" t="s">
@@ -4076,88 +4209,121 @@
       <c r="Z6">
         <v>9</v>
       </c>
-      <c r="AA6" s="5" t="s">
+      <c r="AA6" s="6" t="s">
         <v>4</v>
       </c>
       <c r="AB6" t="s">
         <v>33</v>
       </c>
       <c r="AC6">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="AD6" t="s">
         <v>4</v>
       </c>
       <c r="AI6" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="AJ6">
-        <f t="shared" si="0"/>
-        <v>15</v>
+        <f>SUMIF(C$3:C$60,AI6,B$3:B$60)</f>
+        <v>24</v>
       </c>
       <c r="AK6">
-        <f t="shared" si="1"/>
-        <v>17</v>
+        <f>SUMIF(F$3:F$63,$AI6,E$3:E$63)</f>
+        <v>24</v>
       </c>
       <c r="AL6">
-        <f t="shared" si="2"/>
-        <v>16</v>
+        <f>SUMIF(I$3:I$63,$AI6,H$3:H$63)</f>
+        <v>24</v>
       </c>
       <c r="AM6">
-        <f t="shared" si="3"/>
-        <v>13</v>
-      </c>
-      <c r="AN6" s="7">
-        <f t="shared" si="4"/>
-        <v>33</v>
-      </c>
-      <c r="AO6">
-        <f t="shared" si="5"/>
-        <v>17</v>
-      </c>
-      <c r="AP6">
-        <f t="shared" si="6"/>
-        <v>17</v>
-      </c>
-      <c r="AQ6" s="7">
-        <f t="shared" si="7"/>
-        <v>15</v>
+        <f>SUMIF(L$3:L$54,$AI6,K$3:K$54)</f>
+        <v>23</v>
+      </c>
+      <c r="AN6" s="4">
+        <f>SUMIF(O$3:O$63,$AI6,N$3:N$63)</f>
+        <v>24</v>
+      </c>
+      <c r="AO6" s="7">
+        <f>SUMIF(R$3:R$63,$AI6,Q$3:Q$63)</f>
+        <v>24</v>
+      </c>
+      <c r="AP6" s="7">
+        <f>SUMIF(U$3:U$60,$AI6,T$3:T$60)</f>
+        <v>24</v>
+      </c>
+      <c r="AQ6" s="4">
+        <f>SUMIF(X$3:X$60,$AI6,W$3:W$60)</f>
+        <v>24</v>
       </c>
       <c r="AR6">
-        <f t="shared" si="8"/>
-        <v>14</v>
+        <f>SUMIF(AA$3:AA$61,$AI6,Z$3:Z$61)</f>
+        <v>23</v>
       </c>
       <c r="AS6">
-        <f t="shared" si="9"/>
-        <v>16</v>
-      </c>
-    </row>
-    <row r="7" spans="1:45" x14ac:dyDescent="0.2">
+        <f>SUMIF(AD$3:AD$63,$AI6,AC$3:AC$63)</f>
+        <v>24</v>
+      </c>
+      <c r="AV6" t="s">
+        <v>5</v>
+      </c>
+      <c r="AW6">
+        <v>30</v>
+      </c>
+      <c r="AX6">
+        <v>30</v>
+      </c>
+      <c r="AY6">
+        <v>30</v>
+      </c>
+      <c r="AZ6">
+        <v>30</v>
+      </c>
+      <c r="BA6">
+        <v>30</v>
+      </c>
+      <c r="BB6">
+        <v>30</v>
+      </c>
+      <c r="BC6">
+        <v>30</v>
+      </c>
+      <c r="BD6">
+        <v>30</v>
+      </c>
+      <c r="BE6">
+        <v>29</v>
+      </c>
+      <c r="BF6">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>34</v>
       </c>
       <c r="B7">
         <v>5</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="5" t="s">
         <v>5</v>
       </c>
       <c r="D7" t="s">
         <v>34</v>
       </c>
       <c r="E7">
-        <v>6</v>
-      </c>
-      <c r="F7" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F7" t="s">
         <v>5</v>
       </c>
       <c r="G7" t="s">
         <v>34</v>
       </c>
       <c r="H7">
-        <v>8</v>
-      </c>
-      <c r="I7" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="I7" t="s">
         <v>5</v>
       </c>
       <c r="J7" t="s">
@@ -4166,34 +4332,34 @@
       <c r="K7">
         <v>5</v>
       </c>
-      <c r="L7" s="5" t="s">
+      <c r="L7" s="6" t="s">
         <v>5</v>
       </c>
       <c r="M7" t="s">
         <v>34</v>
       </c>
       <c r="N7">
-        <v>17</v>
-      </c>
-      <c r="O7" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="O7" t="s">
         <v>5</v>
       </c>
       <c r="P7" t="s">
         <v>34</v>
       </c>
       <c r="Q7">
-        <v>9</v>
-      </c>
-      <c r="R7" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="S7" s="2" t="s">
+      <c r="R7" t="s">
+        <v>5</v>
+      </c>
+      <c r="S7" t="s">
         <v>34</v>
       </c>
-      <c r="T7" s="2">
-        <v>9</v>
-      </c>
-      <c r="U7" s="6" t="s">
+      <c r="T7">
+        <v>5</v>
+      </c>
+      <c r="U7" t="s">
         <v>5</v>
       </c>
       <c r="V7" t="s">
@@ -4202,7 +4368,7 @@
       <c r="W7">
         <v>4</v>
       </c>
-      <c r="X7" s="5" t="s">
+      <c r="X7" s="6" t="s">
         <v>4</v>
       </c>
       <c r="Y7" t="s">
@@ -4211,89 +4377,122 @@
       <c r="Z7">
         <v>5</v>
       </c>
-      <c r="AA7" s="5" t="s">
+      <c r="AA7" s="6" t="s">
         <v>5</v>
       </c>
       <c r="AB7" t="s">
         <v>34</v>
       </c>
       <c r="AC7">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="AD7" t="s">
         <v>5</v>
       </c>
       <c r="AI7" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="AJ7">
-        <f t="shared" si="0"/>
-        <v>13</v>
+        <f>SUMIF(C$3:C$60,AI7,B$3:B$60)</f>
+        <v>29</v>
       </c>
       <c r="AK7">
-        <f t="shared" si="1"/>
-        <v>28</v>
+        <f>SUMIF(F$3:F$63,$AI7,E$3:E$63)</f>
+        <v>30</v>
       </c>
       <c r="AL7">
-        <f t="shared" si="2"/>
-        <v>29</v>
+        <f>SUMIF(I$3:I$63,$AI7,H$3:H$63)</f>
+        <v>30</v>
       </c>
       <c r="AM7">
-        <f t="shared" si="3"/>
-        <v>11</v>
-      </c>
-      <c r="AN7" s="7">
-        <f t="shared" si="4"/>
-        <v>60</v>
-      </c>
-      <c r="AO7">
-        <f t="shared" si="5"/>
-        <v>32</v>
-      </c>
-      <c r="AP7">
-        <f t="shared" si="6"/>
-        <v>32</v>
-      </c>
-      <c r="AQ7" s="7">
-        <f t="shared" si="7"/>
-        <v>13</v>
+        <f>SUMIF(L$3:L$54,$AI7,K$3:K$54)</f>
+        <v>22</v>
+      </c>
+      <c r="AN7" s="4">
+        <f>SUMIF(O$3:O$63,$AI7,N$3:N$63)</f>
+        <v>30</v>
+      </c>
+      <c r="AO7" s="7">
+        <f>SUMIF(R$3:R$63,$AI7,Q$3:Q$63)</f>
+        <v>30</v>
+      </c>
+      <c r="AP7" s="7">
+        <f>SUMIF(U$3:U$60,$AI7,T$3:T$60)</f>
+        <v>30</v>
+      </c>
+      <c r="AQ7" s="4">
+        <f>SUMIF(X$3:X$60,$AI7,W$3:W$60)</f>
+        <v>30</v>
       </c>
       <c r="AR7">
-        <f t="shared" si="8"/>
-        <v>13</v>
+        <f>SUMIF(AA$3:AA$61,$AI7,Z$3:Z$61)</f>
+        <v>30</v>
       </c>
       <c r="AS7">
-        <f t="shared" si="9"/>
-        <v>28</v>
-      </c>
-    </row>
-    <row r="8" spans="1:45" x14ac:dyDescent="0.2">
+        <f>SUMIF(AD$3:AD$63,$AI7,AC$3:AC$63)</f>
+        <v>30</v>
+      </c>
+      <c r="AV7" t="s">
+        <v>1</v>
+      </c>
+      <c r="AW7">
+        <v>24</v>
+      </c>
+      <c r="AX7">
+        <v>24</v>
+      </c>
+      <c r="AY7">
+        <v>24</v>
+      </c>
+      <c r="AZ7">
+        <v>24</v>
+      </c>
+      <c r="BA7">
+        <v>24</v>
+      </c>
+      <c r="BB7">
+        <v>24</v>
+      </c>
+      <c r="BC7">
+        <v>24</v>
+      </c>
+      <c r="BD7">
+        <v>23</v>
+      </c>
+      <c r="BE7">
+        <v>24</v>
+      </c>
+      <c r="BF7">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>35</v>
       </c>
       <c r="B8">
         <v>1</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C8" s="5" t="s">
         <v>6</v>
       </c>
       <c r="D8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E8">
-        <v>7</v>
-      </c>
-      <c r="F8" s="5" t="s">
-        <v>4</v>
+        <v>1</v>
+      </c>
+      <c r="F8" t="s">
+        <v>6</v>
       </c>
       <c r="G8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H8">
+        <v>1</v>
+      </c>
+      <c r="I8" t="s">
         <v>6</v>
-      </c>
-      <c r="I8" s="5" t="s">
-        <v>4</v>
       </c>
       <c r="J8" t="s">
         <v>35</v>
@@ -4301,35 +4500,35 @@
       <c r="K8">
         <v>1</v>
       </c>
-      <c r="L8" s="5" t="s">
+      <c r="L8" s="6" t="s">
         <v>6</v>
       </c>
       <c r="M8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="N8">
-        <v>12</v>
-      </c>
-      <c r="O8" s="5" t="s">
-        <v>4</v>
+        <v>1</v>
+      </c>
+      <c r="O8" t="s">
+        <v>6</v>
       </c>
       <c r="P8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="Q8">
-        <v>7</v>
-      </c>
-      <c r="R8" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="S8" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="T8" s="2">
-        <v>7</v>
-      </c>
-      <c r="U8" s="6" t="s">
-        <v>4</v>
+        <v>1</v>
+      </c>
+      <c r="R8" t="s">
+        <v>6</v>
+      </c>
+      <c r="S8" t="s">
+        <v>35</v>
+      </c>
+      <c r="T8">
+        <v>1</v>
+      </c>
+      <c r="U8" t="s">
+        <v>6</v>
       </c>
       <c r="V8" t="s">
         <v>55</v>
@@ -4337,7 +4536,7 @@
       <c r="W8">
         <v>1</v>
       </c>
-      <c r="X8" s="5" t="s">
+      <c r="X8" s="6" t="s">
         <v>4</v>
       </c>
       <c r="Y8" t="s">
@@ -4346,88 +4545,121 @@
       <c r="Z8">
         <v>1</v>
       </c>
-      <c r="AA8" s="5" t="s">
+      <c r="AA8" s="6" t="s">
         <v>6</v>
       </c>
       <c r="AB8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="AC8">
+        <v>1</v>
+      </c>
+      <c r="AD8" t="s">
         <v>6</v>
       </c>
-      <c r="AD8" t="s">
-        <v>4</v>
-      </c>
-      <c r="AI8" s="2" t="s">
-        <v>6</v>
+      <c r="AI8" t="s">
+        <v>12</v>
       </c>
       <c r="AJ8">
-        <f t="shared" si="0"/>
+        <f>SUMIF(C$3:C$60,AI8,B$3:B$60)</f>
+        <v>14</v>
+      </c>
+      <c r="AK8">
+        <f>SUMIF(F$3:F$63,$AI8,E$3:E$63)</f>
+        <v>14</v>
+      </c>
+      <c r="AL8">
+        <f>SUMIF(I$3:I$63,$AI8,H$3:H$63)</f>
+        <v>14</v>
+      </c>
+      <c r="AM8">
+        <f>SUMIF(L$3:L$54,$AI8,K$3:K$54)</f>
+        <v>14</v>
+      </c>
+      <c r="AN8" s="4">
+        <f>SUMIF(O$3:O$63,$AI8,N$3:N$63)</f>
+        <v>14</v>
+      </c>
+      <c r="AO8" s="7">
+        <f>SUMIF(R$3:R$63,$AI8,Q$3:Q$63)</f>
+        <v>14</v>
+      </c>
+      <c r="AP8" s="7">
+        <f>SUMIF(U$3:U$60,$AI8,T$3:T$60)</f>
+        <v>14</v>
+      </c>
+      <c r="AQ8" s="4">
+        <f>SUMIF(X$3:X$60,$AI8,W$3:W$60)</f>
+        <v>14</v>
+      </c>
+      <c r="AR8">
+        <f>SUMIF(AA$3:AA$61,$AI8,Z$3:Z$61)</f>
+        <v>14</v>
+      </c>
+      <c r="AS8">
+        <f>SUMIF(AD$3:AD$63,$AI8,AC$3:AC$63)</f>
+        <v>14</v>
+      </c>
+      <c r="AV8" t="s">
+        <v>9</v>
+      </c>
+      <c r="AW8">
+        <v>15</v>
+      </c>
+      <c r="AX8">
+        <v>15</v>
+      </c>
+      <c r="AY8">
+        <v>15</v>
+      </c>
+      <c r="AZ8">
+        <v>15</v>
+      </c>
+      <c r="BA8">
+        <v>15</v>
+      </c>
+      <c r="BB8">
+        <v>15</v>
+      </c>
+      <c r="BC8">
+        <v>14</v>
+      </c>
+      <c r="BD8">
+        <v>14</v>
+      </c>
+      <c r="BE8">
+        <v>15</v>
+      </c>
+      <c r="BF8">
         <v>13</v>
       </c>
-      <c r="AK8">
-        <f t="shared" si="1"/>
-        <v>44</v>
-      </c>
-      <c r="AL8">
-        <f t="shared" si="2"/>
-        <v>56</v>
-      </c>
-      <c r="AM8">
-        <f t="shared" si="3"/>
-        <v>11</v>
-      </c>
-      <c r="AN8" s="7">
-        <f t="shared" si="4"/>
-        <v>112</v>
-      </c>
-      <c r="AO8">
-        <f t="shared" si="5"/>
-        <v>56</v>
-      </c>
-      <c r="AP8">
-        <f t="shared" si="6"/>
-        <v>56</v>
-      </c>
-      <c r="AQ8" s="7">
-        <f t="shared" si="7"/>
-        <v>13</v>
-      </c>
-      <c r="AR8">
-        <f t="shared" si="8"/>
-        <v>13</v>
-      </c>
-      <c r="AS8">
-        <f t="shared" si="9"/>
-        <v>56</v>
-      </c>
-    </row>
-    <row r="9" spans="1:45" x14ac:dyDescent="0.2">
+    </row>
+    <row r="9" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>36</v>
       </c>
       <c r="B9">
         <v>4</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="C9" s="5" t="s">
         <v>4</v>
       </c>
       <c r="D9" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E9">
-        <v>18</v>
-      </c>
-      <c r="F9" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F9" t="s">
         <v>4</v>
       </c>
       <c r="G9" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H9">
-        <v>12</v>
-      </c>
-      <c r="I9" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="I9" t="s">
         <v>4</v>
       </c>
       <c r="J9" t="s">
@@ -4436,34 +4668,34 @@
       <c r="K9">
         <v>3</v>
       </c>
-      <c r="L9" s="5" t="s">
+      <c r="L9" s="6" t="s">
         <v>4</v>
       </c>
       <c r="M9" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="N9">
-        <v>28</v>
-      </c>
-      <c r="O9" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="O9" t="s">
         <v>4</v>
       </c>
       <c r="P9" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="Q9">
-        <v>18</v>
-      </c>
-      <c r="R9" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="S9" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="T9" s="2">
-        <v>18</v>
-      </c>
-      <c r="U9" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="R9" t="s">
+        <v>4</v>
+      </c>
+      <c r="S9" t="s">
+        <v>36</v>
+      </c>
+      <c r="T9">
+        <v>5</v>
+      </c>
+      <c r="U9" t="s">
         <v>4</v>
       </c>
       <c r="V9" t="s">
@@ -4472,7 +4704,7 @@
       <c r="W9">
         <v>1</v>
       </c>
-      <c r="X9" s="5" t="s">
+      <c r="X9" s="6" t="s">
         <v>4</v>
       </c>
       <c r="Y9" t="s">
@@ -4481,89 +4713,122 @@
       <c r="Z9">
         <v>5</v>
       </c>
-      <c r="AA9" s="5" t="s">
+      <c r="AA9" s="6" t="s">
         <v>4</v>
       </c>
       <c r="AB9" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="AC9">
+        <v>5</v>
+      </c>
+      <c r="AD9" t="s">
+        <v>4</v>
+      </c>
+      <c r="AI9" t="s">
+        <v>9</v>
+      </c>
+      <c r="AJ9">
+        <f>SUMIF(C$3:C$60,AI9,B$3:B$60)</f>
+        <v>15</v>
+      </c>
+      <c r="AK9">
+        <f>SUMIF(F$3:F$63,$AI9,E$3:E$63)</f>
+        <v>15</v>
+      </c>
+      <c r="AL9">
+        <f>SUMIF(I$3:I$63,$AI9,H$3:H$63)</f>
+        <v>15</v>
+      </c>
+      <c r="AM9">
+        <f>SUMIF(L$3:L$54,$AI9,K$3:K$54)</f>
+        <v>13</v>
+      </c>
+      <c r="AN9" s="4">
+        <f>SUMIF(O$3:O$63,$AI9,N$3:N$63)</f>
+        <v>15</v>
+      </c>
+      <c r="AO9" s="7">
+        <f>SUMIF(R$3:R$63,$AI9,Q$3:Q$63)</f>
+        <v>15</v>
+      </c>
+      <c r="AP9" s="7">
+        <f>SUMIF(U$3:U$60,$AI9,T$3:T$60)</f>
+        <v>14</v>
+      </c>
+      <c r="AQ9" s="4">
+        <f>SUMIF(X$3:X$60,$AI9,W$3:W$60)</f>
+        <v>15</v>
+      </c>
+      <c r="AR9">
+        <f>SUMIF(AA$3:AA$61,$AI9,Z$3:Z$61)</f>
+        <v>14</v>
+      </c>
+      <c r="AS9">
+        <f>SUMIF(AD$3:AD$63,$AI9,AC$3:AC$63)</f>
+        <v>15</v>
+      </c>
+      <c r="AV9" t="s">
         <v>12</v>
       </c>
-      <c r="AD9" t="s">
-        <v>4</v>
-      </c>
-      <c r="AI9" t="s">
-        <v>8</v>
-      </c>
-      <c r="AJ9">
-        <f t="shared" si="0"/>
-        <v>31</v>
-      </c>
-      <c r="AK9">
-        <f t="shared" si="1"/>
-        <v>71</v>
-      </c>
-      <c r="AL9">
-        <f t="shared" si="2"/>
-        <v>77</v>
-      </c>
-      <c r="AM9">
-        <f t="shared" si="3"/>
-        <v>30</v>
-      </c>
-      <c r="AN9" s="7">
-        <f t="shared" si="4"/>
-        <v>157</v>
-      </c>
-      <c r="AO9">
-        <f t="shared" si="5"/>
-        <v>84</v>
-      </c>
-      <c r="AP9">
-        <f t="shared" si="6"/>
-        <v>64</v>
-      </c>
-      <c r="AQ9" s="7">
-        <f t="shared" si="7"/>
-        <v>31</v>
-      </c>
-      <c r="AR9">
-        <f t="shared" si="8"/>
-        <v>31</v>
-      </c>
-      <c r="AS9">
-        <f t="shared" si="9"/>
-        <v>68</v>
-      </c>
-    </row>
-    <row r="10" spans="1:45" x14ac:dyDescent="0.2">
+      <c r="AW9">
+        <v>14</v>
+      </c>
+      <c r="AX9">
+        <v>14</v>
+      </c>
+      <c r="AY9">
+        <v>14</v>
+      </c>
+      <c r="AZ9">
+        <v>14</v>
+      </c>
+      <c r="BA9">
+        <v>14</v>
+      </c>
+      <c r="BB9">
+        <v>14</v>
+      </c>
+      <c r="BC9">
+        <v>14</v>
+      </c>
+      <c r="BD9">
+        <v>14</v>
+      </c>
+      <c r="BE9">
+        <v>14</v>
+      </c>
+      <c r="BF9">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>37</v>
       </c>
       <c r="B10">
         <v>4</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="C10" s="5" t="s">
         <v>4</v>
       </c>
       <c r="D10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E10">
         <v>4</v>
       </c>
-      <c r="F10" s="5" t="s">
-        <v>6</v>
+      <c r="F10" t="s">
+        <v>4</v>
       </c>
       <c r="G10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H10">
         <v>4</v>
       </c>
-      <c r="I10" s="5" t="s">
-        <v>6</v>
+      <c r="I10" t="s">
+        <v>4</v>
       </c>
       <c r="J10" t="s">
         <v>38</v>
@@ -4571,35 +4836,35 @@
       <c r="K10">
         <v>1</v>
       </c>
-      <c r="L10" s="5" t="s">
+      <c r="L10" s="6" t="s">
         <v>6</v>
       </c>
       <c r="M10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="N10">
-        <v>8</v>
-      </c>
-      <c r="O10" s="5" t="s">
-        <v>6</v>
+        <v>4</v>
+      </c>
+      <c r="O10" t="s">
+        <v>4</v>
       </c>
       <c r="P10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="Q10">
         <v>4</v>
       </c>
-      <c r="R10" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="S10" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="T10" s="2">
-        <v>4</v>
-      </c>
-      <c r="U10" s="6" t="s">
-        <v>6</v>
+      <c r="R10" t="s">
+        <v>4</v>
+      </c>
+      <c r="S10" t="s">
+        <v>37</v>
+      </c>
+      <c r="T10">
+        <v>3</v>
+      </c>
+      <c r="U10" t="s">
+        <v>4</v>
       </c>
       <c r="V10" t="s">
         <v>60</v>
@@ -4607,7 +4872,7 @@
       <c r="W10">
         <v>6</v>
       </c>
-      <c r="X10" s="5" t="s">
+      <c r="X10" s="6" t="s">
         <v>4</v>
       </c>
       <c r="Y10" t="s">
@@ -4616,89 +4881,122 @@
       <c r="Z10">
         <v>4</v>
       </c>
-      <c r="AA10" s="5" t="s">
+      <c r="AA10" s="6" t="s">
         <v>4</v>
       </c>
       <c r="AB10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AC10">
         <v>4</v>
       </c>
       <c r="AD10" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AI10" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="AJ10">
-        <f t="shared" si="0"/>
-        <v>24</v>
+        <f>SUMIF(C$3:C$60,AI10,B$3:B$60)</f>
+        <v>13</v>
       </c>
       <c r="AK10">
-        <f t="shared" si="1"/>
-        <v>47</v>
+        <f>SUMIF(F$3:F$63,$AI10,E$3:E$63)</f>
+        <v>13</v>
       </c>
       <c r="AL10">
-        <f t="shared" si="2"/>
-        <v>50</v>
+        <f>SUMIF(I$3:I$63,$AI10,H$3:H$63)</f>
+        <v>13</v>
       </c>
       <c r="AM10">
-        <f t="shared" si="3"/>
-        <v>23</v>
-      </c>
-      <c r="AN10" s="7">
-        <f t="shared" si="4"/>
-        <v>104</v>
-      </c>
-      <c r="AO10">
-        <f t="shared" si="5"/>
-        <v>54</v>
-      </c>
-      <c r="AP10">
-        <f t="shared" si="6"/>
-        <v>54</v>
-      </c>
-      <c r="AQ10" s="7">
-        <f t="shared" si="7"/>
-        <v>24</v>
+        <f>SUMIF(L$3:L$54,$AI10,K$3:K$54)</f>
+        <v>11</v>
+      </c>
+      <c r="AN10" s="4">
+        <f>SUMIF(O$3:O$63,$AI10,N$3:N$63)</f>
+        <v>13</v>
+      </c>
+      <c r="AO10" s="7">
+        <f>SUMIF(R$3:R$63,$AI10,Q$3:Q$63)</f>
+        <v>13</v>
+      </c>
+      <c r="AP10" s="7">
+        <f>SUMIF(U$3:U$60,$AI10,T$3:T$60)</f>
+        <v>12</v>
+      </c>
+      <c r="AQ10" s="4">
+        <f>SUMIF(X$3:X$60,$AI10,W$3:W$60)</f>
+        <v>13</v>
       </c>
       <c r="AR10">
-        <f t="shared" si="8"/>
-        <v>23</v>
+        <f>SUMIF(AA$3:AA$61,$AI10,Z$3:Z$61)</f>
+        <v>13</v>
       </c>
       <c r="AS10">
-        <f t="shared" si="9"/>
-        <v>50</v>
-      </c>
-    </row>
-    <row r="11" spans="1:45" x14ac:dyDescent="0.2">
+        <f>SUMIF(AD$3:AD$63,$AI10,AC$3:AC$63)</f>
+        <v>13</v>
+      </c>
+      <c r="AV10" t="s">
+        <v>13</v>
+      </c>
+      <c r="AW10">
+        <v>13</v>
+      </c>
+      <c r="AX10">
+        <v>13</v>
+      </c>
+      <c r="AY10">
+        <v>13</v>
+      </c>
+      <c r="AZ10">
+        <v>13</v>
+      </c>
+      <c r="BA10">
+        <v>13</v>
+      </c>
+      <c r="BB10">
+        <v>13</v>
+      </c>
+      <c r="BC10">
+        <v>12</v>
+      </c>
+      <c r="BD10">
+        <v>13</v>
+      </c>
+      <c r="BE10">
+        <v>13</v>
+      </c>
+      <c r="BF10">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>38</v>
       </c>
       <c r="B11">
         <v>2</v>
       </c>
-      <c r="C11" s="4" t="s">
+      <c r="C11" s="5" t="s">
         <v>6</v>
       </c>
       <c r="D11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E11">
-        <v>65</v>
-      </c>
-      <c r="F11" s="5" t="s">
-        <v>4</v>
+        <v>2</v>
+      </c>
+      <c r="F11" t="s">
+        <v>6</v>
       </c>
       <c r="G11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H11">
-        <v>52</v>
-      </c>
-      <c r="I11" s="5" t="s">
-        <v>4</v>
+        <v>2</v>
+      </c>
+      <c r="I11" t="s">
+        <v>6</v>
       </c>
       <c r="J11" t="s">
         <v>39</v>
@@ -4706,35 +5004,35 @@
       <c r="K11">
         <v>16</v>
       </c>
-      <c r="L11" s="5" t="s">
+      <c r="L11" s="6" t="s">
         <v>4</v>
       </c>
       <c r="M11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="N11">
-        <v>113</v>
-      </c>
-      <c r="O11" s="5" t="s">
-        <v>4</v>
+        <v>2</v>
+      </c>
+      <c r="O11" t="s">
+        <v>6</v>
       </c>
       <c r="P11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="Q11">
-        <v>66</v>
-      </c>
-      <c r="R11" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="S11" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="T11" s="2">
-        <v>66</v>
-      </c>
-      <c r="U11" s="6" t="s">
-        <v>4</v>
+        <v>2</v>
+      </c>
+      <c r="R11" t="s">
+        <v>6</v>
+      </c>
+      <c r="S11" t="s">
+        <v>38</v>
+      </c>
+      <c r="T11">
+        <v>2</v>
+      </c>
+      <c r="U11" t="s">
+        <v>6</v>
       </c>
       <c r="V11" t="s">
         <v>62</v>
@@ -4742,7 +5040,7 @@
       <c r="W11">
         <v>2</v>
       </c>
-      <c r="X11" s="5" t="s">
+      <c r="X11" s="6" t="s">
         <v>4</v>
       </c>
       <c r="Y11" t="s">
@@ -4751,89 +5049,122 @@
       <c r="Z11">
         <v>2</v>
       </c>
-      <c r="AA11" s="5" t="s">
+      <c r="AA11" s="6" t="s">
         <v>6</v>
       </c>
       <c r="AB11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AC11">
-        <v>52</v>
+        <v>2</v>
       </c>
       <c r="AD11" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AI11" s="2" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="AJ11">
-        <f t="shared" si="0"/>
-        <v>2</v>
+        <f>SUMIF(C$3:C$60,AI11,B$3:B$60)</f>
+        <v>13</v>
       </c>
       <c r="AK11">
-        <f t="shared" si="1"/>
-        <v>2</v>
+        <f>SUMIF(F$3:F$63,$AI11,E$3:E$63)</f>
+        <v>13</v>
       </c>
       <c r="AL11">
-        <f t="shared" si="2"/>
-        <v>2</v>
+        <f>SUMIF(I$3:I$63,$AI11,H$3:H$63)</f>
+        <v>13</v>
       </c>
       <c r="AM11">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="AN11" s="7">
-        <f t="shared" si="4"/>
-        <v>4</v>
-      </c>
-      <c r="AO11">
-        <f t="shared" si="5"/>
-        <v>2</v>
-      </c>
-      <c r="AP11">
-        <f t="shared" si="6"/>
-        <v>2</v>
-      </c>
-      <c r="AQ11" s="7">
-        <f t="shared" si="7"/>
-        <v>2</v>
+        <f>SUMIF(L$3:L$54,$AI11,K$3:K$54)</f>
+        <v>11</v>
+      </c>
+      <c r="AN11" s="4">
+        <f>SUMIF(O$3:O$63,$AI11,N$3:N$63)</f>
+        <v>13</v>
+      </c>
+      <c r="AO11" s="7">
+        <f>SUMIF(R$3:R$63,$AI11,Q$3:Q$63)</f>
+        <v>13</v>
+      </c>
+      <c r="AP11" s="7">
+        <f>SUMIF(U$3:U$60,$AI11,T$3:T$60)</f>
+        <v>13</v>
+      </c>
+      <c r="AQ11" s="4">
+        <f>SUMIF(X$3:X$60,$AI11,W$3:W$60)</f>
+        <v>13</v>
       </c>
       <c r="AR11">
-        <f t="shared" si="8"/>
-        <v>2</v>
+        <f>SUMIF(AA$3:AA$61,$AI11,Z$3:Z$61)</f>
+        <v>13</v>
       </c>
       <c r="AS11">
-        <f t="shared" si="9"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:45" x14ac:dyDescent="0.2">
+        <f>SUMIF(AD$3:AD$63,$AI11,AC$3:AC$63)</f>
+        <v>13</v>
+      </c>
+      <c r="AV11" t="s">
+        <v>6</v>
+      </c>
+      <c r="AW11">
+        <v>13</v>
+      </c>
+      <c r="AX11">
+        <v>13</v>
+      </c>
+      <c r="AY11">
+        <v>13</v>
+      </c>
+      <c r="AZ11">
+        <v>13</v>
+      </c>
+      <c r="BA11">
+        <v>13</v>
+      </c>
+      <c r="BB11">
+        <v>13</v>
+      </c>
+      <c r="BC11">
+        <v>13</v>
+      </c>
+      <c r="BD11">
+        <v>13</v>
+      </c>
+      <c r="BE11">
+        <v>13</v>
+      </c>
+      <c r="BF11">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>39</v>
       </c>
       <c r="B12">
         <v>30</v>
       </c>
-      <c r="C12" s="4" t="s">
+      <c r="C12" s="5" t="s">
         <v>4</v>
       </c>
       <c r="D12" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E12">
-        <v>113</v>
-      </c>
-      <c r="F12" s="5" t="s">
-        <v>3</v>
+        <v>31</v>
+      </c>
+      <c r="F12" t="s">
+        <v>4</v>
       </c>
       <c r="G12" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H12">
-        <v>107</v>
-      </c>
-      <c r="I12" s="5" t="s">
-        <v>3</v>
+        <v>31</v>
+      </c>
+      <c r="I12" t="s">
+        <v>4</v>
       </c>
       <c r="J12" t="s">
         <v>40</v>
@@ -4841,35 +5172,35 @@
       <c r="K12">
         <v>38</v>
       </c>
-      <c r="L12" s="5" t="s">
+      <c r="L12" s="6" t="s">
         <v>3</v>
       </c>
       <c r="M12" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="N12">
-        <v>221</v>
-      </c>
-      <c r="O12" s="5" t="s">
-        <v>3</v>
+        <v>31</v>
+      </c>
+      <c r="O12" t="s">
+        <v>4</v>
       </c>
       <c r="P12" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="Q12">
-        <v>122</v>
-      </c>
-      <c r="R12" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="S12" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="T12" s="2">
-        <v>122</v>
-      </c>
-      <c r="U12" s="6" t="s">
-        <v>3</v>
+        <v>31</v>
+      </c>
+      <c r="R12" t="s">
+        <v>4</v>
+      </c>
+      <c r="S12" t="s">
+        <v>39</v>
+      </c>
+      <c r="T12">
+        <v>30</v>
+      </c>
+      <c r="U12" t="s">
+        <v>4</v>
       </c>
       <c r="V12" t="s">
         <v>71</v>
@@ -4877,7 +5208,7 @@
       <c r="W12">
         <v>8</v>
       </c>
-      <c r="X12" s="5" t="s">
+      <c r="X12" s="6" t="s">
         <v>4</v>
       </c>
       <c r="Y12" t="s">
@@ -4886,89 +5217,122 @@
       <c r="Z12">
         <v>30</v>
       </c>
-      <c r="AA12" s="5" t="s">
+      <c r="AA12" s="6" t="s">
         <v>4</v>
       </c>
       <c r="AB12" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="AC12">
-        <v>106</v>
+        <v>31</v>
       </c>
       <c r="AD12" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AI12" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="AJ12">
-        <f t="shared" si="0"/>
-        <v>1</v>
+        <f>SUMIF(C$3:C$60,AI12,B$3:B$60)</f>
+        <v>8</v>
       </c>
       <c r="AK12">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f>SUMIF(F$3:F$63,$AI12,E$3:E$63)</f>
+        <v>8</v>
       </c>
       <c r="AL12">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f>SUMIF(I$3:I$63,$AI12,H$3:H$63)</f>
+        <v>8</v>
       </c>
       <c r="AM12">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="AN12" s="7">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="AO12">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="AP12">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="AQ12" s="7">
-        <f t="shared" si="7"/>
-        <v>1</v>
+        <f>SUMIF(L$3:L$54,$AI12,K$3:K$54)</f>
+        <v>8</v>
+      </c>
+      <c r="AN12" s="4">
+        <f>SUMIF(O$3:O$63,$AI12,N$3:N$63)</f>
+        <v>8</v>
+      </c>
+      <c r="AO12" s="7">
+        <f>SUMIF(R$3:R$63,$AI12,Q$3:Q$63)</f>
+        <v>8</v>
+      </c>
+      <c r="AP12" s="7">
+        <f>SUMIF(U$3:U$60,$AI12,T$3:T$60)</f>
+        <v>8</v>
+      </c>
+      <c r="AQ12" s="4">
+        <f>SUMIF(X$3:X$60,$AI12,W$3:W$60)</f>
+        <v>8</v>
       </c>
       <c r="AR12">
-        <f t="shared" si="8"/>
-        <v>1</v>
+        <f>SUMIF(AA$3:AA$61,$AI12,Z$3:Z$61)</f>
+        <v>8</v>
       </c>
       <c r="AS12">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:45" x14ac:dyDescent="0.2">
+        <f>SUMIF(AD$3:AD$63,$AI12,AC$3:AC$63)</f>
+        <v>8</v>
+      </c>
+      <c r="AV12" t="s">
+        <v>11</v>
+      </c>
+      <c r="AW12">
+        <v>8</v>
+      </c>
+      <c r="AX12">
+        <v>8</v>
+      </c>
+      <c r="AY12">
+        <v>8</v>
+      </c>
+      <c r="AZ12">
+        <v>8</v>
+      </c>
+      <c r="BA12">
+        <v>8</v>
+      </c>
+      <c r="BB12">
+        <v>8</v>
+      </c>
+      <c r="BC12">
+        <v>8</v>
+      </c>
+      <c r="BD12">
+        <v>8</v>
+      </c>
+      <c r="BE12">
+        <v>8</v>
+      </c>
+      <c r="BF12">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>40</v>
       </c>
       <c r="B13">
         <v>45</v>
       </c>
-      <c r="C13" s="4" t="s">
+      <c r="C13" s="5" t="s">
         <v>3</v>
       </c>
       <c r="D13" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E13">
-        <v>146</v>
-      </c>
-      <c r="F13" s="5" t="s">
-        <v>7</v>
+        <v>46</v>
+      </c>
+      <c r="F13" t="s">
+        <v>3</v>
       </c>
       <c r="G13" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H13">
-        <v>141</v>
-      </c>
-      <c r="I13" s="5" t="s">
-        <v>7</v>
+        <v>46</v>
+      </c>
+      <c r="I13" t="s">
+        <v>3</v>
       </c>
       <c r="J13" t="s">
         <v>41</v>
@@ -4976,35 +5340,35 @@
       <c r="K13">
         <v>56</v>
       </c>
-      <c r="L13" s="5" t="s">
+      <c r="L13" s="6" t="s">
         <v>7</v>
       </c>
       <c r="M13" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="N13">
-        <v>291</v>
-      </c>
-      <c r="O13" s="5" t="s">
-        <v>7</v>
+        <v>46</v>
+      </c>
+      <c r="O13" t="s">
+        <v>3</v>
       </c>
       <c r="P13" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="Q13">
-        <v>159</v>
-      </c>
-      <c r="R13" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="S13" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="T13" s="2">
-        <v>159</v>
-      </c>
-      <c r="U13" s="6" t="s">
-        <v>7</v>
+        <v>46</v>
+      </c>
+      <c r="R13" t="s">
+        <v>3</v>
+      </c>
+      <c r="S13" t="s">
+        <v>40</v>
+      </c>
+      <c r="T13">
+        <v>46</v>
+      </c>
+      <c r="U13" t="s">
+        <v>3</v>
       </c>
       <c r="V13" t="s">
         <v>85</v>
@@ -5012,7 +5376,7 @@
       <c r="W13">
         <v>5</v>
       </c>
-      <c r="X13" s="5" t="s">
+      <c r="X13" s="6" t="s">
         <v>4</v>
       </c>
       <c r="Y13" t="s">
@@ -5021,89 +5385,122 @@
       <c r="Z13">
         <v>46</v>
       </c>
-      <c r="AA13" s="5" t="s">
+      <c r="AA13" s="6" t="s">
         <v>3</v>
       </c>
       <c r="AB13" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="AC13">
-        <v>140</v>
+        <v>46</v>
       </c>
       <c r="AD13" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="AI13" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="AJ13">
-        <f t="shared" si="0"/>
-        <v>1</v>
+        <f>SUMIF(C$3:C$60,AI13,B$3:B$60)</f>
+        <v>2</v>
       </c>
       <c r="AK13">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f>SUMIF(F$3:F$63,$AI13,E$3:E$63)</f>
+        <v>2</v>
       </c>
       <c r="AL13">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f>SUMIF(I$3:I$63,$AI13,H$3:H$63)</f>
+        <v>2</v>
       </c>
       <c r="AM13">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="AN13" s="7">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="AO13">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="AP13">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="AQ13" s="7">
-        <f t="shared" si="7"/>
-        <v>1</v>
+        <f>SUMIF(L$3:L$54,$AI13,K$3:K$54)</f>
+        <v>2</v>
+      </c>
+      <c r="AN13" s="4">
+        <f>SUMIF(O$3:O$63,$AI13,N$3:N$63)</f>
+        <v>2</v>
+      </c>
+      <c r="AO13" s="7">
+        <f>SUMIF(R$3:R$63,$AI13,Q$3:Q$63)</f>
+        <v>2</v>
+      </c>
+      <c r="AP13" s="7">
+        <f>SUMIF(U$3:U$60,$AI13,T$3:T$60)</f>
+        <v>2</v>
+      </c>
+      <c r="AQ13" s="4">
+        <f>SUMIF(X$3:X$60,$AI13,W$3:W$60)</f>
+        <v>2</v>
       </c>
       <c r="AR13">
-        <f t="shared" si="8"/>
-        <v>1</v>
+        <f>SUMIF(AA$3:AA$61,$AI13,Z$3:Z$61)</f>
+        <v>2</v>
       </c>
       <c r="AS13">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:45" x14ac:dyDescent="0.2">
+        <f>SUMIF(AD$3:AD$63,$AI13,AC$3:AC$63)</f>
+        <v>2</v>
+      </c>
+      <c r="AV13" t="s">
+        <v>10</v>
+      </c>
+      <c r="AW13">
+        <v>2</v>
+      </c>
+      <c r="AX13">
+        <v>2</v>
+      </c>
+      <c r="AY13">
+        <v>2</v>
+      </c>
+      <c r="AZ13">
+        <v>2</v>
+      </c>
+      <c r="BA13">
+        <v>2</v>
+      </c>
+      <c r="BB13">
+        <v>2</v>
+      </c>
+      <c r="BC13">
+        <v>2</v>
+      </c>
+      <c r="BD13">
+        <v>2</v>
+      </c>
+      <c r="BE13">
+        <v>2</v>
+      </c>
+      <c r="BF13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>41</v>
       </c>
       <c r="B14">
         <v>71</v>
       </c>
-      <c r="C14" s="4" t="s">
+      <c r="C14" s="5" t="s">
         <v>7</v>
       </c>
       <c r="D14" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E14">
-        <v>4</v>
-      </c>
-      <c r="F14" s="5" t="s">
-        <v>8</v>
+        <v>78</v>
+      </c>
+      <c r="F14" t="s">
+        <v>7</v>
       </c>
       <c r="G14" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H14">
-        <v>4</v>
-      </c>
-      <c r="I14" s="5" t="s">
-        <v>8</v>
+        <v>78</v>
+      </c>
+      <c r="I14" t="s">
+        <v>7</v>
       </c>
       <c r="J14" t="s">
         <v>42</v>
@@ -5111,35 +5508,35 @@
       <c r="K14">
         <v>2</v>
       </c>
-      <c r="L14" s="5" t="s">
+      <c r="L14" s="6" t="s">
         <v>8</v>
       </c>
       <c r="M14" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="N14">
-        <v>8</v>
-      </c>
-      <c r="O14" s="5" t="s">
-        <v>8</v>
+        <v>78</v>
+      </c>
+      <c r="O14" t="s">
+        <v>7</v>
       </c>
       <c r="P14" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="Q14">
-        <v>4</v>
-      </c>
-      <c r="R14" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="S14" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="T14" s="2">
-        <v>4</v>
-      </c>
-      <c r="U14" s="6" t="s">
-        <v>8</v>
+        <v>78</v>
+      </c>
+      <c r="R14" t="s">
+        <v>7</v>
+      </c>
+      <c r="S14" t="s">
+        <v>41</v>
+      </c>
+      <c r="T14">
+        <v>78</v>
+      </c>
+      <c r="U14" t="s">
+        <v>7</v>
       </c>
       <c r="V14" t="s">
         <v>87</v>
@@ -5147,7 +5544,7 @@
       <c r="W14">
         <v>1</v>
       </c>
-      <c r="X14" s="5" t="s">
+      <c r="X14" s="6" t="s">
         <v>4</v>
       </c>
       <c r="Y14" t="s">
@@ -5156,88 +5553,121 @@
       <c r="Z14">
         <v>71</v>
       </c>
-      <c r="AA14" s="5" t="s">
+      <c r="AA14" s="6" t="s">
         <v>7</v>
       </c>
       <c r="AB14" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="AC14">
-        <v>4</v>
+        <v>78</v>
       </c>
       <c r="AD14" t="s">
-        <v>8</v>
-      </c>
-      <c r="AI14" t="s">
-        <v>10</v>
+        <v>7</v>
+      </c>
+      <c r="AI14" s="2" t="s">
+        <v>14</v>
       </c>
       <c r="AJ14">
-        <f t="shared" si="0"/>
+        <f>SUMIF(C$3:C$60,AI14,B$3:B$60)</f>
         <v>2</v>
       </c>
       <c r="AK14">
-        <f t="shared" si="1"/>
-        <v>9</v>
+        <f>SUMIF(F$3:F$63,$AI14,E$3:E$63)</f>
+        <v>2</v>
       </c>
       <c r="AL14">
-        <f t="shared" si="2"/>
-        <v>6</v>
+        <f>SUMIF(I$3:I$63,$AI14,H$3:H$63)</f>
+        <v>2</v>
       </c>
       <c r="AM14">
-        <f t="shared" si="3"/>
-        <v>2</v>
-      </c>
-      <c r="AN14" s="7">
-        <f t="shared" si="4"/>
-        <v>15</v>
-      </c>
-      <c r="AO14">
-        <f t="shared" si="5"/>
-        <v>9</v>
-      </c>
-      <c r="AP14">
-        <f t="shared" si="6"/>
-        <v>9</v>
-      </c>
-      <c r="AQ14" s="7">
-        <f t="shared" si="7"/>
+        <f>SUMIF(L$3:L$54,$AI14,K$3:K$54)</f>
+        <v>1</v>
+      </c>
+      <c r="AN14" s="4">
+        <f>SUMIF(O$3:O$63,$AI14,N$3:N$63)</f>
+        <v>2</v>
+      </c>
+      <c r="AO14" s="7">
+        <f>SUMIF(R$3:R$63,$AI14,Q$3:Q$63)</f>
+        <v>2</v>
+      </c>
+      <c r="AP14" s="7">
+        <f>SUMIF(U$3:U$60,$AI14,T$3:T$60)</f>
+        <v>2</v>
+      </c>
+      <c r="AQ14" s="4">
+        <f>SUMIF(X$3:X$60,$AI14,W$3:W$60)</f>
         <v>2</v>
       </c>
       <c r="AR14">
-        <f t="shared" si="8"/>
+        <f>SUMIF(AA$3:AA$61,$AI14,Z$3:Z$61)</f>
         <v>2</v>
       </c>
       <c r="AS14">
-        <f t="shared" si="9"/>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="15" spans="1:45" x14ac:dyDescent="0.2">
+        <f>SUMIF(AD$3:AD$63,$AI14,AC$3:AC$63)</f>
+        <v>2</v>
+      </c>
+      <c r="AV14" t="s">
+        <v>14</v>
+      </c>
+      <c r="AW14">
+        <v>2</v>
+      </c>
+      <c r="AX14">
+        <v>2</v>
+      </c>
+      <c r="AY14">
+        <v>2</v>
+      </c>
+      <c r="AZ14">
+        <v>2</v>
+      </c>
+      <c r="BA14">
+        <v>2</v>
+      </c>
+      <c r="BB14">
+        <v>2</v>
+      </c>
+      <c r="BC14">
+        <v>2</v>
+      </c>
+      <c r="BD14">
+        <v>2</v>
+      </c>
+      <c r="BE14">
+        <v>2</v>
+      </c>
+      <c r="BF14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>42</v>
       </c>
       <c r="B15">
         <v>2</v>
       </c>
-      <c r="C15" s="4" t="s">
+      <c r="C15" s="5" t="s">
         <v>8</v>
       </c>
       <c r="D15" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E15">
-        <v>4</v>
-      </c>
-      <c r="F15" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="F15" t="s">
         <v>8</v>
       </c>
       <c r="G15" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H15">
-        <v>6</v>
-      </c>
-      <c r="I15" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="I15" t="s">
         <v>8</v>
       </c>
       <c r="J15" t="s">
@@ -5246,34 +5676,34 @@
       <c r="K15">
         <v>2</v>
       </c>
-      <c r="L15" s="5" t="s">
+      <c r="L15" s="6" t="s">
         <v>8</v>
       </c>
       <c r="M15" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="N15">
-        <v>12</v>
-      </c>
-      <c r="O15" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="O15" t="s">
         <v>8</v>
       </c>
       <c r="P15" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="Q15">
-        <v>6</v>
-      </c>
-      <c r="R15" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="S15" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="T15" s="2">
-        <v>6</v>
-      </c>
-      <c r="U15" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="R15" t="s">
+        <v>8</v>
+      </c>
+      <c r="S15" t="s">
+        <v>42</v>
+      </c>
+      <c r="T15">
+        <v>2</v>
+      </c>
+      <c r="U15" t="s">
         <v>8</v>
       </c>
       <c r="V15" t="s">
@@ -5282,7 +5712,7 @@
       <c r="W15">
         <v>2</v>
       </c>
-      <c r="X15" s="5" t="s">
+      <c r="X15" s="6" t="s">
         <v>3</v>
       </c>
       <c r="Y15" t="s">
@@ -5291,89 +5721,122 @@
       <c r="Z15">
         <v>2</v>
       </c>
-      <c r="AA15" s="5" t="s">
+      <c r="AA15" s="6" t="s">
         <v>8</v>
       </c>
       <c r="AB15" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="AC15">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="AD15" t="s">
         <v>8</v>
       </c>
       <c r="AI15" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="AJ15">
-        <f t="shared" si="0"/>
-        <v>8</v>
+        <f>SUMIF(C$3:C$60,AI15,B$3:B$60)</f>
+        <v>1</v>
       </c>
       <c r="AK15">
-        <f t="shared" si="1"/>
-        <v>10</v>
+        <f>SUMIF(F$3:F$63,$AI15,E$3:E$63)</f>
+        <v>1</v>
       </c>
       <c r="AL15">
-        <f t="shared" si="2"/>
-        <v>12</v>
+        <f>SUMIF(I$3:I$63,$AI15,H$3:H$63)</f>
+        <v>1</v>
       </c>
       <c r="AM15">
-        <f t="shared" si="3"/>
-        <v>8</v>
-      </c>
-      <c r="AN15" s="7">
-        <f t="shared" si="4"/>
-        <v>24</v>
-      </c>
-      <c r="AO15">
-        <f t="shared" si="5"/>
-        <v>12</v>
-      </c>
-      <c r="AP15">
-        <f t="shared" si="6"/>
-        <v>12</v>
-      </c>
-      <c r="AQ15" s="7">
-        <f t="shared" si="7"/>
-        <v>8</v>
+        <f>SUMIF(L$3:L$54,$AI15,K$3:K$54)</f>
+        <v>1</v>
+      </c>
+      <c r="AN15" s="4">
+        <f>SUMIF(O$3:O$63,$AI15,N$3:N$63)</f>
+        <v>1</v>
+      </c>
+      <c r="AO15" s="7">
+        <f>SUMIF(R$3:R$63,$AI15,Q$3:Q$63)</f>
+        <v>1</v>
+      </c>
+      <c r="AP15" s="7">
+        <f>SUMIF(U$3:U$60,$AI15,T$3:T$60)</f>
+        <v>1</v>
+      </c>
+      <c r="AQ15" s="4">
+        <f>SUMIF(X$3:X$60,$AI15,W$3:W$60)</f>
+        <v>1</v>
       </c>
       <c r="AR15">
-        <f t="shared" si="8"/>
-        <v>8</v>
+        <f>SUMIF(AA$3:AA$61,$AI15,Z$3:Z$61)</f>
+        <v>1</v>
       </c>
       <c r="AS15">
-        <f t="shared" si="9"/>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="16" spans="1:45" x14ac:dyDescent="0.2">
+        <f>SUMIF(AD$3:AD$63,$AI15,AC$3:AC$63)</f>
+        <v>1</v>
+      </c>
+      <c r="AV15" t="s">
+        <v>15</v>
+      </c>
+      <c r="AW15">
+        <v>1</v>
+      </c>
+      <c r="AX15">
+        <v>1</v>
+      </c>
+      <c r="AY15">
+        <v>1</v>
+      </c>
+      <c r="AZ15">
+        <v>1</v>
+      </c>
+      <c r="BA15">
+        <v>1</v>
+      </c>
+      <c r="BB15">
+        <v>1</v>
+      </c>
+      <c r="BC15">
+        <v>1</v>
+      </c>
+      <c r="BD15">
+        <v>1</v>
+      </c>
+      <c r="BE15">
+        <v>1</v>
+      </c>
+      <c r="BF15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>43</v>
       </c>
       <c r="B16">
         <v>2</v>
       </c>
-      <c r="C16" s="4" t="s">
+      <c r="C16" s="5" t="s">
         <v>8</v>
       </c>
       <c r="D16" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E16">
-        <v>9</v>
-      </c>
-      <c r="F16" s="5" t="s">
-        <v>7</v>
+        <v>2</v>
+      </c>
+      <c r="F16" t="s">
+        <v>8</v>
       </c>
       <c r="G16" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H16">
-        <v>8</v>
-      </c>
-      <c r="I16" s="5" t="s">
-        <v>7</v>
+        <v>2</v>
+      </c>
+      <c r="I16" t="s">
+        <v>8</v>
       </c>
       <c r="J16" t="s">
         <v>44</v>
@@ -5381,35 +5844,35 @@
       <c r="K16">
         <v>2</v>
       </c>
-      <c r="L16" s="5" t="s">
+      <c r="L16" s="6" t="s">
         <v>7</v>
       </c>
       <c r="M16" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="N16">
-        <v>17</v>
-      </c>
-      <c r="O16" s="5" t="s">
-        <v>7</v>
+        <v>2</v>
+      </c>
+      <c r="O16" t="s">
+        <v>8</v>
       </c>
       <c r="P16" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="Q16">
-        <v>9</v>
-      </c>
-      <c r="R16" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="S16" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="T16" s="2">
-        <v>9</v>
-      </c>
-      <c r="U16" s="6" t="s">
-        <v>7</v>
+        <v>2</v>
+      </c>
+      <c r="R16" t="s">
+        <v>8</v>
+      </c>
+      <c r="S16" t="s">
+        <v>43</v>
+      </c>
+      <c r="T16">
+        <v>2</v>
+      </c>
+      <c r="U16" t="s">
+        <v>8</v>
       </c>
       <c r="V16" t="s">
         <v>40</v>
@@ -5417,7 +5880,7 @@
       <c r="W16">
         <v>46</v>
       </c>
-      <c r="X16" s="5" t="s">
+      <c r="X16" s="6" t="s">
         <v>3</v>
       </c>
       <c r="Y16" t="s">
@@ -5426,89 +5889,122 @@
       <c r="Z16">
         <v>2</v>
       </c>
-      <c r="AA16" s="5" t="s">
+      <c r="AA16" s="6" t="s">
         <v>8</v>
       </c>
       <c r="AB16" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="AC16">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="AD16" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AI16" t="s">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="AJ16">
-        <f t="shared" si="0"/>
+        <f>SUMIF(C$3:C$60,AI16,B$3:B$60)</f>
         <v>1</v>
       </c>
       <c r="AK16">
-        <f t="shared" si="1"/>
-        <v>13</v>
+        <f>SUMIF(F$3:F$63,$AI16,E$3:E$63)</f>
+        <v>1</v>
       </c>
       <c r="AL16">
-        <f t="shared" si="2"/>
-        <v>10</v>
+        <f>SUMIF(I$3:I$63,$AI16,H$3:H$63)</f>
+        <v>1</v>
       </c>
       <c r="AM16">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="AN16" s="7">
-        <f t="shared" si="4"/>
-        <v>20</v>
-      </c>
-      <c r="AO16">
-        <f t="shared" si="5"/>
-        <v>14</v>
-      </c>
-      <c r="AP16">
-        <f t="shared" si="6"/>
-        <v>14</v>
-      </c>
-      <c r="AQ16" s="7">
-        <f t="shared" si="7"/>
+        <f>SUMIF(L$3:L$54,$AI16,K$3:K$54)</f>
+        <v>1</v>
+      </c>
+      <c r="AN16" s="4">
+        <f>SUMIF(O$3:O$63,$AI16,N$3:N$63)</f>
+        <v>1</v>
+      </c>
+      <c r="AO16" s="7">
+        <f>SUMIF(R$3:R$63,$AI16,Q$3:Q$63)</f>
+        <v>1</v>
+      </c>
+      <c r="AP16" s="7">
+        <f>SUMIF(U$3:U$60,$AI16,T$3:T$60)</f>
+        <v>1</v>
+      </c>
+      <c r="AQ16" s="4">
+        <f>SUMIF(X$3:X$60,$AI16,W$3:W$60)</f>
         <v>1</v>
       </c>
       <c r="AR16">
-        <f t="shared" si="8"/>
+        <f>SUMIF(AA$3:AA$61,$AI16,Z$3:Z$61)</f>
         <v>1</v>
       </c>
       <c r="AS16">
-        <f t="shared" si="9"/>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="17" spans="1:45" x14ac:dyDescent="0.2">
+        <f>SUMIF(AD$3:AD$63,$AI16,AC$3:AC$63)</f>
+        <v>1</v>
+      </c>
+      <c r="AV16" t="s">
+        <v>2</v>
+      </c>
+      <c r="AW16">
+        <v>1</v>
+      </c>
+      <c r="AX16">
+        <v>1</v>
+      </c>
+      <c r="AY16">
+        <v>1</v>
+      </c>
+      <c r="AZ16">
+        <v>1</v>
+      </c>
+      <c r="BA16">
+        <v>1</v>
+      </c>
+      <c r="BB16">
+        <v>1</v>
+      </c>
+      <c r="BC16">
+        <v>1</v>
+      </c>
+      <c r="BD16">
+        <v>1</v>
+      </c>
+      <c r="BE16">
+        <v>1</v>
+      </c>
+      <c r="BF16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>44</v>
       </c>
       <c r="B17">
         <v>2</v>
       </c>
-      <c r="C17" s="4" t="s">
+      <c r="C17" s="5" t="s">
         <v>7</v>
       </c>
       <c r="D17" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E17">
-        <v>4</v>
-      </c>
-      <c r="F17" s="5" t="s">
-        <v>9</v>
+        <v>2</v>
+      </c>
+      <c r="F17" t="s">
+        <v>7</v>
       </c>
       <c r="G17" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H17">
-        <v>4</v>
-      </c>
-      <c r="I17" s="5" t="s">
-        <v>9</v>
+        <v>2</v>
+      </c>
+      <c r="I17" t="s">
+        <v>7</v>
       </c>
       <c r="J17" t="s">
         <v>45</v>
@@ -5516,35 +6012,35 @@
       <c r="K17">
         <v>2</v>
       </c>
-      <c r="L17" s="5" t="s">
+      <c r="L17" s="6" t="s">
         <v>9</v>
       </c>
       <c r="M17" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="N17">
-        <v>8</v>
-      </c>
-      <c r="O17" s="5" t="s">
-        <v>9</v>
+        <v>2</v>
+      </c>
+      <c r="O17" t="s">
+        <v>7</v>
       </c>
       <c r="P17" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="Q17">
-        <v>4</v>
-      </c>
-      <c r="R17" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="S17" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="T17" s="2">
-        <v>4</v>
-      </c>
-      <c r="U17" s="6" t="s">
-        <v>9</v>
+        <v>2</v>
+      </c>
+      <c r="R17" t="s">
+        <v>7</v>
+      </c>
+      <c r="S17" t="s">
+        <v>44</v>
+      </c>
+      <c r="T17">
+        <v>2</v>
+      </c>
+      <c r="U17" t="s">
+        <v>7</v>
       </c>
       <c r="V17" t="s">
         <v>46</v>
@@ -5552,7 +6048,7 @@
       <c r="W17">
         <v>1</v>
       </c>
-      <c r="X17" s="5" t="s">
+      <c r="X17" s="6" t="s">
         <v>3</v>
       </c>
       <c r="Y17" t="s">
@@ -5561,89 +6057,122 @@
       <c r="Z17">
         <v>2</v>
       </c>
-      <c r="AA17" s="5" t="s">
+      <c r="AA17" s="6" t="s">
         <v>7</v>
       </c>
       <c r="AB17" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AC17">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AD17" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="AI17" t="s">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="AJ17">
-        <f t="shared" si="0"/>
+        <f>SUMIF(C$3:C$60,AI17,B$3:B$60)</f>
         <v>1</v>
       </c>
       <c r="AK17">
-        <f t="shared" si="1"/>
-        <v>9</v>
+        <f>SUMIF(F$3:F$63,$AI17,E$3:E$63)</f>
+        <v>1</v>
       </c>
       <c r="AL17">
-        <f t="shared" si="2"/>
-        <v>10</v>
+        <f>SUMIF(I$3:I$63,$AI17,H$3:H$63)</f>
+        <v>1</v>
       </c>
       <c r="AM17">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="AN17" s="7">
-        <f t="shared" si="4"/>
-        <v>20</v>
-      </c>
-      <c r="AO17">
-        <f t="shared" si="5"/>
-        <v>12</v>
-      </c>
-      <c r="AP17">
-        <f t="shared" si="6"/>
-        <v>12</v>
-      </c>
-      <c r="AQ17" s="7">
-        <f t="shared" si="7"/>
+        <f>SUMIF(L$3:L$54,$AI17,K$3:K$54)</f>
+        <v>0</v>
+      </c>
+      <c r="AN17" s="4">
+        <f>SUMIF(O$3:O$63,$AI17,N$3:N$63)</f>
+        <v>1</v>
+      </c>
+      <c r="AO17" s="7">
+        <f>SUMIF(R$3:R$63,$AI17,Q$3:Q$63)</f>
+        <v>1</v>
+      </c>
+      <c r="AP17" s="7">
+        <f>SUMIF(U$3:U$60,$AI17,T$3:T$60)</f>
+        <v>0</v>
+      </c>
+      <c r="AQ17" s="4">
+        <f>SUMIF(X$3:X$60,$AI17,W$3:W$60)</f>
         <v>1</v>
       </c>
       <c r="AR17">
-        <f t="shared" si="8"/>
+        <f>SUMIF(AA$3:AA$61,$AI17,Z$3:Z$61)</f>
         <v>1</v>
       </c>
       <c r="AS17">
-        <f t="shared" si="9"/>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="18" spans="1:45" x14ac:dyDescent="0.2">
+        <f>SUMIF(AD$3:AD$63,$AI17,AC$3:AC$63)</f>
+        <v>1</v>
+      </c>
+      <c r="AV17" t="s">
+        <v>18</v>
+      </c>
+      <c r="AW17">
+        <v>1</v>
+      </c>
+      <c r="AX17">
+        <v>1</v>
+      </c>
+      <c r="AY17">
+        <v>1</v>
+      </c>
+      <c r="AZ17">
+        <v>1</v>
+      </c>
+      <c r="BA17">
+        <v>1</v>
+      </c>
+      <c r="BB17">
+        <v>1</v>
+      </c>
+      <c r="BC17">
+        <v>0</v>
+      </c>
+      <c r="BD17">
+        <v>1</v>
+      </c>
+      <c r="BE17">
+        <v>1</v>
+      </c>
+      <c r="BF17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>45</v>
       </c>
       <c r="B18">
         <v>3</v>
       </c>
-      <c r="C18" s="4" t="s">
+      <c r="C18" s="5" t="s">
         <v>9</v>
       </c>
       <c r="D18" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E18">
-        <v>6</v>
-      </c>
-      <c r="F18" s="5" t="s">
-        <v>10</v>
+        <v>3</v>
+      </c>
+      <c r="F18" t="s">
+        <v>9</v>
       </c>
       <c r="G18" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="H18">
-        <v>4</v>
-      </c>
-      <c r="I18" s="5" t="s">
-        <v>10</v>
+        <v>3</v>
+      </c>
+      <c r="I18" t="s">
+        <v>9</v>
       </c>
       <c r="J18" t="s">
         <v>47</v>
@@ -5651,35 +6180,35 @@
       <c r="K18">
         <v>2</v>
       </c>
-      <c r="L18" s="5" t="s">
+      <c r="L18" s="6" t="s">
         <v>10</v>
       </c>
       <c r="M18" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="N18">
-        <v>10</v>
-      </c>
-      <c r="O18" s="5" t="s">
-        <v>10</v>
+        <v>3</v>
+      </c>
+      <c r="O18" t="s">
+        <v>9</v>
       </c>
       <c r="P18" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="Q18">
-        <v>6</v>
-      </c>
-      <c r="R18" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="S18" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="T18" s="2">
-        <v>6</v>
-      </c>
-      <c r="U18" s="6" t="s">
-        <v>10</v>
+        <v>3</v>
+      </c>
+      <c r="R18" t="s">
+        <v>9</v>
+      </c>
+      <c r="S18" t="s">
+        <v>45</v>
+      </c>
+      <c r="T18">
+        <v>3</v>
+      </c>
+      <c r="U18" t="s">
+        <v>9</v>
       </c>
       <c r="V18" t="s">
         <v>48</v>
@@ -5687,7 +6216,7 @@
       <c r="W18">
         <v>1</v>
       </c>
-      <c r="X18" s="5" t="s">
+      <c r="X18" s="6" t="s">
         <v>3</v>
       </c>
       <c r="Y18" t="s">
@@ -5696,88 +6225,121 @@
       <c r="Z18">
         <v>2</v>
       </c>
-      <c r="AA18" s="5" t="s">
+      <c r="AA18" s="6" t="s">
         <v>9</v>
       </c>
       <c r="AB18" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="AC18">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AD18" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AI18" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="AJ18">
-        <f t="shared" si="0"/>
-        <v>14</v>
+        <f>SUMIF(C$3:C$60,AI18,B$3:B$60)</f>
+        <v>1</v>
       </c>
       <c r="AK18">
-        <f t="shared" si="1"/>
-        <v>23</v>
+        <f>SUMIF(F$3:F$63,$AI18,E$3:E$63)</f>
+        <v>1</v>
       </c>
       <c r="AL18">
-        <f t="shared" si="2"/>
-        <v>34</v>
+        <f>SUMIF(I$3:I$63,$AI18,H$3:H$63)</f>
+        <v>1</v>
       </c>
       <c r="AM18">
-        <f t="shared" si="3"/>
-        <v>14</v>
-      </c>
-      <c r="AN18" s="7">
-        <f t="shared" si="4"/>
-        <v>68</v>
-      </c>
-      <c r="AO18">
-        <f t="shared" si="5"/>
-        <v>34</v>
-      </c>
-      <c r="AP18">
-        <f t="shared" si="6"/>
-        <v>34</v>
-      </c>
-      <c r="AQ18" s="7">
+        <f>SUMIF(L$3:L$54,$AI18,K$3:K$54)</f>
+        <v>0</v>
+      </c>
+      <c r="AN18" s="4">
+        <f>SUMIF(O$3:O$63,$AI18,N$3:N$63)</f>
+        <v>1</v>
+      </c>
+      <c r="AO18" s="7">
+        <f>SUMIF(R$3:R$63,$AI18,Q$3:Q$63)</f>
+        <v>1</v>
+      </c>
+      <c r="AP18" s="7">
+        <f>SUMIF(U$3:U$60,$AI18,T$3:T$60)</f>
+        <v>0</v>
+      </c>
+      <c r="AQ18" s="4">
         <f>SUMIF(X$3:X$60,$AI18,W$3:W$60)</f>
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="AR18">
-        <f t="shared" si="8"/>
-        <v>14</v>
+        <f>SUMIF(AA$3:AA$61,$AI18,Z$3:Z$61)</f>
+        <v>1</v>
       </c>
       <c r="AS18">
-        <f t="shared" si="9"/>
-        <v>34</v>
-      </c>
-    </row>
-    <row r="19" spans="1:45" x14ac:dyDescent="0.2">
+        <f>SUMIF(AD$3:AD$63,$AI18,AC$3:AC$63)</f>
+        <v>1</v>
+      </c>
+      <c r="AV18" t="s">
+        <v>19</v>
+      </c>
+      <c r="AW18">
+        <v>1</v>
+      </c>
+      <c r="AX18">
+        <v>1</v>
+      </c>
+      <c r="AY18">
+        <v>1</v>
+      </c>
+      <c r="AZ18">
+        <v>1</v>
+      </c>
+      <c r="BA18">
+        <v>1</v>
+      </c>
+      <c r="BB18">
+        <v>1</v>
+      </c>
+      <c r="BC18">
+        <v>0</v>
+      </c>
+      <c r="BD18">
+        <v>1</v>
+      </c>
+      <c r="BE18">
+        <v>1</v>
+      </c>
+      <c r="BF18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>46</v>
       </c>
       <c r="B19">
         <v>1</v>
       </c>
-      <c r="C19" s="4" t="s">
+      <c r="C19" s="5" t="s">
         <v>3</v>
       </c>
       <c r="D19" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E19">
-        <v>2</v>
-      </c>
-      <c r="F19" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="F19" t="s">
         <v>3</v>
       </c>
       <c r="G19" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="H19">
-        <v>2</v>
-      </c>
-      <c r="I19" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="I19" t="s">
         <v>3</v>
       </c>
       <c r="J19" t="s">
@@ -5786,34 +6348,34 @@
       <c r="K19">
         <v>1</v>
       </c>
-      <c r="L19" s="5" t="s">
+      <c r="L19" s="6" t="s">
         <v>3</v>
       </c>
       <c r="M19" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="N19">
-        <v>4</v>
-      </c>
-      <c r="O19" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="O19" t="s">
         <v>3</v>
       </c>
       <c r="P19" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="Q19">
-        <v>2</v>
-      </c>
-      <c r="R19" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="S19" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="T19" s="2">
-        <v>2</v>
-      </c>
-      <c r="U19" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="R19" t="s">
+        <v>3</v>
+      </c>
+      <c r="S19" t="s">
+        <v>46</v>
+      </c>
+      <c r="T19">
+        <v>1</v>
+      </c>
+      <c r="U19" t="s">
         <v>3</v>
       </c>
       <c r="V19" t="s">
@@ -5822,7 +6384,7 @@
       <c r="W19">
         <v>2</v>
       </c>
-      <c r="X19" s="5" t="s">
+      <c r="X19" s="6" t="s">
         <v>3</v>
       </c>
       <c r="Y19" t="s">
@@ -5831,46 +6393,86 @@
       <c r="Z19">
         <v>1</v>
       </c>
-      <c r="AA19" s="5" t="s">
+      <c r="AA19" s="6" t="s">
         <v>3</v>
       </c>
       <c r="AB19" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="AC19">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AD19" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="20" spans="1:45" x14ac:dyDescent="0.2">
+      <c r="AW19">
+        <f>SUM(AW2:AW18)</f>
+        <v>402</v>
+      </c>
+      <c r="AX19">
+        <f>SUM(AX2:AX18)</f>
+        <v>393</v>
+      </c>
+      <c r="AY19">
+        <f>SUM(AY2:AY18)</f>
+        <v>393</v>
+      </c>
+      <c r="AZ19">
+        <f>SUM(AZ2:AZ18)</f>
+        <v>390</v>
+      </c>
+      <c r="BA19">
+        <f>SUM(BA2:BA18)</f>
+        <v>390</v>
+      </c>
+      <c r="BB19">
+        <f>SUM(BB2:BB18)</f>
+        <v>373</v>
+      </c>
+      <c r="BC19">
+        <f t="shared" ref="AW19:BE19" si="0">SUM(BC2:BC18)</f>
+        <v>372</v>
+      </c>
+      <c r="BD19">
+        <f>SUM(BD2:BD18)</f>
+        <v>371</v>
+      </c>
+      <c r="BE19">
+        <f>SUM(BE2:BE18)</f>
+        <v>368</v>
+      </c>
+      <c r="BF19">
+        <f>SUM(BF2:BF18)</f>
+        <v>293</v>
+      </c>
+    </row>
+    <row r="20" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>47</v>
       </c>
       <c r="B20">
         <v>2</v>
       </c>
-      <c r="C20" s="4" t="s">
+      <c r="C20" s="5" t="s">
         <v>10</v>
       </c>
       <c r="D20" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E20">
-        <v>27</v>
-      </c>
-      <c r="F20" s="5" t="s">
-        <v>4</v>
+        <v>2</v>
+      </c>
+      <c r="F20" t="s">
+        <v>10</v>
       </c>
       <c r="G20" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="H20">
-        <v>23</v>
-      </c>
-      <c r="I20" s="5" t="s">
-        <v>4</v>
+        <v>2</v>
+      </c>
+      <c r="I20" t="s">
+        <v>10</v>
       </c>
       <c r="J20" t="s">
         <v>49</v>
@@ -5878,35 +6480,35 @@
       <c r="K20">
         <v>4</v>
       </c>
-      <c r="L20" s="5" t="s">
+      <c r="L20" s="6" t="s">
         <v>4</v>
       </c>
       <c r="M20" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="N20">
-        <v>48</v>
-      </c>
-      <c r="O20" s="5" t="s">
-        <v>4</v>
+        <v>2</v>
+      </c>
+      <c r="O20" t="s">
+        <v>10</v>
       </c>
       <c r="P20" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="Q20">
-        <v>28</v>
-      </c>
-      <c r="R20" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="S20" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="T20" s="2">
-        <v>28</v>
-      </c>
-      <c r="U20" s="6" t="s">
-        <v>4</v>
+        <v>2</v>
+      </c>
+      <c r="R20" t="s">
+        <v>10</v>
+      </c>
+      <c r="S20" t="s">
+        <v>47</v>
+      </c>
+      <c r="T20">
+        <v>2</v>
+      </c>
+      <c r="U20" t="s">
+        <v>10</v>
       </c>
       <c r="V20" t="s">
         <v>79</v>
@@ -5914,7 +6516,7 @@
       <c r="W20">
         <v>4</v>
       </c>
-      <c r="X20" s="5" t="s">
+      <c r="X20" s="6" t="s">
         <v>3</v>
       </c>
       <c r="Y20" t="s">
@@ -5923,46 +6525,46 @@
       <c r="Z20">
         <v>2</v>
       </c>
-      <c r="AA20" s="5" t="s">
+      <c r="AA20" s="6" t="s">
         <v>10</v>
       </c>
       <c r="AB20" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="AC20">
-        <v>22</v>
+        <v>2</v>
       </c>
       <c r="AD20" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="21" spans="1:45" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>48</v>
       </c>
       <c r="B21">
         <v>1</v>
       </c>
-      <c r="C21" s="4" t="s">
+      <c r="C21" s="5" t="s">
         <v>3</v>
       </c>
       <c r="D21" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E21">
-        <v>4</v>
-      </c>
-      <c r="F21" s="5" t="s">
-        <v>6</v>
+        <v>1</v>
+      </c>
+      <c r="F21" t="s">
+        <v>3</v>
       </c>
       <c r="G21" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="H21">
-        <v>4</v>
-      </c>
-      <c r="I21" s="5" t="s">
-        <v>6</v>
+        <v>1</v>
+      </c>
+      <c r="I21" t="s">
+        <v>3</v>
       </c>
       <c r="J21" t="s">
         <v>50</v>
@@ -5970,35 +6572,35 @@
       <c r="K21">
         <v>2</v>
       </c>
-      <c r="L21" s="5" t="s">
+      <c r="L21" s="6" t="s">
         <v>6</v>
       </c>
       <c r="M21" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="N21">
-        <v>8</v>
-      </c>
-      <c r="O21" s="5" t="s">
-        <v>6</v>
+        <v>1</v>
+      </c>
+      <c r="O21" t="s">
+        <v>3</v>
       </c>
       <c r="P21" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="Q21">
-        <v>4</v>
-      </c>
-      <c r="R21" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="S21" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="T21" s="2">
-        <v>4</v>
-      </c>
-      <c r="U21" s="6" t="s">
-        <v>6</v>
+        <v>1</v>
+      </c>
+      <c r="R21" t="s">
+        <v>3</v>
+      </c>
+      <c r="S21" t="s">
+        <v>48</v>
+      </c>
+      <c r="T21">
+        <v>1</v>
+      </c>
+      <c r="U21" t="s">
+        <v>3</v>
       </c>
       <c r="V21" t="s">
         <v>45</v>
@@ -6006,7 +6608,7 @@
       <c r="W21">
         <v>3</v>
       </c>
-      <c r="X21" s="5" t="s">
+      <c r="X21" s="6" t="s">
         <v>9</v>
       </c>
       <c r="Y21" t="s">
@@ -6015,46 +6617,46 @@
       <c r="Z21">
         <v>1</v>
       </c>
-      <c r="AA21" s="5" t="s">
+      <c r="AA21" s="6" t="s">
         <v>3</v>
       </c>
       <c r="AB21" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="AC21">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AD21" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="22" spans="1:45" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>49</v>
       </c>
       <c r="B22">
         <v>4</v>
       </c>
-      <c r="C22" s="4" t="s">
+      <c r="C22" s="5" t="s">
         <v>4</v>
       </c>
       <c r="D22" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E22">
-        <v>5</v>
-      </c>
-      <c r="F22" s="5" t="s">
-        <v>1</v>
+        <v>4</v>
+      </c>
+      <c r="F22" t="s">
+        <v>4</v>
       </c>
       <c r="G22" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="H22">
-        <v>8</v>
-      </c>
-      <c r="I22" s="5" t="s">
-        <v>1</v>
+        <v>4</v>
+      </c>
+      <c r="I22" t="s">
+        <v>4</v>
       </c>
       <c r="J22" t="s">
         <v>51</v>
@@ -6062,35 +6664,35 @@
       <c r="K22">
         <v>4</v>
       </c>
-      <c r="L22" s="5" t="s">
+      <c r="L22" s="6" t="s">
         <v>1</v>
       </c>
       <c r="M22" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="N22">
-        <v>16</v>
-      </c>
-      <c r="O22" s="5" t="s">
-        <v>1</v>
+        <v>4</v>
+      </c>
+      <c r="O22" t="s">
+        <v>4</v>
       </c>
       <c r="P22" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="Q22">
-        <v>8</v>
-      </c>
-      <c r="R22" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="S22" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="T22" s="2">
-        <v>8</v>
-      </c>
-      <c r="U22" s="6" t="s">
-        <v>1</v>
+        <v>4</v>
+      </c>
+      <c r="R22" t="s">
+        <v>4</v>
+      </c>
+      <c r="S22" t="s">
+        <v>49</v>
+      </c>
+      <c r="T22">
+        <v>4</v>
+      </c>
+      <c r="U22" t="s">
+        <v>4</v>
       </c>
       <c r="V22" t="s">
         <v>54</v>
@@ -6098,7 +6700,7 @@
       <c r="W22">
         <v>2</v>
       </c>
-      <c r="X22" s="5" t="s">
+      <c r="X22" s="6" t="s">
         <v>9</v>
       </c>
       <c r="Y22" t="s">
@@ -6107,46 +6709,46 @@
       <c r="Z22">
         <v>4</v>
       </c>
-      <c r="AA22" s="5" t="s">
+      <c r="AA22" s="6" t="s">
         <v>4</v>
       </c>
       <c r="AB22" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="AC22">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="AD22" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:45" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>50</v>
       </c>
       <c r="B23">
         <v>3</v>
       </c>
-      <c r="C23" s="4" t="s">
+      <c r="C23" s="5" t="s">
         <v>6</v>
       </c>
       <c r="D23" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E23">
-        <v>5</v>
-      </c>
-      <c r="F23" s="5" t="s">
-        <v>1</v>
+        <v>3</v>
+      </c>
+      <c r="F23" t="s">
+        <v>6</v>
       </c>
       <c r="G23" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="H23">
-        <v>8</v>
-      </c>
-      <c r="I23" s="5" t="s">
-        <v>1</v>
+        <v>3</v>
+      </c>
+      <c r="I23" t="s">
+        <v>6</v>
       </c>
       <c r="J23" t="s">
         <v>52</v>
@@ -6154,35 +6756,35 @@
       <c r="K23">
         <v>4</v>
       </c>
-      <c r="L23" s="5" t="s">
+      <c r="L23" s="6" t="s">
         <v>1</v>
       </c>
       <c r="M23" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="N23">
-        <v>16</v>
-      </c>
-      <c r="O23" s="5" t="s">
-        <v>1</v>
+        <v>3</v>
+      </c>
+      <c r="O23" t="s">
+        <v>6</v>
       </c>
       <c r="P23" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="Q23">
-        <v>8</v>
-      </c>
-      <c r="R23" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="S23" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="T23" s="2">
-        <v>8</v>
-      </c>
-      <c r="U23" s="6" t="s">
-        <v>1</v>
+        <v>3</v>
+      </c>
+      <c r="R23" t="s">
+        <v>6</v>
+      </c>
+      <c r="S23" t="s">
+        <v>50</v>
+      </c>
+      <c r="T23">
+        <v>3</v>
+      </c>
+      <c r="U23" t="s">
+        <v>6</v>
       </c>
       <c r="V23" t="s">
         <v>59</v>
@@ -6190,7 +6792,7 @@
       <c r="W23">
         <v>1</v>
       </c>
-      <c r="X23" s="5" t="s">
+      <c r="X23" s="6" t="s">
         <v>9</v>
       </c>
       <c r="Y23" t="s">
@@ -6199,46 +6801,46 @@
       <c r="Z23">
         <v>3</v>
       </c>
-      <c r="AA23" s="5" t="s">
+      <c r="AA23" s="6" t="s">
         <v>6</v>
       </c>
       <c r="AB23" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="AC23">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="AD23" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:45" x14ac:dyDescent="0.2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>51</v>
       </c>
       <c r="B24">
         <v>4</v>
       </c>
-      <c r="C24" s="4" t="s">
+      <c r="C24" s="5" t="s">
         <v>1</v>
       </c>
       <c r="D24" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E24">
-        <v>9</v>
-      </c>
-      <c r="F24" s="5" t="s">
-        <v>8</v>
+        <v>4</v>
+      </c>
+      <c r="F24" t="s">
+        <v>1</v>
       </c>
       <c r="G24" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="H24">
-        <v>12</v>
-      </c>
-      <c r="I24" s="5" t="s">
-        <v>8</v>
+        <v>4</v>
+      </c>
+      <c r="I24" t="s">
+        <v>1</v>
       </c>
       <c r="J24" t="s">
         <v>53</v>
@@ -6246,35 +6848,35 @@
       <c r="K24">
         <v>4</v>
       </c>
-      <c r="L24" s="5" t="s">
+      <c r="L24" s="6" t="s">
         <v>8</v>
       </c>
       <c r="M24" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="N24">
-        <v>24</v>
-      </c>
-      <c r="O24" s="5" t="s">
-        <v>8</v>
+        <v>4</v>
+      </c>
+      <c r="O24" t="s">
+        <v>1</v>
       </c>
       <c r="P24" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="Q24">
-        <v>12</v>
-      </c>
-      <c r="R24" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="S24" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="T24" s="2">
-        <v>12</v>
-      </c>
-      <c r="U24" s="6" t="s">
-        <v>8</v>
+        <v>4</v>
+      </c>
+      <c r="R24" t="s">
+        <v>1</v>
+      </c>
+      <c r="S24" t="s">
+        <v>51</v>
+      </c>
+      <c r="T24">
+        <v>4</v>
+      </c>
+      <c r="U24" t="s">
+        <v>1</v>
       </c>
       <c r="V24" t="s">
         <v>69</v>
@@ -6282,7 +6884,7 @@
       <c r="W24">
         <v>2</v>
       </c>
-      <c r="X24" s="5" t="s">
+      <c r="X24" s="6" t="s">
         <v>9</v>
       </c>
       <c r="Y24" t="s">
@@ -6291,46 +6893,46 @@
       <c r="Z24">
         <v>4</v>
       </c>
-      <c r="AA24" s="5" t="s">
+      <c r="AA24" s="6" t="s">
         <v>1</v>
       </c>
       <c r="AB24" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="AC24">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="AD24" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="25" spans="1:45" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>52</v>
       </c>
       <c r="B25">
         <v>4</v>
       </c>
-      <c r="C25" s="4" t="s">
+      <c r="C25" s="5" t="s">
         <v>1</v>
       </c>
       <c r="D25" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E25">
-        <v>2</v>
-      </c>
-      <c r="F25" s="5" t="s">
-        <v>9</v>
+        <v>4</v>
+      </c>
+      <c r="F25" t="s">
+        <v>1</v>
       </c>
       <c r="G25" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="H25">
-        <v>2</v>
-      </c>
-      <c r="I25" s="5" t="s">
-        <v>9</v>
+        <v>4</v>
+      </c>
+      <c r="I25" t="s">
+        <v>1</v>
       </c>
       <c r="J25" t="s">
         <v>54</v>
@@ -6338,35 +6940,35 @@
       <c r="K25">
         <v>2</v>
       </c>
-      <c r="L25" s="5" t="s">
+      <c r="L25" s="6" t="s">
         <v>9</v>
       </c>
       <c r="M25" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="N25">
         <v>4</v>
       </c>
-      <c r="O25" s="5" t="s">
-        <v>9</v>
+      <c r="O25" t="s">
+        <v>1</v>
       </c>
       <c r="P25" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="Q25">
-        <v>2</v>
-      </c>
-      <c r="R25" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="S25" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="T25" s="2">
-        <v>2</v>
-      </c>
-      <c r="U25" s="6" t="s">
-        <v>9</v>
+        <v>4</v>
+      </c>
+      <c r="R25" t="s">
+        <v>1</v>
+      </c>
+      <c r="S25" t="s">
+        <v>52</v>
+      </c>
+      <c r="T25">
+        <v>4</v>
+      </c>
+      <c r="U25" t="s">
+        <v>1</v>
       </c>
       <c r="V25" t="s">
         <v>70</v>
@@ -6374,7 +6976,7 @@
       <c r="W25">
         <v>2</v>
       </c>
-      <c r="X25" s="5" t="s">
+      <c r="X25" s="6" t="s">
         <v>9</v>
       </c>
       <c r="Y25" t="s">
@@ -6383,46 +6985,46 @@
       <c r="Z25">
         <v>4</v>
       </c>
-      <c r="AA25" s="5" t="s">
+      <c r="AA25" s="6" t="s">
         <v>1</v>
       </c>
       <c r="AB25" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="AC25">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AD25" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="26" spans="1:45" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>53</v>
       </c>
       <c r="B26">
         <v>4</v>
       </c>
-      <c r="C26" s="4" t="s">
+      <c r="C26" s="5" t="s">
         <v>8</v>
       </c>
       <c r="D26" t="s">
-        <v>89</v>
+        <v>53</v>
       </c>
       <c r="E26">
-        <v>3</v>
-      </c>
-      <c r="F26" s="5" t="s">
-        <v>7</v>
+        <v>4</v>
+      </c>
+      <c r="F26" t="s">
+        <v>8</v>
       </c>
       <c r="G26" t="s">
-        <v>89</v>
+        <v>53</v>
       </c>
       <c r="H26">
-        <v>2</v>
-      </c>
-      <c r="I26" s="5" t="s">
-        <v>7</v>
+        <v>4</v>
+      </c>
+      <c r="I26" t="s">
+        <v>8</v>
       </c>
       <c r="J26" t="s">
         <v>55</v>
@@ -6430,35 +7032,35 @@
       <c r="K26">
         <v>1</v>
       </c>
-      <c r="L26" s="5" t="s">
+      <c r="L26" s="6" t="s">
         <v>4</v>
       </c>
       <c r="M26" t="s">
-        <v>89</v>
+        <v>53</v>
       </c>
       <c r="N26">
-        <v>5</v>
-      </c>
-      <c r="O26" s="5" t="s">
-        <v>7</v>
+        <v>4</v>
+      </c>
+      <c r="O26" t="s">
+        <v>8</v>
       </c>
       <c r="P26" t="s">
-        <v>89</v>
+        <v>53</v>
       </c>
       <c r="Q26">
-        <v>3</v>
-      </c>
-      <c r="R26" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="S26" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="T26" s="2">
-        <v>3</v>
-      </c>
-      <c r="U26" s="6" t="s">
-        <v>7</v>
+        <v>4</v>
+      </c>
+      <c r="R26" t="s">
+        <v>8</v>
+      </c>
+      <c r="S26" t="s">
+        <v>53</v>
+      </c>
+      <c r="T26">
+        <v>4</v>
+      </c>
+      <c r="U26" t="s">
+        <v>8</v>
       </c>
       <c r="V26" t="s">
         <v>72</v>
@@ -6466,7 +7068,7 @@
       <c r="W26">
         <v>4</v>
       </c>
-      <c r="X26" s="5" t="s">
+      <c r="X26" s="6" t="s">
         <v>9</v>
       </c>
       <c r="Y26" t="s">
@@ -6475,46 +7077,46 @@
       <c r="Z26">
         <v>4</v>
       </c>
-      <c r="AA26" s="5" t="s">
+      <c r="AA26" s="6" t="s">
         <v>8</v>
       </c>
       <c r="AB26" t="s">
-        <v>89</v>
+        <v>53</v>
       </c>
       <c r="AC26">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AD26" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="27" spans="1:45" x14ac:dyDescent="0.2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>54</v>
       </c>
       <c r="B27">
         <v>2</v>
       </c>
-      <c r="C27" s="4" t="s">
+      <c r="C27" s="5" t="s">
         <v>9</v>
       </c>
       <c r="D27" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E27">
-        <v>8</v>
-      </c>
-      <c r="F27" s="5" t="s">
-        <v>4</v>
+        <v>2</v>
+      </c>
+      <c r="F27" t="s">
+        <v>9</v>
       </c>
       <c r="G27" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H27">
-        <v>8</v>
-      </c>
-      <c r="I27" s="5" t="s">
-        <v>4</v>
+        <v>2</v>
+      </c>
+      <c r="I27" t="s">
+        <v>9</v>
       </c>
       <c r="J27" t="s">
         <v>56</v>
@@ -6522,35 +7124,35 @@
       <c r="K27">
         <v>2</v>
       </c>
-      <c r="L27" s="5" t="s">
+      <c r="L27" s="6" t="s">
         <v>11</v>
       </c>
       <c r="M27" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="N27">
-        <v>16</v>
-      </c>
-      <c r="O27" s="5" t="s">
-        <v>4</v>
+        <v>2</v>
+      </c>
+      <c r="O27" t="s">
+        <v>9</v>
       </c>
       <c r="P27" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="Q27">
-        <v>9</v>
-      </c>
-      <c r="R27" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="S27" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="T27" s="2">
-        <v>9</v>
-      </c>
-      <c r="U27" s="6" t="s">
-        <v>4</v>
+        <v>2</v>
+      </c>
+      <c r="R27" t="s">
+        <v>9</v>
+      </c>
+      <c r="S27" t="s">
+        <v>54</v>
+      </c>
+      <c r="T27">
+        <v>2</v>
+      </c>
+      <c r="U27" t="s">
+        <v>9</v>
       </c>
       <c r="V27" t="s">
         <v>78</v>
@@ -6558,7 +7160,7 @@
       <c r="W27">
         <v>1</v>
       </c>
-      <c r="X27" s="5" t="s">
+      <c r="X27" s="6" t="s">
         <v>9</v>
       </c>
       <c r="Y27" t="s">
@@ -6567,46 +7169,46 @@
       <c r="Z27">
         <v>2</v>
       </c>
-      <c r="AA27" s="5" t="s">
+      <c r="AA27" s="6" t="s">
         <v>9</v>
       </c>
       <c r="AB27" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="AC27">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="AD27" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="28" spans="1:45" x14ac:dyDescent="0.2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>55</v>
       </c>
       <c r="B28">
         <v>1</v>
       </c>
-      <c r="C28" s="4" t="s">
+      <c r="C28" s="5" t="s">
         <v>4</v>
       </c>
       <c r="D28" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E28">
-        <v>2</v>
-      </c>
-      <c r="F28" s="5" t="s">
-        <v>11</v>
+        <v>1</v>
+      </c>
+      <c r="F28" t="s">
+        <v>4</v>
       </c>
       <c r="G28" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H28">
-        <v>2</v>
-      </c>
-      <c r="I28" s="5" t="s">
-        <v>11</v>
+        <v>1</v>
+      </c>
+      <c r="I28" t="s">
+        <v>4</v>
       </c>
       <c r="J28" t="s">
         <v>57</v>
@@ -6614,35 +7216,35 @@
       <c r="K28">
         <v>6</v>
       </c>
-      <c r="L28" s="5" t="s">
+      <c r="L28" s="6" t="s">
         <v>11</v>
       </c>
       <c r="M28" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="N28">
-        <v>4</v>
-      </c>
-      <c r="O28" s="5" t="s">
-        <v>11</v>
+        <v>1</v>
+      </c>
+      <c r="O28" t="s">
+        <v>4</v>
       </c>
       <c r="P28" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="Q28">
-        <v>2</v>
-      </c>
-      <c r="R28" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="S28" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="T28" s="2">
-        <v>2</v>
-      </c>
-      <c r="U28" s="6" t="s">
-        <v>11</v>
+        <v>1</v>
+      </c>
+      <c r="R28" t="s">
+        <v>4</v>
+      </c>
+      <c r="S28" t="s">
+        <v>55</v>
+      </c>
+      <c r="T28">
+        <v>1</v>
+      </c>
+      <c r="U28" t="s">
+        <v>4</v>
       </c>
       <c r="V28" t="s">
         <v>47</v>
@@ -6650,7 +7252,7 @@
       <c r="W28">
         <v>2</v>
       </c>
-      <c r="X28" s="5" t="s">
+      <c r="X28" s="6" t="s">
         <v>10</v>
       </c>
       <c r="Y28" t="s">
@@ -6659,45 +7261,45 @@
       <c r="Z28">
         <v>1</v>
       </c>
-      <c r="AA28" s="5" t="s">
+      <c r="AA28" s="6" t="s">
         <v>4</v>
       </c>
       <c r="AB28" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="AC28">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AD28" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="29" spans="1:45" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>56</v>
       </c>
       <c r="B29">
         <v>2</v>
       </c>
-      <c r="C29" s="4" t="s">
+      <c r="C29" s="5" t="s">
         <v>11</v>
       </c>
       <c r="D29" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E29">
-        <v>8</v>
-      </c>
-      <c r="F29" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="F29" t="s">
         <v>11</v>
       </c>
       <c r="G29" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H29">
-        <v>10</v>
-      </c>
-      <c r="I29" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="I29" t="s">
         <v>11</v>
       </c>
       <c r="J29" t="s">
@@ -6706,34 +7308,34 @@
       <c r="K29">
         <v>1</v>
       </c>
-      <c r="L29" s="5" t="s">
+      <c r="L29" s="6" t="s">
         <v>4</v>
       </c>
       <c r="M29" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="N29">
-        <v>20</v>
-      </c>
-      <c r="O29" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="O29" t="s">
         <v>11</v>
       </c>
       <c r="P29" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="Q29">
-        <v>10</v>
-      </c>
-      <c r="R29" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="R29" t="s">
         <v>11</v>
       </c>
-      <c r="S29" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="T29" s="2">
-        <v>10</v>
-      </c>
-      <c r="U29" s="6" t="s">
+      <c r="S29" t="s">
+        <v>56</v>
+      </c>
+      <c r="T29">
+        <v>2</v>
+      </c>
+      <c r="U29" t="s">
         <v>11</v>
       </c>
       <c r="V29" t="s">
@@ -6742,7 +7344,7 @@
       <c r="W29">
         <v>2</v>
       </c>
-      <c r="X29" s="5" t="s">
+      <c r="X29" s="6" t="s">
         <v>8</v>
       </c>
       <c r="Y29" t="s">
@@ -6751,46 +7353,46 @@
       <c r="Z29">
         <v>2</v>
       </c>
-      <c r="AA29" s="5" t="s">
+      <c r="AA29" s="6" t="s">
         <v>11</v>
       </c>
       <c r="AB29" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AC29">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="AD29" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="30" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>57</v>
       </c>
       <c r="B30">
         <v>6</v>
       </c>
-      <c r="C30" s="4" t="s">
+      <c r="C30" s="5" t="s">
         <v>11</v>
       </c>
       <c r="D30" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E30">
-        <v>10</v>
-      </c>
-      <c r="F30" s="5" t="s">
-        <v>4</v>
+        <v>6</v>
+      </c>
+      <c r="F30" t="s">
+        <v>11</v>
       </c>
       <c r="G30" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H30">
-        <v>9</v>
-      </c>
-      <c r="I30" s="5" t="s">
-        <v>4</v>
+        <v>6</v>
+      </c>
+      <c r="I30" t="s">
+        <v>11</v>
       </c>
       <c r="J30" t="s">
         <v>61</v>
@@ -6798,35 +7400,35 @@
       <c r="K30">
         <v>14</v>
       </c>
-      <c r="L30" s="5" t="s">
+      <c r="L30" s="6" t="s">
         <v>12</v>
       </c>
       <c r="M30" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="N30">
-        <v>18</v>
-      </c>
-      <c r="O30" s="5" t="s">
-        <v>4</v>
+        <v>6</v>
+      </c>
+      <c r="O30" t="s">
+        <v>11</v>
       </c>
       <c r="P30" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="Q30">
-        <v>10</v>
-      </c>
-      <c r="R30" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="S30" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="T30" s="2">
-        <v>10</v>
-      </c>
-      <c r="U30" s="6" t="s">
-        <v>4</v>
+        <v>6</v>
+      </c>
+      <c r="R30" t="s">
+        <v>11</v>
+      </c>
+      <c r="S30" t="s">
+        <v>57</v>
+      </c>
+      <c r="T30">
+        <v>6</v>
+      </c>
+      <c r="U30" t="s">
+        <v>11</v>
       </c>
       <c r="V30" t="s">
         <v>43</v>
@@ -6834,7 +7436,7 @@
       <c r="W30">
         <v>2</v>
       </c>
-      <c r="X30" s="5" t="s">
+      <c r="X30" s="6" t="s">
         <v>8</v>
       </c>
       <c r="Y30" t="s">
@@ -6843,46 +7445,46 @@
       <c r="Z30">
         <v>6</v>
       </c>
-      <c r="AA30" s="5" t="s">
+      <c r="AA30" s="6" t="s">
         <v>11</v>
       </c>
       <c r="AB30" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AC30">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AD30" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="31" spans="1:45" x14ac:dyDescent="0.2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="31" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>58</v>
       </c>
       <c r="B31">
         <v>1</v>
       </c>
-      <c r="C31" s="4" t="s">
+      <c r="C31" s="5" t="s">
         <v>4</v>
       </c>
       <c r="D31" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="E31">
-        <v>23</v>
-      </c>
-      <c r="F31" s="5" t="s">
-        <v>12</v>
+        <v>1</v>
+      </c>
+      <c r="F31" t="s">
+        <v>4</v>
       </c>
       <c r="G31" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="H31">
-        <v>34</v>
-      </c>
-      <c r="I31" s="5" t="s">
-        <v>12</v>
+        <v>1</v>
+      </c>
+      <c r="I31" t="s">
+        <v>4</v>
       </c>
       <c r="J31" t="s">
         <v>62</v>
@@ -6890,35 +7492,35 @@
       <c r="K31">
         <v>2</v>
       </c>
-      <c r="L31" s="5" t="s">
+      <c r="L31" s="6" t="s">
         <v>4</v>
       </c>
       <c r="M31" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="N31">
-        <v>68</v>
-      </c>
-      <c r="O31" s="5" t="s">
-        <v>12</v>
+        <v>1</v>
+      </c>
+      <c r="O31" t="s">
+        <v>4</v>
       </c>
       <c r="P31" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="Q31">
-        <v>34</v>
-      </c>
-      <c r="R31" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="S31" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="T31" s="2">
-        <v>34</v>
-      </c>
-      <c r="U31" s="6" t="s">
-        <v>12</v>
+        <v>1</v>
+      </c>
+      <c r="R31" t="s">
+        <v>4</v>
+      </c>
+      <c r="S31" t="s">
+        <v>58</v>
+      </c>
+      <c r="T31">
+        <v>1</v>
+      </c>
+      <c r="U31" t="s">
+        <v>4</v>
       </c>
       <c r="V31" t="s">
         <v>53</v>
@@ -6926,7 +7528,7 @@
       <c r="W31">
         <v>4</v>
       </c>
-      <c r="X31" s="5" t="s">
+      <c r="X31" s="6" t="s">
         <v>8</v>
       </c>
       <c r="Y31" t="s">
@@ -6935,46 +7537,46 @@
       <c r="Z31">
         <v>1</v>
       </c>
-      <c r="AA31" s="5" t="s">
+      <c r="AA31" s="6" t="s">
         <v>4</v>
       </c>
       <c r="AB31" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="AC31">
-        <v>34</v>
+        <v>1</v>
       </c>
       <c r="AD31" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="32" spans="1:45" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>59</v>
       </c>
       <c r="B32">
         <v>1</v>
       </c>
-      <c r="C32" s="4" t="s">
+      <c r="C32" s="5" t="s">
         <v>9</v>
       </c>
       <c r="D32" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="E32">
-        <v>6</v>
-      </c>
-      <c r="F32" s="5" t="s">
-        <v>4</v>
+        <v>1</v>
+      </c>
+      <c r="F32" t="s">
+        <v>9</v>
       </c>
       <c r="G32" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="H32">
-        <v>5</v>
-      </c>
-      <c r="I32" s="5" t="s">
-        <v>4</v>
+        <v>1</v>
+      </c>
+      <c r="I32" t="s">
+        <v>9</v>
       </c>
       <c r="J32" t="s">
         <v>63</v>
@@ -6982,34 +7584,34 @@
       <c r="K32">
         <v>11</v>
       </c>
-      <c r="L32" s="5" t="s">
+      <c r="L32" s="6" t="s">
         <v>13</v>
       </c>
       <c r="M32" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="N32">
-        <v>10</v>
-      </c>
-      <c r="O32" s="5" t="s">
-        <v>4</v>
+        <v>1</v>
+      </c>
+      <c r="O32" t="s">
+        <v>9</v>
       </c>
       <c r="P32" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="Q32">
+        <v>1</v>
+      </c>
+      <c r="R32" t="s">
+        <v>9</v>
+      </c>
+      <c r="S32" t="s">
+        <v>60</v>
+      </c>
+      <c r="T32">
         <v>6</v>
       </c>
-      <c r="R32" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="S32" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="T32" s="2">
-        <v>6</v>
-      </c>
-      <c r="U32" s="6" t="s">
+      <c r="U32" t="s">
         <v>4</v>
       </c>
       <c r="V32" t="s">
@@ -7018,7 +7620,7 @@
       <c r="W32">
         <v>3</v>
       </c>
-      <c r="X32" s="5" t="s">
+      <c r="X32" s="6" t="s">
         <v>8</v>
       </c>
       <c r="Y32" t="s">
@@ -7027,17 +7629,17 @@
       <c r="Z32">
         <v>1</v>
       </c>
-      <c r="AA32" s="5" t="s">
+      <c r="AA32" s="6" t="s">
         <v>9</v>
       </c>
       <c r="AB32" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="AC32">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AD32" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="33" spans="1:30" x14ac:dyDescent="0.2">
@@ -7047,25 +7649,25 @@
       <c r="B33">
         <v>6</v>
       </c>
-      <c r="C33" s="4" t="s">
+      <c r="C33" s="5" t="s">
         <v>4</v>
       </c>
       <c r="D33" t="s">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="E33">
-        <v>2</v>
-      </c>
-      <c r="F33" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="F33" t="s">
         <v>4</v>
       </c>
       <c r="G33" t="s">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="H33">
-        <v>2</v>
-      </c>
-      <c r="I33" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="I33" t="s">
         <v>4</v>
       </c>
       <c r="J33" t="s">
@@ -7074,35 +7676,35 @@
       <c r="K33">
         <v>2</v>
       </c>
-      <c r="L33" s="5" t="s">
+      <c r="L33" s="6" t="s">
         <v>3</v>
       </c>
       <c r="M33" t="s">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="N33">
-        <v>4</v>
-      </c>
-      <c r="O33" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="O33" t="s">
         <v>4</v>
       </c>
       <c r="P33" t="s">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="Q33">
-        <v>2</v>
-      </c>
-      <c r="R33" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="S33" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="T33" s="2">
-        <v>2</v>
-      </c>
-      <c r="U33" s="6" t="s">
-        <v>4</v>
+        <v>6</v>
+      </c>
+      <c r="R33" t="s">
+        <v>4</v>
+      </c>
+      <c r="S33" t="s">
+        <v>61</v>
+      </c>
+      <c r="T33">
+        <v>14</v>
+      </c>
+      <c r="U33" t="s">
+        <v>12</v>
       </c>
       <c r="V33" t="s">
         <v>67</v>
@@ -7110,7 +7712,7 @@
       <c r="W33">
         <v>2</v>
       </c>
-      <c r="X33" s="5" t="s">
+      <c r="X33" s="6" t="s">
         <v>8</v>
       </c>
       <c r="Y33" t="s">
@@ -7119,14 +7721,14 @@
       <c r="Z33">
         <v>6</v>
       </c>
-      <c r="AA33" s="5" t="s">
+      <c r="AA33" s="6" t="s">
         <v>4</v>
       </c>
       <c r="AB33" t="s">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="AC33">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="AD33" t="s">
         <v>4</v>
@@ -7139,20 +7741,26 @@
       <c r="B34">
         <v>14</v>
       </c>
-      <c r="C34" s="4" t="s">
+      <c r="C34" s="5" t="s">
         <v>12</v>
       </c>
       <c r="D34" t="s">
-        <v>91</v>
+        <v>61</v>
       </c>
       <c r="E34">
-        <v>300</v>
+        <v>14</v>
+      </c>
+      <c r="F34" t="s">
+        <v>12</v>
       </c>
       <c r="G34" t="s">
-        <v>91</v>
+        <v>61</v>
       </c>
       <c r="H34">
-        <v>322</v>
+        <v>14</v>
+      </c>
+      <c r="I34" t="s">
+        <v>12</v>
       </c>
       <c r="J34" t="s">
         <v>65</v>
@@ -7160,35 +7768,43 @@
       <c r="K34">
         <v>3</v>
       </c>
-      <c r="L34" s="5" t="s">
+      <c r="L34" s="6" t="s">
         <v>8</v>
       </c>
       <c r="M34" t="s">
-        <v>91</v>
+        <v>61</v>
       </c>
       <c r="N34">
-        <v>659</v>
+        <v>14</v>
+      </c>
+      <c r="O34" t="s">
+        <v>12</v>
       </c>
       <c r="P34" t="s">
-        <v>91</v>
+        <v>61</v>
       </c>
       <c r="Q34">
-        <v>352</v>
-      </c>
-      <c r="S34" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="T34" s="2">
-        <v>352</v>
-      </c>
-      <c r="U34" s="6"/>
+        <v>14</v>
+      </c>
+      <c r="R34" t="s">
+        <v>12</v>
+      </c>
+      <c r="S34" t="s">
+        <v>62</v>
+      </c>
+      <c r="T34">
+        <v>2</v>
+      </c>
+      <c r="U34" t="s">
+        <v>4</v>
+      </c>
       <c r="V34" t="s">
         <v>77</v>
       </c>
       <c r="W34">
         <v>4</v>
       </c>
-      <c r="X34" s="5" t="s">
+      <c r="X34" s="6" t="s">
         <v>8</v>
       </c>
       <c r="Y34" t="s">
@@ -7197,14 +7813,17 @@
       <c r="Z34">
         <v>14</v>
       </c>
-      <c r="AA34" s="5" t="s">
+      <c r="AA34" s="6" t="s">
         <v>12</v>
       </c>
       <c r="AB34" t="s">
-        <v>91</v>
+        <v>61</v>
       </c>
       <c r="AC34">
-        <v>320</v>
+        <v>14</v>
+      </c>
+      <c r="AD34" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="35" spans="1:30" x14ac:dyDescent="0.2">
@@ -7214,26 +7833,26 @@
       <c r="B35">
         <v>2</v>
       </c>
-      <c r="C35" s="4" t="s">
+      <c r="C35" s="5" t="s">
         <v>4</v>
       </c>
       <c r="D35" t="s">
-        <v>92</v>
+        <v>62</v>
       </c>
       <c r="E35">
-        <v>3</v>
-      </c>
-      <c r="F35" s="5" t="s">
-        <v>10</v>
+        <v>2</v>
+      </c>
+      <c r="F35" t="s">
+        <v>4</v>
       </c>
       <c r="G35" t="s">
-        <v>92</v>
+        <v>62</v>
       </c>
       <c r="H35">
         <v>2</v>
       </c>
-      <c r="I35" s="5" t="s">
-        <v>10</v>
+      <c r="I35" t="s">
+        <v>4</v>
       </c>
       <c r="J35" t="s">
         <v>67</v>
@@ -7241,43 +7860,41 @@
       <c r="K35">
         <v>1</v>
       </c>
-      <c r="L35" s="5" t="s">
+      <c r="L35" s="6" t="s">
         <v>8</v>
       </c>
       <c r="M35" t="s">
-        <v>92</v>
+        <v>62</v>
       </c>
       <c r="N35">
-        <v>5</v>
-      </c>
-      <c r="O35" s="5" t="s">
-        <v>10</v>
+        <v>2</v>
+      </c>
+      <c r="O35" t="s">
+        <v>4</v>
       </c>
       <c r="P35" t="s">
-        <v>92</v>
+        <v>62</v>
       </c>
       <c r="Q35">
-        <v>3</v>
-      </c>
-      <c r="R35" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="S35" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="T35" s="2">
-        <v>3</v>
-      </c>
-      <c r="U35" s="6" t="s">
-        <v>10</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="R35" t="s">
+        <v>4</v>
+      </c>
+      <c r="S35" t="s">
+        <v>89</v>
+      </c>
+      <c r="T35">
+        <v>136</v>
+      </c>
+      <c r="U35"/>
       <c r="V35" t="s">
         <v>82</v>
       </c>
       <c r="W35">
         <v>4</v>
       </c>
-      <c r="X35" s="5" t="s">
+      <c r="X35" s="6" t="s">
         <v>8</v>
       </c>
       <c r="Y35" t="s">
@@ -7286,17 +7903,17 @@
       <c r="Z35">
         <v>2</v>
       </c>
-      <c r="AA35" s="5" t="s">
+      <c r="AA35" s="6" t="s">
         <v>4</v>
       </c>
       <c r="AB35" t="s">
-        <v>92</v>
+        <v>62</v>
       </c>
       <c r="AC35">
         <v>2</v>
       </c>
       <c r="AD35" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="36" spans="1:30" x14ac:dyDescent="0.2">
@@ -7306,61 +7923,53 @@
       <c r="B36">
         <v>13</v>
       </c>
-      <c r="C36" s="4" t="s">
+      <c r="C36" s="5" t="s">
         <v>13</v>
       </c>
       <c r="D36" t="s">
-        <v>63</v>
+        <v>89</v>
       </c>
       <c r="E36">
-        <v>28</v>
-      </c>
-      <c r="F36" s="5" t="s">
-        <v>13</v>
-      </c>
+        <v>137</v>
+      </c>
+      <c r="F36"/>
       <c r="G36" t="s">
-        <v>63</v>
+        <v>89</v>
       </c>
       <c r="H36">
-        <v>29</v>
-      </c>
-      <c r="I36" s="5" t="s">
-        <v>13</v>
-      </c>
+        <v>137</v>
+      </c>
+      <c r="I36"/>
       <c r="J36" t="s">
         <v>68</v>
       </c>
       <c r="K36">
         <v>11</v>
       </c>
-      <c r="L36" s="5" t="s">
+      <c r="L36" s="6" t="s">
         <v>1</v>
       </c>
       <c r="M36" t="s">
+        <v>89</v>
+      </c>
+      <c r="N36">
+        <v>137</v>
+      </c>
+      <c r="O36"/>
+      <c r="P36" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q36">
+        <v>137</v>
+      </c>
+      <c r="R36"/>
+      <c r="S36" t="s">
         <v>63</v>
       </c>
-      <c r="N36">
-        <v>60</v>
-      </c>
-      <c r="O36" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="P36" t="s">
-        <v>63</v>
-      </c>
-      <c r="Q36">
-        <v>32</v>
-      </c>
-      <c r="R36" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="S36" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="T36" s="2">
-        <v>32</v>
-      </c>
-      <c r="U36" s="6" t="s">
+      <c r="T36">
+        <v>12</v>
+      </c>
+      <c r="U36" t="s">
         <v>13</v>
       </c>
       <c r="V36" t="s">
@@ -7369,7 +7978,7 @@
       <c r="W36">
         <v>9</v>
       </c>
-      <c r="X36" s="5" t="s">
+      <c r="X36" s="6" t="s">
         <v>8</v>
       </c>
       <c r="Y36" t="s">
@@ -7378,17 +7987,14 @@
       <c r="Z36">
         <v>13</v>
       </c>
-      <c r="AA36" s="5" t="s">
+      <c r="AA36" s="6" t="s">
         <v>13</v>
       </c>
       <c r="AB36" t="s">
-        <v>63</v>
+        <v>89</v>
       </c>
       <c r="AC36">
-        <v>28</v>
-      </c>
-      <c r="AD36" t="s">
-        <v>13</v>
+        <v>137</v>
       </c>
     </row>
     <row r="37" spans="1:30" x14ac:dyDescent="0.2">
@@ -7398,26 +8004,26 @@
       <c r="B37">
         <v>2</v>
       </c>
-      <c r="C37" s="4" t="s">
+      <c r="C37" s="5" t="s">
         <v>3</v>
       </c>
       <c r="D37" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E37">
-        <v>11</v>
-      </c>
-      <c r="F37" s="5" t="s">
-        <v>8</v>
+        <v>13</v>
+      </c>
+      <c r="F37" t="s">
+        <v>13</v>
       </c>
       <c r="G37" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="H37">
-        <v>12</v>
-      </c>
-      <c r="I37" s="5" t="s">
-        <v>8</v>
+        <v>13</v>
+      </c>
+      <c r="I37" t="s">
+        <v>13</v>
       </c>
       <c r="J37" t="s">
         <v>69</v>
@@ -7425,35 +8031,35 @@
       <c r="K37">
         <v>2</v>
       </c>
-      <c r="L37" s="5" t="s">
+      <c r="L37" s="6" t="s">
         <v>9</v>
       </c>
       <c r="M37" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="N37">
-        <v>24</v>
-      </c>
-      <c r="O37" s="5" t="s">
-        <v>8</v>
+        <v>13</v>
+      </c>
+      <c r="O37" t="s">
+        <v>13</v>
       </c>
       <c r="P37" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="Q37">
-        <v>14</v>
-      </c>
-      <c r="R37" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="S37" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="T37" s="2">
-        <v>14</v>
-      </c>
-      <c r="U37" s="6" t="s">
-        <v>8</v>
+        <v>13</v>
+      </c>
+      <c r="R37" t="s">
+        <v>13</v>
+      </c>
+      <c r="S37" t="s">
+        <v>64</v>
+      </c>
+      <c r="T37">
+        <v>2</v>
+      </c>
+      <c r="U37" t="s">
+        <v>3</v>
       </c>
       <c r="V37" t="s">
         <v>86</v>
@@ -7461,7 +8067,7 @@
       <c r="W37">
         <v>1</v>
       </c>
-      <c r="X37" s="5" t="s">
+      <c r="X37" s="6" t="s">
         <v>8</v>
       </c>
       <c r="Y37" t="s">
@@ -7470,17 +8076,17 @@
       <c r="Z37">
         <v>2</v>
       </c>
-      <c r="AA37" s="5" t="s">
+      <c r="AA37" s="6" t="s">
         <v>3</v>
       </c>
       <c r="AB37" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="AC37">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AD37" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
     </row>
     <row r="38" spans="1:30" x14ac:dyDescent="0.2">
@@ -7490,25 +8096,25 @@
       <c r="B38">
         <v>3</v>
       </c>
-      <c r="C38" s="4" t="s">
+      <c r="C38" s="5" t="s">
         <v>8</v>
       </c>
       <c r="D38" t="s">
-        <v>93</v>
+        <v>64</v>
       </c>
       <c r="E38">
-        <v>3</v>
-      </c>
-      <c r="F38" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="F38" t="s">
         <v>3</v>
       </c>
       <c r="G38" t="s">
-        <v>93</v>
+        <v>64</v>
       </c>
       <c r="H38">
         <v>2</v>
       </c>
-      <c r="I38" s="5" t="s">
+      <c r="I38" t="s">
         <v>3</v>
       </c>
       <c r="J38" t="s">
@@ -7517,35 +8123,35 @@
       <c r="K38">
         <v>2</v>
       </c>
-      <c r="L38" s="5" t="s">
+      <c r="L38" s="6" t="s">
         <v>9</v>
       </c>
       <c r="M38" t="s">
-        <v>93</v>
+        <v>64</v>
       </c>
       <c r="N38">
-        <v>5</v>
-      </c>
-      <c r="O38" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="O38" t="s">
         <v>3</v>
       </c>
       <c r="P38" t="s">
-        <v>93</v>
+        <v>64</v>
       </c>
       <c r="Q38">
-        <v>3</v>
-      </c>
-      <c r="R38" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="S38" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="T38" s="2">
-        <v>3</v>
-      </c>
-      <c r="U38" s="6" t="s">
-        <v>3</v>
+        <v>2</v>
+      </c>
+      <c r="R38" t="s">
+        <v>3</v>
+      </c>
+      <c r="S38" t="s">
+        <v>65</v>
+      </c>
+      <c r="T38">
+        <v>3</v>
+      </c>
+      <c r="U38" t="s">
+        <v>8</v>
       </c>
       <c r="V38" t="s">
         <v>30</v>
@@ -7553,7 +8159,7 @@
       <c r="W38">
         <v>5</v>
       </c>
-      <c r="X38" s="5" t="s">
+      <c r="X38" s="6" t="s">
         <v>1</v>
       </c>
       <c r="Y38" t="s">
@@ -7562,11 +8168,11 @@
       <c r="Z38">
         <v>3</v>
       </c>
-      <c r="AA38" s="5" t="s">
+      <c r="AA38" s="6" t="s">
         <v>8</v>
       </c>
       <c r="AB38" t="s">
-        <v>93</v>
+        <v>64</v>
       </c>
       <c r="AC38">
         <v>2</v>
@@ -7582,25 +8188,25 @@
       <c r="B39">
         <v>1</v>
       </c>
-      <c r="C39" s="4" t="s">
+      <c r="C39" s="5" t="s">
         <v>18</v>
       </c>
       <c r="D39" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E39">
-        <v>9</v>
-      </c>
-      <c r="F39" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F39" t="s">
         <v>8</v>
       </c>
       <c r="G39" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="H39">
-        <v>8</v>
-      </c>
-      <c r="I39" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="I39" t="s">
         <v>8</v>
       </c>
       <c r="J39" t="s">
@@ -7609,34 +8215,34 @@
       <c r="K39">
         <v>7</v>
       </c>
-      <c r="L39" s="5" t="s">
+      <c r="L39" s="6" t="s">
         <v>4</v>
       </c>
       <c r="M39" t="s">
+        <v>65</v>
+      </c>
+      <c r="N39">
+        <v>3</v>
+      </c>
+      <c r="O39" t="s">
+        <v>8</v>
+      </c>
+      <c r="P39" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q39">
+        <v>3</v>
+      </c>
+      <c r="R39" t="s">
+        <v>8</v>
+      </c>
+      <c r="S39" t="s">
         <v>67</v>
       </c>
-      <c r="N39">
-        <v>18</v>
-      </c>
-      <c r="O39" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="P39" t="s">
-        <v>67</v>
-      </c>
-      <c r="Q39">
-        <v>10</v>
-      </c>
-      <c r="R39" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="S39" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="T39" s="2">
-        <v>10</v>
-      </c>
-      <c r="U39" s="6" t="s">
+      <c r="T39">
+        <v>2</v>
+      </c>
+      <c r="U39" t="s">
         <v>8</v>
       </c>
       <c r="V39" t="s">
@@ -7645,7 +8251,7 @@
       <c r="W39">
         <v>4</v>
       </c>
-      <c r="X39" s="5" t="s">
+      <c r="X39" s="6" t="s">
         <v>1</v>
       </c>
       <c r="Y39" t="s">
@@ -7654,14 +8260,14 @@
       <c r="Z39">
         <v>1</v>
       </c>
-      <c r="AA39" s="5" t="s">
+      <c r="AA39" s="6" t="s">
         <v>18</v>
       </c>
       <c r="AB39" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="AC39">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="AD39" t="s">
         <v>8</v>
@@ -7674,26 +8280,26 @@
       <c r="B40">
         <v>2</v>
       </c>
-      <c r="C40" s="4" t="s">
+      <c r="C40" s="5" t="s">
         <v>8</v>
       </c>
       <c r="D40" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E40">
-        <v>19</v>
-      </c>
-      <c r="F40" s="5" t="s">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="F40" t="s">
+        <v>18</v>
       </c>
       <c r="G40" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="H40">
-        <v>20</v>
-      </c>
-      <c r="I40" s="5" t="s">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="I40" t="s">
+        <v>18</v>
       </c>
       <c r="J40" t="s">
         <v>72</v>
@@ -7701,34 +8307,34 @@
       <c r="K40">
         <v>4</v>
       </c>
-      <c r="L40" s="5" t="s">
+      <c r="L40" s="6" t="s">
         <v>9</v>
       </c>
       <c r="M40" t="s">
+        <v>66</v>
+      </c>
+      <c r="N40">
+        <v>1</v>
+      </c>
+      <c r="O40" t="s">
+        <v>18</v>
+      </c>
+      <c r="P40" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q40">
+        <v>1</v>
+      </c>
+      <c r="R40" t="s">
+        <v>18</v>
+      </c>
+      <c r="S40" t="s">
         <v>68</v>
       </c>
-      <c r="N40">
-        <v>40</v>
-      </c>
-      <c r="O40" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="P40" t="s">
-        <v>68</v>
-      </c>
-      <c r="Q40">
-        <v>20</v>
-      </c>
-      <c r="R40" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="S40" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="T40" s="2">
-        <v>20</v>
-      </c>
-      <c r="U40" s="6" t="s">
+      <c r="T40">
+        <v>11</v>
+      </c>
+      <c r="U40" t="s">
         <v>1</v>
       </c>
       <c r="V40" t="s">
@@ -7737,7 +8343,7 @@
       <c r="W40">
         <v>4</v>
       </c>
-      <c r="X40" s="5" t="s">
+      <c r="X40" s="6" t="s">
         <v>1</v>
       </c>
       <c r="Y40" t="s">
@@ -7746,17 +8352,17 @@
       <c r="Z40">
         <v>2</v>
       </c>
-      <c r="AA40" s="5" t="s">
+      <c r="AA40" s="6" t="s">
         <v>8</v>
       </c>
       <c r="AB40" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="AC40">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="AD40" t="s">
-        <v>1</v>
+        <v>18</v>
       </c>
     </row>
     <row r="41" spans="1:30" x14ac:dyDescent="0.2">
@@ -7766,26 +8372,26 @@
       <c r="B41">
         <v>11</v>
       </c>
-      <c r="C41" s="4" t="s">
+      <c r="C41" s="5" t="s">
         <v>1</v>
       </c>
       <c r="D41" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="E41">
-        <v>3</v>
-      </c>
-      <c r="F41" s="5" t="s">
-        <v>9</v>
+        <v>2</v>
+      </c>
+      <c r="F41" t="s">
+        <v>8</v>
       </c>
       <c r="G41" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="H41">
         <v>2</v>
       </c>
-      <c r="I41" s="5" t="s">
-        <v>9</v>
+      <c r="I41" t="s">
+        <v>8</v>
       </c>
       <c r="J41" t="s">
         <v>73</v>
@@ -7793,34 +8399,34 @@
       <c r="K41">
         <v>7</v>
       </c>
-      <c r="L41" s="5" t="s">
+      <c r="L41" s="6" t="s">
         <v>6</v>
       </c>
       <c r="M41" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="N41">
-        <v>5</v>
-      </c>
-      <c r="O41" s="5" t="s">
-        <v>9</v>
+        <v>2</v>
+      </c>
+      <c r="O41" t="s">
+        <v>8</v>
       </c>
       <c r="P41" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="Q41">
-        <v>3</v>
-      </c>
-      <c r="R41" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="S41" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="T41" s="2">
-        <v>3</v>
-      </c>
-      <c r="U41" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="R41" t="s">
+        <v>8</v>
+      </c>
+      <c r="S41" t="s">
+        <v>69</v>
+      </c>
+      <c r="T41">
+        <v>2</v>
+      </c>
+      <c r="U41" t="s">
         <v>9</v>
       </c>
       <c r="V41" t="s">
@@ -7829,7 +8435,7 @@
       <c r="W41">
         <v>11</v>
       </c>
-      <c r="X41" s="5" t="s">
+      <c r="X41" s="6" t="s">
         <v>1</v>
       </c>
       <c r="Y41" t="s">
@@ -7838,17 +8444,17 @@
       <c r="Z41">
         <v>11</v>
       </c>
-      <c r="AA41" s="5" t="s">
+      <c r="AA41" s="6" t="s">
         <v>1</v>
       </c>
       <c r="AB41" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="AC41">
         <v>2</v>
       </c>
       <c r="AD41" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="42" spans="1:30" x14ac:dyDescent="0.2">
@@ -7858,26 +8464,26 @@
       <c r="B42">
         <v>2</v>
       </c>
-      <c r="C42" s="4" t="s">
+      <c r="C42" s="5" t="s">
         <v>9</v>
       </c>
       <c r="D42" t="s">
-        <v>94</v>
+        <v>68</v>
       </c>
       <c r="E42">
-        <v>3</v>
-      </c>
-      <c r="F42" s="5" t="s">
-        <v>4</v>
+        <v>11</v>
+      </c>
+      <c r="F42" t="s">
+        <v>1</v>
       </c>
       <c r="G42" t="s">
-        <v>94</v>
+        <v>68</v>
       </c>
       <c r="H42">
-        <v>2</v>
-      </c>
-      <c r="I42" s="5" t="s">
-        <v>4</v>
+        <v>11</v>
+      </c>
+      <c r="I42" t="s">
+        <v>1</v>
       </c>
       <c r="J42" t="s">
         <v>74</v>
@@ -7885,35 +8491,35 @@
       <c r="K42">
         <v>11</v>
       </c>
-      <c r="L42" s="5" t="s">
+      <c r="L42" s="6" t="s">
         <v>5</v>
       </c>
       <c r="M42" t="s">
-        <v>94</v>
+        <v>68</v>
       </c>
       <c r="N42">
-        <v>5</v>
-      </c>
-      <c r="O42" s="5" t="s">
-        <v>4</v>
+        <v>11</v>
+      </c>
+      <c r="O42" t="s">
+        <v>1</v>
       </c>
       <c r="P42" t="s">
-        <v>94</v>
+        <v>68</v>
       </c>
       <c r="Q42">
-        <v>3</v>
-      </c>
-      <c r="R42" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="S42" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="T42" s="2">
-        <v>3</v>
-      </c>
-      <c r="U42" s="6" t="s">
-        <v>4</v>
+        <v>11</v>
+      </c>
+      <c r="R42" t="s">
+        <v>1</v>
+      </c>
+      <c r="S42" t="s">
+        <v>70</v>
+      </c>
+      <c r="T42">
+        <v>2</v>
+      </c>
+      <c r="U42" t="s">
+        <v>9</v>
       </c>
       <c r="V42" t="s">
         <v>56</v>
@@ -7921,7 +8527,7 @@
       <c r="W42">
         <v>2</v>
       </c>
-      <c r="X42" s="5" t="s">
+      <c r="X42" s="6" t="s">
         <v>11</v>
       </c>
       <c r="Y42" t="s">
@@ -7930,17 +8536,17 @@
       <c r="Z42">
         <v>2</v>
       </c>
-      <c r="AA42" s="5" t="s">
+      <c r="AA42" s="6" t="s">
         <v>9</v>
       </c>
       <c r="AB42" t="s">
-        <v>94</v>
+        <v>68</v>
       </c>
       <c r="AC42">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="AD42" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43" spans="1:30" x14ac:dyDescent="0.2">
@@ -7950,26 +8556,26 @@
       <c r="B43">
         <v>2</v>
       </c>
-      <c r="C43" s="4" t="s">
+      <c r="C43" s="5" t="s">
         <v>9</v>
       </c>
       <c r="D43" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E43">
-        <v>26</v>
-      </c>
-      <c r="F43" s="5" t="s">
-        <v>4</v>
+        <v>2</v>
+      </c>
+      <c r="F43" t="s">
+        <v>9</v>
       </c>
       <c r="G43" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="H43">
-        <v>24</v>
-      </c>
-      <c r="I43" s="5" t="s">
-        <v>4</v>
+        <v>2</v>
+      </c>
+      <c r="I43" t="s">
+        <v>9</v>
       </c>
       <c r="J43" t="s">
         <v>75</v>
@@ -7977,34 +8583,34 @@
       <c r="K43">
         <v>6</v>
       </c>
-      <c r="L43" s="5" t="s">
+      <c r="L43" s="6" t="s">
         <v>5</v>
       </c>
       <c r="M43" t="s">
+        <v>69</v>
+      </c>
+      <c r="N43">
+        <v>2</v>
+      </c>
+      <c r="O43" t="s">
+        <v>9</v>
+      </c>
+      <c r="P43" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q43">
+        <v>2</v>
+      </c>
+      <c r="R43" t="s">
+        <v>9</v>
+      </c>
+      <c r="S43" t="s">
         <v>71</v>
       </c>
-      <c r="N43">
-        <v>49</v>
-      </c>
-      <c r="O43" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="P43" t="s">
-        <v>71</v>
-      </c>
-      <c r="Q43">
-        <v>27</v>
-      </c>
-      <c r="R43" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="S43" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="T43" s="2">
-        <v>27</v>
-      </c>
-      <c r="U43" s="6" t="s">
+      <c r="T43">
+        <v>8</v>
+      </c>
+      <c r="U43" t="s">
         <v>4</v>
       </c>
       <c r="V43" t="s">
@@ -8013,7 +8619,7 @@
       <c r="W43">
         <v>6</v>
       </c>
-      <c r="X43" s="5" t="s">
+      <c r="X43" s="6" t="s">
         <v>11</v>
       </c>
       <c r="Y43" t="s">
@@ -8022,17 +8628,17 @@
       <c r="Z43">
         <v>2</v>
       </c>
-      <c r="AA43" s="5" t="s">
+      <c r="AA43" s="6" t="s">
         <v>9</v>
       </c>
       <c r="AB43" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="AC43">
-        <v>24</v>
+        <v>2</v>
       </c>
       <c r="AD43" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="44" spans="1:30" x14ac:dyDescent="0.2">
@@ -8042,25 +8648,25 @@
       <c r="B44">
         <v>8</v>
       </c>
-      <c r="C44" s="4" t="s">
+      <c r="C44" s="5" t="s">
         <v>4</v>
       </c>
       <c r="D44" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E44">
-        <v>8</v>
-      </c>
-      <c r="F44" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="F44" t="s">
         <v>9</v>
       </c>
       <c r="G44" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="H44">
-        <v>8</v>
-      </c>
-      <c r="I44" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="I44" t="s">
         <v>9</v>
       </c>
       <c r="J44" t="s">
@@ -8069,34 +8675,34 @@
       <c r="K44">
         <v>1</v>
       </c>
-      <c r="L44" s="5" t="s">
+      <c r="L44" s="6" t="s">
         <v>14</v>
       </c>
       <c r="M44" t="s">
+        <v>70</v>
+      </c>
+      <c r="N44">
+        <v>2</v>
+      </c>
+      <c r="O44" t="s">
+        <v>9</v>
+      </c>
+      <c r="P44" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q44">
+        <v>2</v>
+      </c>
+      <c r="R44" t="s">
+        <v>9</v>
+      </c>
+      <c r="S44" t="s">
         <v>72</v>
       </c>
-      <c r="N44">
-        <v>16</v>
-      </c>
-      <c r="O44" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="P44" t="s">
-        <v>72</v>
-      </c>
-      <c r="Q44">
-        <v>8</v>
-      </c>
-      <c r="R44" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="S44" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="T44" s="2">
-        <v>8</v>
-      </c>
-      <c r="U44" s="6" t="s">
+      <c r="T44">
+        <v>4</v>
+      </c>
+      <c r="U44" t="s">
         <v>9</v>
       </c>
       <c r="V44" t="s">
@@ -8105,7 +8711,7 @@
       <c r="W44">
         <v>2</v>
       </c>
-      <c r="X44" s="5" t="s">
+      <c r="X44" s="6" t="s">
         <v>14</v>
       </c>
       <c r="Y44" t="s">
@@ -8114,14 +8720,14 @@
       <c r="Z44">
         <v>8</v>
       </c>
-      <c r="AA44" s="5" t="s">
+      <c r="AA44" s="6" t="s">
         <v>4</v>
       </c>
       <c r="AB44" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="AC44">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="AD44" t="s">
         <v>9</v>
@@ -8134,26 +8740,26 @@
       <c r="B45">
         <v>4</v>
       </c>
-      <c r="C45" s="4" t="s">
+      <c r="C45" s="5" t="s">
         <v>9</v>
       </c>
       <c r="D45" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="E45">
-        <v>36</v>
-      </c>
-      <c r="F45" s="5" t="s">
-        <v>6</v>
+        <v>8</v>
+      </c>
+      <c r="F45" t="s">
+        <v>4</v>
       </c>
       <c r="G45" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="H45">
-        <v>48</v>
-      </c>
-      <c r="I45" s="5" t="s">
-        <v>6</v>
+        <v>8</v>
+      </c>
+      <c r="I45" t="s">
+        <v>4</v>
       </c>
       <c r="J45" t="s">
         <v>77</v>
@@ -8161,34 +8767,34 @@
       <c r="K45">
         <v>4</v>
       </c>
-      <c r="L45" s="5" t="s">
+      <c r="L45" s="6" t="s">
         <v>8</v>
       </c>
       <c r="M45" t="s">
+        <v>71</v>
+      </c>
+      <c r="N45">
+        <v>8</v>
+      </c>
+      <c r="O45" t="s">
+        <v>4</v>
+      </c>
+      <c r="P45" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q45">
+        <v>8</v>
+      </c>
+      <c r="R45" t="s">
+        <v>4</v>
+      </c>
+      <c r="S45" t="s">
         <v>73</v>
       </c>
-      <c r="N45">
-        <v>96</v>
-      </c>
-      <c r="O45" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="P45" t="s">
-        <v>73</v>
-      </c>
-      <c r="Q45">
-        <v>48</v>
-      </c>
-      <c r="R45" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="S45" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="T45" s="2">
-        <v>48</v>
-      </c>
-      <c r="U45" s="6" t="s">
+      <c r="T45">
+        <v>7</v>
+      </c>
+      <c r="U45" t="s">
         <v>6</v>
       </c>
       <c r="V45" t="s">
@@ -8197,7 +8803,7 @@
       <c r="W45">
         <v>13</v>
       </c>
-      <c r="X45" s="5" t="s">
+      <c r="X45" s="6" t="s">
         <v>13</v>
       </c>
       <c r="Y45" t="s">
@@ -8206,17 +8812,17 @@
       <c r="Z45">
         <v>4</v>
       </c>
-      <c r="AA45" s="5" t="s">
+      <c r="AA45" s="6" t="s">
         <v>9</v>
       </c>
       <c r="AB45" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="AC45">
-        <v>48</v>
+        <v>8</v>
       </c>
       <c r="AD45" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="46" spans="1:30" x14ac:dyDescent="0.2">
@@ -8226,26 +8832,26 @@
       <c r="B46">
         <v>7</v>
       </c>
-      <c r="C46" s="4" t="s">
+      <c r="C46" s="5" t="s">
         <v>6</v>
       </c>
       <c r="D46" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E46">
-        <v>29</v>
-      </c>
-      <c r="F46" s="5" t="s">
-        <v>5</v>
+        <v>4</v>
+      </c>
+      <c r="F46" t="s">
+        <v>9</v>
       </c>
       <c r="G46" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="H46">
-        <v>26</v>
-      </c>
-      <c r="I46" s="5" t="s">
-        <v>5</v>
+        <v>4</v>
+      </c>
+      <c r="I46" t="s">
+        <v>9</v>
       </c>
       <c r="J46" t="s">
         <v>78</v>
@@ -8253,34 +8859,34 @@
       <c r="K46">
         <v>1</v>
       </c>
-      <c r="L46" s="5" t="s">
+      <c r="L46" s="6" t="s">
         <v>9</v>
       </c>
       <c r="M46" t="s">
+        <v>72</v>
+      </c>
+      <c r="N46">
+        <v>4</v>
+      </c>
+      <c r="O46" t="s">
+        <v>9</v>
+      </c>
+      <c r="P46" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q46">
+        <v>4</v>
+      </c>
+      <c r="R46" t="s">
+        <v>9</v>
+      </c>
+      <c r="S46" t="s">
         <v>74</v>
       </c>
-      <c r="N46">
-        <v>55</v>
-      </c>
-      <c r="O46" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="P46" t="s">
-        <v>74</v>
-      </c>
-      <c r="Q46">
-        <v>32</v>
-      </c>
-      <c r="R46" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="S46" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="T46" s="2">
-        <v>32</v>
-      </c>
-      <c r="U46" s="6" t="s">
+      <c r="T46">
+        <v>13</v>
+      </c>
+      <c r="U46" t="s">
         <v>5</v>
       </c>
       <c r="V46" t="s">
@@ -8289,7 +8895,7 @@
       <c r="W46">
         <v>1</v>
       </c>
-      <c r="X46" s="5" t="s">
+      <c r="X46" s="6" t="s">
         <v>6</v>
       </c>
       <c r="Y46" t="s">
@@ -8298,17 +8904,17 @@
       <c r="Z46">
         <v>7</v>
       </c>
-      <c r="AA46" s="5" t="s">
+      <c r="AA46" s="6" t="s">
         <v>6</v>
       </c>
       <c r="AB46" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="AC46">
-        <v>26</v>
+        <v>4</v>
       </c>
       <c r="AD46" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="47" spans="1:30" x14ac:dyDescent="0.2">
@@ -8318,26 +8924,26 @@
       <c r="B47">
         <v>13</v>
       </c>
-      <c r="C47" s="4" t="s">
+      <c r="C47" s="5" t="s">
         <v>5</v>
       </c>
       <c r="D47" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E47">
-        <v>25</v>
-      </c>
-      <c r="F47" s="5" t="s">
-        <v>5</v>
+        <v>7</v>
+      </c>
+      <c r="F47" t="s">
+        <v>6</v>
       </c>
       <c r="G47" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="H47">
-        <v>24</v>
-      </c>
-      <c r="I47" s="5" t="s">
-        <v>5</v>
+        <v>7</v>
+      </c>
+      <c r="I47" t="s">
+        <v>6</v>
       </c>
       <c r="J47" t="s">
         <v>79</v>
@@ -8345,34 +8951,34 @@
       <c r="K47">
         <v>4</v>
       </c>
-      <c r="L47" s="5" t="s">
+      <c r="L47" s="6" t="s">
         <v>3</v>
       </c>
       <c r="M47" t="s">
+        <v>73</v>
+      </c>
+      <c r="N47">
+        <v>7</v>
+      </c>
+      <c r="O47" t="s">
+        <v>6</v>
+      </c>
+      <c r="P47" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q47">
+        <v>7</v>
+      </c>
+      <c r="R47" t="s">
+        <v>6</v>
+      </c>
+      <c r="S47" t="s">
         <v>75</v>
       </c>
-      <c r="N47">
-        <v>48</v>
-      </c>
-      <c r="O47" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="P47" t="s">
-        <v>75</v>
-      </c>
-      <c r="Q47">
-        <v>27</v>
-      </c>
-      <c r="R47" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="S47" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="T47" s="2">
-        <v>27</v>
-      </c>
-      <c r="U47" s="6" t="s">
+      <c r="T47">
+        <v>12</v>
+      </c>
+      <c r="U47" t="s">
         <v>5</v>
       </c>
       <c r="V47" t="s">
@@ -8381,7 +8987,7 @@
       <c r="W47">
         <v>2</v>
       </c>
-      <c r="X47" s="5" t="s">
+      <c r="X47" s="6" t="s">
         <v>6</v>
       </c>
       <c r="Y47" t="s">
@@ -8390,17 +8996,17 @@
       <c r="Z47">
         <v>13</v>
       </c>
-      <c r="AA47" s="5" t="s">
+      <c r="AA47" s="6" t="s">
         <v>5</v>
       </c>
       <c r="AB47" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="AC47">
-        <v>24</v>
+        <v>7</v>
       </c>
       <c r="AD47" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="48" spans="1:30" x14ac:dyDescent="0.2">
@@ -8410,26 +9016,26 @@
       <c r="B48">
         <v>11</v>
       </c>
-      <c r="C48" s="4" t="s">
+      <c r="C48" s="5" t="s">
         <v>5</v>
       </c>
       <c r="D48" t="s">
-        <v>95</v>
+        <v>74</v>
       </c>
       <c r="E48">
-        <v>2</v>
-      </c>
-      <c r="F48" s="5" t="s">
-        <v>96</v>
+        <v>13</v>
+      </c>
+      <c r="F48" t="s">
+        <v>5</v>
       </c>
       <c r="G48" t="s">
-        <v>95</v>
+        <v>74</v>
       </c>
       <c r="H48">
-        <v>2</v>
-      </c>
-      <c r="I48" s="5" t="s">
-        <v>96</v>
+        <v>13</v>
+      </c>
+      <c r="I48" t="s">
+        <v>5</v>
       </c>
       <c r="J48" t="s">
         <v>80</v>
@@ -8437,35 +9043,35 @@
       <c r="K48">
         <v>1</v>
       </c>
-      <c r="L48" s="5" t="s">
+      <c r="L48" s="6" t="s">
         <v>15</v>
       </c>
       <c r="M48" t="s">
-        <v>95</v>
+        <v>74</v>
       </c>
       <c r="N48">
-        <v>4</v>
-      </c>
-      <c r="O48" s="5" t="s">
-        <v>96</v>
+        <v>13</v>
+      </c>
+      <c r="O48" t="s">
+        <v>5</v>
       </c>
       <c r="P48" t="s">
-        <v>95</v>
+        <v>74</v>
       </c>
       <c r="Q48">
-        <v>2</v>
-      </c>
-      <c r="R48" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="S48" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="T48" s="2">
-        <v>2</v>
-      </c>
-      <c r="U48" s="6" t="s">
-        <v>96</v>
+        <v>13</v>
+      </c>
+      <c r="R48" t="s">
+        <v>5</v>
+      </c>
+      <c r="S48" t="s">
+        <v>76</v>
+      </c>
+      <c r="T48">
+        <v>2</v>
+      </c>
+      <c r="U48" t="s">
+        <v>14</v>
       </c>
       <c r="V48" t="s">
         <v>50</v>
@@ -8473,7 +9079,7 @@
       <c r="W48">
         <v>3</v>
       </c>
-      <c r="X48" s="5" t="s">
+      <c r="X48" s="6" t="s">
         <v>6</v>
       </c>
       <c r="Y48" t="s">
@@ -8482,17 +9088,17 @@
       <c r="Z48">
         <v>12</v>
       </c>
-      <c r="AA48" s="5" t="s">
+      <c r="AA48" s="6" t="s">
         <v>5</v>
       </c>
       <c r="AB48" t="s">
-        <v>95</v>
+        <v>74</v>
       </c>
       <c r="AC48">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="AD48" t="s">
-        <v>96</v>
+        <v>5</v>
       </c>
     </row>
     <row r="49" spans="1:30" x14ac:dyDescent="0.2">
@@ -8502,26 +9108,26 @@
       <c r="B49">
         <v>2</v>
       </c>
-      <c r="C49" s="4" t="s">
+      <c r="C49" s="5" t="s">
         <v>14</v>
       </c>
       <c r="D49" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E49">
-        <v>2</v>
-      </c>
-      <c r="F49" s="5" t="s">
-        <v>14</v>
+        <v>12</v>
+      </c>
+      <c r="F49" t="s">
+        <v>5</v>
       </c>
       <c r="G49" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H49">
-        <v>2</v>
-      </c>
-      <c r="I49" s="5" t="s">
-        <v>14</v>
+        <v>12</v>
+      </c>
+      <c r="I49" t="s">
+        <v>5</v>
       </c>
       <c r="J49" t="s">
         <v>81</v>
@@ -8529,35 +9135,35 @@
       <c r="K49">
         <v>10</v>
       </c>
-      <c r="L49" s="5" t="s">
+      <c r="L49" s="6" t="s">
         <v>7</v>
       </c>
       <c r="M49" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="N49">
-        <v>4</v>
-      </c>
-      <c r="O49" s="5" t="s">
-        <v>14</v>
+        <v>12</v>
+      </c>
+      <c r="O49" t="s">
+        <v>5</v>
       </c>
       <c r="P49" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="Q49">
-        <v>2</v>
-      </c>
-      <c r="R49" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="S49" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="T49" s="2">
-        <v>2</v>
-      </c>
-      <c r="U49" s="6" t="s">
-        <v>14</v>
+        <v>12</v>
+      </c>
+      <c r="R49" t="s">
+        <v>5</v>
+      </c>
+      <c r="S49" t="s">
+        <v>77</v>
+      </c>
+      <c r="T49">
+        <v>4</v>
+      </c>
+      <c r="U49" t="s">
+        <v>8</v>
       </c>
       <c r="V49" t="s">
         <v>73</v>
@@ -8565,7 +9171,7 @@
       <c r="W49">
         <v>7</v>
       </c>
-      <c r="X49" s="5" t="s">
+      <c r="X49" s="6" t="s">
         <v>6</v>
       </c>
       <c r="Y49" t="s">
@@ -8574,17 +9180,17 @@
       <c r="Z49">
         <v>2</v>
       </c>
-      <c r="AA49" s="5" t="s">
+      <c r="AA49" s="6" t="s">
         <v>14</v>
       </c>
       <c r="AB49" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="AC49">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="AD49" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
     </row>
     <row r="50" spans="1:30" x14ac:dyDescent="0.2">
@@ -8594,26 +9200,26 @@
       <c r="B50">
         <v>4</v>
       </c>
-      <c r="C50" s="4" t="s">
+      <c r="C50" s="5" t="s">
         <v>8</v>
       </c>
       <c r="D50" t="s">
-        <v>97</v>
+        <v>76</v>
       </c>
       <c r="E50">
-        <v>1</v>
-      </c>
-      <c r="F50" s="5" t="s">
-        <v>98</v>
+        <v>2</v>
+      </c>
+      <c r="F50" t="s">
+        <v>14</v>
       </c>
       <c r="G50" t="s">
-        <v>97</v>
+        <v>76</v>
       </c>
       <c r="H50">
         <v>2</v>
       </c>
-      <c r="I50" s="5" t="s">
-        <v>98</v>
+      <c r="I50" t="s">
+        <v>14</v>
       </c>
       <c r="J50" t="s">
         <v>82</v>
@@ -8621,35 +9227,35 @@
       <c r="K50">
         <v>4</v>
       </c>
-      <c r="L50" s="5" t="s">
+      <c r="L50" s="6" t="s">
         <v>8</v>
       </c>
       <c r="M50" t="s">
-        <v>97</v>
+        <v>76</v>
       </c>
       <c r="N50">
-        <v>4</v>
-      </c>
-      <c r="O50" s="5" t="s">
-        <v>98</v>
+        <v>2</v>
+      </c>
+      <c r="O50" t="s">
+        <v>14</v>
       </c>
       <c r="P50" t="s">
-        <v>97</v>
+        <v>76</v>
       </c>
       <c r="Q50">
         <v>2</v>
       </c>
-      <c r="R50" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="S50" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="T50" s="2">
-        <v>2</v>
-      </c>
-      <c r="U50" s="6" t="s">
-        <v>98</v>
+      <c r="R50" t="s">
+        <v>14</v>
+      </c>
+      <c r="S50" t="s">
+        <v>78</v>
+      </c>
+      <c r="T50">
+        <v>1</v>
+      </c>
+      <c r="U50" t="s">
+        <v>9</v>
       </c>
       <c r="V50" t="s">
         <v>41</v>
@@ -8657,7 +9263,7 @@
       <c r="W50">
         <v>72</v>
       </c>
-      <c r="X50" s="5" t="s">
+      <c r="X50" s="6" t="s">
         <v>7</v>
       </c>
       <c r="Y50" t="s">
@@ -8666,17 +9272,17 @@
       <c r="Z50">
         <v>4</v>
       </c>
-      <c r="AA50" s="5" t="s">
+      <c r="AA50" s="6" t="s">
         <v>8</v>
       </c>
       <c r="AB50" t="s">
-        <v>97</v>
+        <v>76</v>
       </c>
       <c r="AC50">
         <v>2</v>
       </c>
       <c r="AD50" t="s">
-        <v>98</v>
+        <v>14</v>
       </c>
     </row>
     <row r="51" spans="1:30" x14ac:dyDescent="0.2">
@@ -8686,25 +9292,25 @@
       <c r="B51">
         <v>1</v>
       </c>
-      <c r="C51" s="4" t="s">
+      <c r="C51" s="5" t="s">
         <v>9</v>
       </c>
       <c r="D51" t="s">
         <v>77</v>
       </c>
       <c r="E51">
-        <v>8</v>
-      </c>
-      <c r="F51" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F51" t="s">
         <v>8</v>
       </c>
       <c r="G51" t="s">
         <v>77</v>
       </c>
       <c r="H51">
-        <v>8</v>
-      </c>
-      <c r="I51" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="I51" t="s">
         <v>8</v>
       </c>
       <c r="J51" t="s">
@@ -8713,35 +9319,35 @@
       <c r="K51">
         <v>9</v>
       </c>
-      <c r="L51" s="5" t="s">
+      <c r="L51" s="6" t="s">
         <v>8</v>
       </c>
       <c r="M51" t="s">
         <v>77</v>
       </c>
       <c r="N51">
-        <v>16</v>
-      </c>
-      <c r="O51" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="O51" t="s">
         <v>8</v>
       </c>
       <c r="P51" t="s">
         <v>77</v>
       </c>
       <c r="Q51">
-        <v>8</v>
-      </c>
-      <c r="R51" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="S51" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="T51" s="2">
-        <v>8</v>
-      </c>
-      <c r="U51" s="6" t="s">
-        <v>8</v>
+        <v>4</v>
+      </c>
+      <c r="R51" t="s">
+        <v>8</v>
+      </c>
+      <c r="S51" t="s">
+        <v>79</v>
+      </c>
+      <c r="T51">
+        <v>4</v>
+      </c>
+      <c r="U51" t="s">
+        <v>3</v>
       </c>
       <c r="V51" t="s">
         <v>44</v>
@@ -8749,7 +9355,7 @@
       <c r="W51">
         <v>2</v>
       </c>
-      <c r="X51" s="5" t="s">
+      <c r="X51" s="6" t="s">
         <v>7</v>
       </c>
       <c r="Y51" t="s">
@@ -8758,14 +9364,14 @@
       <c r="Z51">
         <v>1</v>
       </c>
-      <c r="AA51" s="5" t="s">
+      <c r="AA51" s="6" t="s">
         <v>9</v>
       </c>
       <c r="AB51" t="s">
         <v>77</v>
       </c>
       <c r="AC51">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="AD51" t="s">
         <v>8</v>
@@ -8778,26 +9384,26 @@
       <c r="B52">
         <v>4</v>
       </c>
-      <c r="C52" s="4" t="s">
+      <c r="C52" s="5" t="s">
         <v>3</v>
       </c>
       <c r="D52" t="s">
-        <v>99</v>
+        <v>78</v>
       </c>
       <c r="E52">
-        <v>3</v>
-      </c>
-      <c r="F52" s="5" t="s">
-        <v>7</v>
+        <v>1</v>
+      </c>
+      <c r="F52" t="s">
+        <v>9</v>
       </c>
       <c r="G52" t="s">
-        <v>99</v>
+        <v>78</v>
       </c>
       <c r="H52">
-        <v>2</v>
-      </c>
-      <c r="I52" s="5" t="s">
-        <v>7</v>
+        <v>1</v>
+      </c>
+      <c r="I52" t="s">
+        <v>9</v>
       </c>
       <c r="J52" t="s">
         <v>85</v>
@@ -8805,35 +9411,35 @@
       <c r="K52">
         <v>4</v>
       </c>
-      <c r="L52" s="5" t="s">
+      <c r="L52" s="6" t="s">
         <v>4</v>
       </c>
       <c r="M52" t="s">
-        <v>99</v>
+        <v>78</v>
       </c>
       <c r="N52">
-        <v>5</v>
-      </c>
-      <c r="O52" s="5" t="s">
-        <v>7</v>
+        <v>1</v>
+      </c>
+      <c r="O52" t="s">
+        <v>9</v>
       </c>
       <c r="P52" t="s">
-        <v>99</v>
+        <v>78</v>
       </c>
       <c r="Q52">
-        <v>3</v>
-      </c>
-      <c r="R52" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="S52" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="T52" s="2">
-        <v>3</v>
-      </c>
-      <c r="U52" s="6" t="s">
-        <v>7</v>
+        <v>1</v>
+      </c>
+      <c r="R52" t="s">
+        <v>9</v>
+      </c>
+      <c r="S52" t="s">
+        <v>80</v>
+      </c>
+      <c r="T52">
+        <v>1</v>
+      </c>
+      <c r="U52" t="s">
+        <v>15</v>
       </c>
       <c r="V52" t="s">
         <v>81</v>
@@ -8841,7 +9447,7 @@
       <c r="W52">
         <v>10</v>
       </c>
-      <c r="X52" s="5" t="s">
+      <c r="X52" s="6" t="s">
         <v>7</v>
       </c>
       <c r="Y52" t="s">
@@ -8850,17 +9456,17 @@
       <c r="Z52">
         <v>4</v>
       </c>
-      <c r="AA52" s="5" t="s">
+      <c r="AA52" s="6" t="s">
         <v>3</v>
       </c>
       <c r="AB52" t="s">
-        <v>99</v>
+        <v>78</v>
       </c>
       <c r="AC52">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AD52" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="53" spans="1:30" x14ac:dyDescent="0.2">
@@ -8870,25 +9476,25 @@
       <c r="B53">
         <v>1</v>
       </c>
-      <c r="C53" s="4" t="s">
+      <c r="C53" s="5" t="s">
         <v>15</v>
       </c>
       <c r="D53" t="s">
         <v>79</v>
       </c>
       <c r="E53">
-        <v>8</v>
-      </c>
-      <c r="F53" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F53" t="s">
         <v>3</v>
       </c>
       <c r="G53" t="s">
         <v>79</v>
       </c>
       <c r="H53">
-        <v>8</v>
-      </c>
-      <c r="I53" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="I53" t="s">
         <v>3</v>
       </c>
       <c r="J53" t="s">
@@ -8897,35 +9503,35 @@
       <c r="K53">
         <v>1</v>
       </c>
-      <c r="L53" s="5" t="s">
+      <c r="L53" s="6" t="s">
         <v>8</v>
       </c>
       <c r="M53" t="s">
         <v>79</v>
       </c>
       <c r="N53">
-        <v>16</v>
-      </c>
-      <c r="O53" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="O53" t="s">
         <v>3</v>
       </c>
       <c r="P53" t="s">
         <v>79</v>
       </c>
       <c r="Q53">
-        <v>8</v>
-      </c>
-      <c r="R53" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="S53" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="T53" s="2">
-        <v>8</v>
-      </c>
-      <c r="U53" s="6" t="s">
-        <v>3</v>
+        <v>4</v>
+      </c>
+      <c r="R53" t="s">
+        <v>3</v>
+      </c>
+      <c r="S53" t="s">
+        <v>81</v>
+      </c>
+      <c r="T53">
+        <v>10</v>
+      </c>
+      <c r="U53" t="s">
+        <v>7</v>
       </c>
       <c r="V53" t="s">
         <v>66</v>
@@ -8933,7 +9539,7 @@
       <c r="W53">
         <v>1</v>
       </c>
-      <c r="X53" s="5" t="s">
+      <c r="X53" s="6" t="s">
         <v>18</v>
       </c>
       <c r="Y53" t="s">
@@ -8942,14 +9548,14 @@
       <c r="Z53">
         <v>1</v>
       </c>
-      <c r="AA53" s="5" t="s">
+      <c r="AA53" s="6" t="s">
         <v>15</v>
       </c>
       <c r="AB53" t="s">
         <v>79</v>
       </c>
       <c r="AC53">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="AD53" t="s">
         <v>3</v>
@@ -8962,25 +9568,25 @@
       <c r="B54">
         <v>10</v>
       </c>
-      <c r="C54" s="4" t="s">
+      <c r="C54" s="5" t="s">
         <v>7</v>
       </c>
       <c r="D54" t="s">
         <v>80</v>
       </c>
       <c r="E54">
-        <v>13</v>
-      </c>
-      <c r="F54" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="F54" t="s">
         <v>15</v>
       </c>
       <c r="G54" t="s">
         <v>80</v>
       </c>
       <c r="H54">
-        <v>10</v>
-      </c>
-      <c r="I54" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="I54" t="s">
         <v>15</v>
       </c>
       <c r="J54" t="s">
@@ -8989,35 +9595,35 @@
       <c r="K54">
         <v>1</v>
       </c>
-      <c r="L54" s="5" t="s">
+      <c r="L54" s="6" t="s">
         <v>4</v>
       </c>
       <c r="M54" t="s">
         <v>80</v>
       </c>
       <c r="N54">
-        <v>20</v>
-      </c>
-      <c r="O54" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="O54" t="s">
         <v>15</v>
       </c>
       <c r="P54" t="s">
         <v>80</v>
       </c>
       <c r="Q54">
-        <v>14</v>
-      </c>
-      <c r="R54" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="R54" t="s">
         <v>15</v>
       </c>
-      <c r="S54" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="T54" s="2">
-        <v>14</v>
-      </c>
-      <c r="U54" s="6" t="s">
-        <v>15</v>
+      <c r="S54" t="s">
+        <v>82</v>
+      </c>
+      <c r="T54">
+        <v>4</v>
+      </c>
+      <c r="U54" t="s">
+        <v>8</v>
       </c>
       <c r="V54" t="s">
         <v>34</v>
@@ -9025,7 +9631,7 @@
       <c r="W54">
         <v>5</v>
       </c>
-      <c r="X54" s="5" t="s">
+      <c r="X54" s="6" t="s">
         <v>5</v>
       </c>
       <c r="Y54" t="s">
@@ -9034,14 +9640,14 @@
       <c r="Z54">
         <v>10</v>
       </c>
-      <c r="AA54" s="5" t="s">
+      <c r="AA54" s="6" t="s">
         <v>7</v>
       </c>
       <c r="AB54" t="s">
         <v>80</v>
       </c>
       <c r="AC54">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="AD54" t="s">
         <v>15</v>
@@ -9054,53 +9660,53 @@
       <c r="B55">
         <v>4</v>
       </c>
-      <c r="C55" s="4" t="s">
+      <c r="C55" s="5" t="s">
         <v>8</v>
       </c>
       <c r="D55" t="s">
-        <v>100</v>
+        <v>81</v>
       </c>
       <c r="E55">
-        <v>3</v>
-      </c>
-      <c r="F55" s="5" t="s">
-        <v>1</v>
+        <v>10</v>
+      </c>
+      <c r="F55" t="s">
+        <v>7</v>
       </c>
       <c r="G55" t="s">
-        <v>100</v>
+        <v>81</v>
       </c>
       <c r="H55">
-        <v>2</v>
-      </c>
-      <c r="I55" s="5" t="s">
-        <v>1</v>
+        <v>10</v>
+      </c>
+      <c r="I55" t="s">
+        <v>7</v>
       </c>
       <c r="M55" t="s">
-        <v>100</v>
+        <v>81</v>
       </c>
       <c r="N55">
-        <v>5</v>
-      </c>
-      <c r="O55" s="5" t="s">
-        <v>1</v>
+        <v>10</v>
+      </c>
+      <c r="O55" t="s">
+        <v>7</v>
       </c>
       <c r="P55" t="s">
-        <v>100</v>
+        <v>81</v>
       </c>
       <c r="Q55">
-        <v>3</v>
-      </c>
-      <c r="R55" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="S55" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="T55" s="2">
-        <v>3</v>
-      </c>
-      <c r="U55" s="6" t="s">
-        <v>1</v>
+        <v>10</v>
+      </c>
+      <c r="R55" t="s">
+        <v>7</v>
+      </c>
+      <c r="S55" t="s">
+        <v>84</v>
+      </c>
+      <c r="T55">
+        <v>9</v>
+      </c>
+      <c r="U55" t="s">
+        <v>8</v>
       </c>
       <c r="V55" t="s">
         <v>74</v>
@@ -9108,7 +9714,7 @@
       <c r="W55">
         <v>13</v>
       </c>
-      <c r="X55" s="5" t="s">
+      <c r="X55" s="6" t="s">
         <v>5</v>
       </c>
       <c r="Y55" t="s">
@@ -9117,17 +9723,17 @@
       <c r="Z55">
         <v>4</v>
       </c>
-      <c r="AA55" s="5" t="s">
+      <c r="AA55" s="6" t="s">
         <v>8</v>
       </c>
       <c r="AB55" t="s">
-        <v>100</v>
+        <v>81</v>
       </c>
       <c r="AC55">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="AD55" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="56" spans="1:30" x14ac:dyDescent="0.2">
@@ -9137,53 +9743,53 @@
       <c r="B56">
         <v>1</v>
       </c>
-      <c r="C56" s="4" t="s">
+      <c r="C56" s="5" t="s">
         <v>19</v>
       </c>
       <c r="D56" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E56">
-        <v>19</v>
-      </c>
-      <c r="F56" s="5" t="s">
-        <v>7</v>
+        <v>4</v>
+      </c>
+      <c r="F56" t="s">
+        <v>8</v>
       </c>
       <c r="G56" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H56">
-        <v>18</v>
-      </c>
-      <c r="I56" s="5" t="s">
-        <v>7</v>
+        <v>4</v>
+      </c>
+      <c r="I56" t="s">
+        <v>8</v>
       </c>
       <c r="M56" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="N56">
-        <v>36</v>
-      </c>
-      <c r="O56" s="5" t="s">
-        <v>7</v>
+        <v>4</v>
+      </c>
+      <c r="O56" t="s">
+        <v>8</v>
       </c>
       <c r="P56" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="Q56">
-        <v>19</v>
-      </c>
-      <c r="R56" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="S56" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="T56" s="2">
-        <v>19</v>
-      </c>
-      <c r="U56" s="6" t="s">
-        <v>7</v>
+        <v>4</v>
+      </c>
+      <c r="R56" t="s">
+        <v>8</v>
+      </c>
+      <c r="S56" t="s">
+        <v>85</v>
+      </c>
+      <c r="T56">
+        <v>5</v>
+      </c>
+      <c r="U56" t="s">
+        <v>4</v>
       </c>
       <c r="V56" t="s">
         <v>75</v>
@@ -9191,7 +9797,7 @@
       <c r="W56">
         <v>12</v>
       </c>
-      <c r="X56" s="5" t="s">
+      <c r="X56" s="6" t="s">
         <v>5</v>
       </c>
       <c r="Y56" t="s">
@@ -9200,17 +9806,17 @@
       <c r="Z56">
         <v>1</v>
       </c>
-      <c r="AA56" s="5" t="s">
+      <c r="AA56" s="6" t="s">
         <v>19</v>
       </c>
       <c r="AB56" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AC56">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="AD56" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="57" spans="1:30" x14ac:dyDescent="0.2">
@@ -9220,52 +9826,52 @@
       <c r="B57">
         <v>9</v>
       </c>
-      <c r="C57" s="4" t="s">
+      <c r="C57" s="5" t="s">
         <v>8</v>
       </c>
       <c r="D57" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E57">
-        <v>8</v>
-      </c>
-      <c r="F57" s="5" t="s">
-        <v>8</v>
+        <v>1</v>
+      </c>
+      <c r="F57" t="s">
+        <v>19</v>
       </c>
       <c r="G57" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H57">
-        <v>10</v>
-      </c>
-      <c r="I57" s="5" t="s">
-        <v>8</v>
+        <v>1</v>
+      </c>
+      <c r="I57" t="s">
+        <v>19</v>
       </c>
       <c r="M57" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="N57">
-        <v>20</v>
-      </c>
-      <c r="O57" s="5" t="s">
-        <v>8</v>
+        <v>1</v>
+      </c>
+      <c r="O57" t="s">
+        <v>19</v>
       </c>
       <c r="P57" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="Q57">
-        <v>10</v>
-      </c>
-      <c r="R57" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="S57" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="T57" s="2">
-        <v>10</v>
-      </c>
-      <c r="U57" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="R57" t="s">
+        <v>19</v>
+      </c>
+      <c r="S57" t="s">
+        <v>86</v>
+      </c>
+      <c r="T57">
+        <v>1</v>
+      </c>
+      <c r="U57" t="s">
         <v>8</v>
       </c>
       <c r="V57" t="s">
@@ -9274,7 +9880,7 @@
       <c r="W57">
         <v>1</v>
       </c>
-      <c r="X57" s="5" t="s">
+      <c r="X57" s="6" t="s">
         <v>19</v>
       </c>
       <c r="Y57" t="s">
@@ -9283,17 +9889,17 @@
       <c r="Z57">
         <v>9</v>
       </c>
-      <c r="AA57" s="5" t="s">
+      <c r="AA57" s="6" t="s">
         <v>8</v>
       </c>
       <c r="AB57" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AC57">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="AD57" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
     </row>
     <row r="58" spans="1:30" x14ac:dyDescent="0.2">
@@ -9303,43 +9909,52 @@
       <c r="B58">
         <v>5</v>
       </c>
-      <c r="C58" s="4" t="s">
+      <c r="C58" s="5" t="s">
         <v>4</v>
       </c>
       <c r="D58" t="s">
-        <v>101</v>
+        <v>84</v>
       </c>
       <c r="E58">
-        <v>5</v>
-      </c>
-      <c r="F58" s="5" t="s">
-        <v>4</v>
+        <v>9</v>
+      </c>
+      <c r="F58" t="s">
+        <v>8</v>
       </c>
       <c r="G58" t="s">
-        <v>101</v>
+        <v>84</v>
       </c>
       <c r="H58">
-        <v>4</v>
-      </c>
-      <c r="I58" s="5" t="s">
-        <v>4</v>
+        <v>9</v>
+      </c>
+      <c r="I58" t="s">
+        <v>8</v>
       </c>
       <c r="M58" t="s">
-        <v>101</v>
+        <v>84</v>
       </c>
       <c r="N58">
         <v>9</v>
       </c>
-      <c r="O58" s="5" t="s">
-        <v>4</v>
+      <c r="O58" t="s">
+        <v>8</v>
       </c>
       <c r="P58" t="s">
-        <v>101</v>
+        <v>84</v>
       </c>
       <c r="Q58">
-        <v>5</v>
-      </c>
-      <c r="R58" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="R58" t="s">
+        <v>8</v>
+      </c>
+      <c r="S58" t="s">
+        <v>87</v>
+      </c>
+      <c r="T58">
+        <v>1</v>
+      </c>
+      <c r="U58" t="s">
         <v>4</v>
       </c>
       <c r="V58" t="s">
@@ -9348,7 +9963,7 @@
       <c r="W58">
         <v>1</v>
       </c>
-      <c r="X58" s="5" t="s">
+      <c r="X58" s="6" t="s">
         <v>15</v>
       </c>
       <c r="Y58" t="s">
@@ -9357,17 +9972,17 @@
       <c r="Z58">
         <v>4</v>
       </c>
-      <c r="AA58" s="5" t="s">
+      <c r="AA58" s="6" t="s">
         <v>4</v>
       </c>
       <c r="AB58" t="s">
-        <v>101</v>
+        <v>84</v>
       </c>
       <c r="AC58">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="AD58" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="59" spans="1:30" x14ac:dyDescent="0.2">
@@ -9377,44 +9992,44 @@
       <c r="B59">
         <v>1</v>
       </c>
-      <c r="C59" s="4" t="s">
+      <c r="C59" s="5" t="s">
         <v>8</v>
       </c>
       <c r="D59" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E59">
-        <v>6</v>
-      </c>
-      <c r="F59" s="5" t="s">
-        <v>8</v>
+        <v>5</v>
+      </c>
+      <c r="F59" t="s">
+        <v>4</v>
       </c>
       <c r="G59" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H59">
-        <v>8</v>
-      </c>
-      <c r="I59" s="5" t="s">
-        <v>8</v>
+        <v>5</v>
+      </c>
+      <c r="I59" t="s">
+        <v>4</v>
       </c>
       <c r="M59" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="N59">
-        <v>16</v>
-      </c>
-      <c r="O59" s="5" t="s">
-        <v>8</v>
+        <v>5</v>
+      </c>
+      <c r="O59" t="s">
+        <v>4</v>
       </c>
       <c r="P59" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="Q59">
-        <v>8</v>
-      </c>
-      <c r="R59" s="5" t="s">
-        <v>8</v>
+        <v>5</v>
+      </c>
+      <c r="R59" t="s">
+        <v>4</v>
       </c>
       <c r="V59" t="s">
         <v>31</v>
@@ -9422,26 +10037,26 @@
       <c r="W59">
         <v>1</v>
       </c>
-      <c r="X59" s="5" t="s">
+      <c r="X59" s="6" t="s">
         <v>2</v>
       </c>
       <c r="Y59" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="Z59">
         <v>3</v>
       </c>
-      <c r="AA59" s="5" t="s">
+      <c r="AA59" s="6" t="s">
         <v>4</v>
       </c>
       <c r="AB59" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AC59">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="AD59" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="60" spans="1:30" x14ac:dyDescent="0.2">
@@ -9451,44 +10066,44 @@
       <c r="B60">
         <v>1</v>
       </c>
-      <c r="C60" s="4" t="s">
+      <c r="C60" s="5" t="s">
         <v>4</v>
       </c>
       <c r="D60" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E60">
-        <v>6</v>
-      </c>
-      <c r="F60" s="5" t="s">
-        <v>4</v>
+        <v>1</v>
+      </c>
+      <c r="F60" t="s">
+        <v>8</v>
       </c>
       <c r="G60" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H60">
-        <v>6</v>
-      </c>
-      <c r="I60" s="5" t="s">
-        <v>4</v>
+        <v>1</v>
+      </c>
+      <c r="I60" t="s">
+        <v>8</v>
       </c>
       <c r="M60" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="N60">
-        <v>12</v>
-      </c>
-      <c r="O60" s="5" t="s">
-        <v>4</v>
+        <v>1</v>
+      </c>
+      <c r="O60" t="s">
+        <v>8</v>
       </c>
       <c r="P60" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="Q60">
-        <v>6</v>
-      </c>
-      <c r="R60" s="5" t="s">
-        <v>4</v>
+        <v>1</v>
+      </c>
+      <c r="R60" t="s">
+        <v>8</v>
       </c>
       <c r="V60" t="s">
         <v>61</v>
@@ -9496,7 +10111,7 @@
       <c r="W60">
         <v>14</v>
       </c>
-      <c r="X60" s="5" t="s">
+      <c r="X60" s="6" t="s">
         <v>12</v>
       </c>
       <c r="Y60" t="s">
@@ -9505,54 +10120,54 @@
       <c r="Z60">
         <v>1</v>
       </c>
-      <c r="AA60" s="5" t="s">
+      <c r="AA60" s="6" t="s">
         <v>8</v>
       </c>
       <c r="AB60" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AC60">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="AD60" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="61" spans="1:30" x14ac:dyDescent="0.2">
       <c r="D61" t="s">
-        <v>102</v>
+        <v>87</v>
       </c>
       <c r="E61">
-        <v>15</v>
-      </c>
-      <c r="F61" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="F61" t="s">
         <v>4</v>
       </c>
       <c r="G61" t="s">
-        <v>102</v>
+        <v>87</v>
       </c>
       <c r="H61">
-        <v>12</v>
-      </c>
-      <c r="I61" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="I61" t="s">
         <v>4</v>
       </c>
       <c r="M61" t="s">
-        <v>102</v>
+        <v>87</v>
       </c>
       <c r="N61">
-        <v>28</v>
-      </c>
-      <c r="O61" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="O61" t="s">
         <v>4</v>
       </c>
       <c r="P61" t="s">
-        <v>102</v>
+        <v>87</v>
       </c>
       <c r="Q61">
-        <v>16</v>
-      </c>
-      <c r="R61" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="R61" t="s">
         <v>4</v>
       </c>
       <c r="Y61" t="s">
@@ -9561,14 +10176,14 @@
       <c r="Z61">
         <v>1</v>
       </c>
-      <c r="AA61" s="5" t="s">
+      <c r="AA61" s="6" t="s">
         <v>4</v>
       </c>
       <c r="AB61" t="s">
-        <v>102</v>
+        <v>87</v>
       </c>
       <c r="AC61">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="AD61" t="s">
         <v>4</v>
@@ -9581,7 +10196,7 @@
       <c r="E62">
         <v>12</v>
       </c>
-      <c r="F62" s="5" t="s">
+      <c r="F62" s="6" t="s">
         <v>8</v>
       </c>
       <c r="G62" t="s">
@@ -9590,7 +10205,7 @@
       <c r="H62">
         <v>9</v>
       </c>
-      <c r="I62" s="5" t="s">
+      <c r="I62" s="6" t="s">
         <v>8</v>
       </c>
       <c r="M62" t="s">
@@ -9599,7 +10214,7 @@
       <c r="N62">
         <v>19</v>
       </c>
-      <c r="O62" s="5" t="s">
+      <c r="O62" s="6" t="s">
         <v>8</v>
       </c>
       <c r="P62" t="s">
@@ -9608,7 +10223,7 @@
       <c r="Q62">
         <v>12</v>
       </c>
-      <c r="R62" s="5" t="s">
+      <c r="R62" s="6" t="s">
         <v>8</v>
       </c>
       <c r="AB62" t="s">
@@ -9628,7 +10243,7 @@
       <c r="E63">
         <v>2</v>
       </c>
-      <c r="F63" s="5" t="s">
+      <c r="F63" s="6" t="s">
         <v>4</v>
       </c>
       <c r="G63" t="s">
@@ -9637,7 +10252,7 @@
       <c r="H63">
         <v>2</v>
       </c>
-      <c r="I63" s="5" t="s">
+      <c r="I63" s="6" t="s">
         <v>4</v>
       </c>
       <c r="M63" t="s">
@@ -9646,7 +10261,7 @@
       <c r="N63">
         <v>4</v>
       </c>
-      <c r="O63" s="5" t="s">
+      <c r="O63" s="6" t="s">
         <v>4</v>
       </c>
       <c r="P63" t="s">
@@ -9655,7 +10270,7 @@
       <c r="Q63">
         <v>2</v>
       </c>
-      <c r="R63" s="5" t="s">
+      <c r="R63" s="6" t="s">
         <v>4</v>
       </c>
       <c r="AB63" t="s">
@@ -9669,6 +10284,9 @@
       </c>
     </row>
   </sheetData>
+  <sortState ref="AV2:BF63">
+    <sortCondition descending="1" ref="AW1"/>
+  </sortState>
   <mergeCells count="10">
     <mergeCell ref="S1:U1"/>
     <mergeCell ref="V1:X1"/>
@@ -9683,4 +10301,291 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37AEBF63-AEBC-CC48-AC21-5C4798E59EB3}">
+  <dimension ref="A1:F21"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13:F20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1">
+        <v>1.403</v>
+      </c>
+      <c r="B1">
+        <f>A1-0.057</f>
+        <v>1.3460000000000001</v>
+      </c>
+      <c r="C1">
+        <f>B1-B2</f>
+        <v>1.121</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>0.28199999999999997</v>
+      </c>
+      <c r="B2">
+        <f t="shared" ref="B2:B5" si="0">A2-0.057</f>
+        <v>0.22499999999999998</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>0.83699999999999997</v>
+      </c>
+      <c r="B3">
+        <f t="shared" si="0"/>
+        <v>0.77999999999999992</v>
+      </c>
+      <c r="C3">
+        <f>B3-B4</f>
+        <v>0.53399999999999992</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>0.30299999999999999</v>
+      </c>
+      <c r="B4">
+        <f t="shared" si="0"/>
+        <v>0.246</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>0.45200000000000001</v>
+      </c>
+      <c r="B6">
+        <f>A6-0.074</f>
+        <v>0.378</v>
+      </c>
+      <c r="C6">
+        <f>B6-B7</f>
+        <v>0.33699999999999997</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>0.115</v>
+      </c>
+      <c r="B7">
+        <f t="shared" ref="B7:B10" si="1">A7-0.074</f>
+        <v>4.1000000000000009E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>0.60399999999999998</v>
+      </c>
+      <c r="B8">
+        <f t="shared" si="1"/>
+        <v>0.53</v>
+      </c>
+      <c r="C8">
+        <f>B8-B9</f>
+        <v>0.502</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>0.10199999999999999</v>
+      </c>
+      <c r="B9">
+        <f t="shared" si="1"/>
+        <v>2.7999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>102</v>
+      </c>
+      <c r="B12" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>8.1000000000000003E-2</v>
+      </c>
+      <c r="B13">
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="C13">
+        <f>A13-0.048</f>
+        <v>3.3000000000000002E-2</v>
+      </c>
+      <c r="D13">
+        <f>B13-0.042</f>
+        <v>2.3E-2</v>
+      </c>
+      <c r="E13">
+        <f>C13/D13</f>
+        <v>1.4347826086956523</v>
+      </c>
+      <c r="F13">
+        <f>E13-E14</f>
+        <v>0.22049689440993792</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="B14">
+        <v>5.6000000000000001E-2</v>
+      </c>
+      <c r="C14">
+        <f t="shared" ref="C14:C15" si="2">A14-0.048</f>
+        <v>1.7000000000000001E-2</v>
+      </c>
+      <c r="D14">
+        <f t="shared" ref="D14:D16" si="3">B14-0.042</f>
+        <v>1.3999999999999999E-2</v>
+      </c>
+      <c r="E14">
+        <f t="shared" ref="E14:E16" si="4">C14/D14</f>
+        <v>1.2142857142857144</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>7.0999999999999994E-2</v>
+      </c>
+      <c r="B15">
+        <v>5.8000000000000003E-2</v>
+      </c>
+      <c r="C15">
+        <f t="shared" si="2"/>
+        <v>2.2999999999999993E-2</v>
+      </c>
+      <c r="D15">
+        <f t="shared" si="3"/>
+        <v>1.6E-2</v>
+      </c>
+      <c r="E15">
+        <f t="shared" si="4"/>
+        <v>1.4374999999999996</v>
+      </c>
+      <c r="F15">
+        <f>E15-E16</f>
+        <v>0.77083333333333259</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>5.3999999999999999E-2</v>
+      </c>
+      <c r="B16">
+        <v>5.0999999999999997E-2</v>
+      </c>
+      <c r="C16">
+        <f>A16-0.048</f>
+        <v>5.9999999999999984E-3</v>
+      </c>
+      <c r="D16">
+        <f t="shared" si="3"/>
+        <v>8.9999999999999941E-3</v>
+      </c>
+      <c r="E16">
+        <f t="shared" si="4"/>
+        <v>0.66666666666666696</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>0.106</v>
+      </c>
+      <c r="B18">
+        <v>8.5000000000000006E-2</v>
+      </c>
+      <c r="C18">
+        <f>A18-0.053</f>
+        <v>5.2999999999999999E-2</v>
+      </c>
+      <c r="D18">
+        <f>B18-0.046</f>
+        <v>3.9000000000000007E-2</v>
+      </c>
+      <c r="E18">
+        <f>C18/D18</f>
+        <v>1.3589743589743586</v>
+      </c>
+      <c r="F18">
+        <f>E18-E19</f>
+        <v>8.6247086247085658E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>6.7000000000000004E-2</v>
+      </c>
+      <c r="B19">
+        <v>5.7000000000000002E-2</v>
+      </c>
+      <c r="C19">
+        <f t="shared" ref="C19:C21" si="5">A19-0.053</f>
+        <v>1.4000000000000005E-2</v>
+      </c>
+      <c r="D19">
+        <f t="shared" ref="D19:D21" si="6">B19-0.046</f>
+        <v>1.1000000000000003E-2</v>
+      </c>
+      <c r="E19">
+        <f t="shared" ref="E19:E21" si="7">C19/D19</f>
+        <v>1.2727272727272729</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>8.1000000000000003E-2</v>
+      </c>
+      <c r="B20">
+        <v>6.6000000000000003E-2</v>
+      </c>
+      <c r="C20">
+        <f t="shared" si="5"/>
+        <v>2.8000000000000004E-2</v>
+      </c>
+      <c r="D20">
+        <f t="shared" si="6"/>
+        <v>2.0000000000000004E-2</v>
+      </c>
+      <c r="E20">
+        <f t="shared" si="7"/>
+        <v>1.4</v>
+      </c>
+      <c r="F20">
+        <f>E20-E21</f>
+        <v>0.62222222222222234</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>0.06</v>
+      </c>
+      <c r="B21">
+        <v>5.5E-2</v>
+      </c>
+      <c r="C21">
+        <f t="shared" si="5"/>
+        <v>6.9999999999999993E-3</v>
+      </c>
+      <c r="D21">
+        <f t="shared" si="6"/>
+        <v>9.0000000000000011E-3</v>
+      </c>
+      <c r="E21">
+        <f t="shared" si="7"/>
+        <v>0.77777777777777757</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>